--- a/Docs/Design_Arch/BL_SW_FLATFORM.xlsx
+++ b/Docs/Design_Arch/BL_SW_FLATFORM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="450" windowWidth="19875" windowHeight="7335" activeTab="6"/>
+    <workbookView xWindow="360" yWindow="450" windowWidth="19875" windowHeight="7335" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="RawIdeaAnalysis" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="Requirement" sheetId="7" r:id="rId5"/>
     <sheet name="PID" sheetId="8" r:id="rId6"/>
     <sheet name="OPL" sheetId="4" r:id="rId7"/>
+    <sheet name="MCR_HardwareBuild" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Requirement!$C$2:$C$385</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="242">
   <si>
     <t>STT</t>
   </si>
@@ -677,6 +678,85 @@
   </si>
   <si>
     <t>Requirement/Descripttion</t>
+  </si>
+  <si>
+    <t>Tên thiết bị</t>
+  </si>
+  <si>
+    <t>Số lượng</t>
+  </si>
+  <si>
+    <t>Khung xe MCR</t>
+  </si>
+  <si>
+    <t>Cần dò line</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>ECU trung tâm</t>
+  </si>
+  <si>
+    <t>Pin lipo +sạc</t>
+  </si>
+  <si>
+    <t>RC Servo</t>
+  </si>
+  <si>
+    <t>Mạch nguồn (5V, 3.3V)</t>
+  </si>
+  <si>
+    <t>Mạch dò line dùng cảm biến quang or Hồng ngoại</t>
+  </si>
+  <si>
+    <t>Dây điện</t>
+  </si>
+  <si>
+    <t>Bánh xe hộp số</t>
+  </si>
+  <si>
+    <t>Mạch cầu H lái  động cơ</t>
+  </si>
+  <si>
+    <t>Đường (lane)</t>
+  </si>
+  <si>
+    <t>N.A</t>
+  </si>
+  <si>
+    <t>Tự thiết kế or đặt mua</t>
+  </si>
+  <si>
+    <t>Mua</t>
+  </si>
+  <si>
+    <t>STM32F4 Disco</t>
+  </si>
+  <si>
+    <t>2200 mAh, 3C, 11.1V</t>
+  </si>
+  <si>
+    <t>Mua chung team</t>
+  </si>
+  <si>
+    <t>Cây chống mạch</t>
+  </si>
+  <si>
+    <t>Chỗ Mua</t>
+  </si>
+  <si>
+    <t>http://hshop.vn/</t>
+  </si>
+  <si>
+    <t>http://www.dientuachau.com/</t>
+  </si>
+  <si>
+    <t>Khoa</t>
+  </si>
+  <si>
+    <t>Tự thiết kế or đặt mua
+Lựa chọn công suất  phù hợp với tải</t>
   </si>
 </sst>
 </file>
@@ -723,7 +803,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -751,6 +831,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -919,7 +1005,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -967,27 +1053,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1063,11 +1128,43 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5894,18 +5991,18 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
       <c r="I5" s="22"/>
-      <c r="J5" s="40" t="s">
+      <c r="J5" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E6" s="21" t="s">
@@ -5922,15 +6019,15 @@
       <c r="L6" s="21"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="F7" s="41" t="s">
+      <c r="F7" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="43"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="36"/>
       <c r="J7" s="16" t="s">
         <v>179</v>
       </c>
@@ -5942,35 +6039,35 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E8" s="55"/>
-      <c r="F8" s="56" t="s">
+      <c r="E8" s="48"/>
+      <c r="F8" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="54" t="s">
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="47" t="s">
         <v>180</v>
       </c>
-      <c r="K8" s="54" t="s">
+      <c r="K8" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="L8" s="54" t="s">
+      <c r="L8" s="47" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E9" s="51"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E10" s="50" t="s">
+      <c r="E10" s="43" t="s">
         <v>169</v>
       </c>
       <c r="F10" s="19" t="s">
@@ -5994,7 +6091,7 @@
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E11" s="55"/>
+      <c r="E11" s="48"/>
       <c r="F11" s="18" t="s">
         <v>161</v>
       </c>
@@ -6016,7 +6113,7 @@
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E12" s="51"/>
+      <c r="E12" s="44"/>
       <c r="F12" s="18" t="s">
         <v>165</v>
       </c>
@@ -6038,47 +6135,47 @@
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E13" s="50" t="s">
+      <c r="E13" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="F13" s="62" t="s">
+      <c r="F13" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="41" t="s">
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="K13" s="42"/>
-      <c r="L13" s="43"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="36"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E14" s="55"/>
-      <c r="F14" s="56" t="s">
+      <c r="E14" s="48"/>
+      <c r="F14" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="44" t="s">
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="K14" s="45"/>
-      <c r="L14" s="46"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="39"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E15" s="51"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="49"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="42"/>
     </row>
     <row r="16" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="E16" s="50" t="s">
+      <c r="E16" s="43" t="s">
         <v>171</v>
       </c>
       <c r="F16" s="16" t="s">
@@ -6104,7 +6201,7 @@
       </c>
     </row>
     <row r="17" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E17" s="51"/>
+      <c r="E17" s="44"/>
       <c r="F17" s="16" t="s">
         <v>207</v>
       </c>
@@ -6128,7 +6225,7 @@
       </c>
     </row>
     <row r="18" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="63" t="s">
         <v>173</v>
       </c>
       <c r="F18" s="16" t="s">
@@ -6137,10 +6234,10 @@
       <c r="G18" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="H18" s="33" t="s">
+      <c r="H18" s="58" t="s">
         <v>176</v>
       </c>
-      <c r="I18" s="34"/>
+      <c r="I18" s="59"/>
       <c r="J18" s="16" t="s">
         <v>179</v>
       </c>
@@ -6152,17 +6249,17 @@
       </c>
     </row>
     <row r="19" spans="5:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="E19" s="39"/>
+      <c r="E19" s="64"/>
       <c r="F19" s="16" t="s">
         <v>174</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="H19" s="35" t="s">
+      <c r="H19" s="60" t="s">
         <v>214</v>
       </c>
-      <c r="I19" s="34"/>
+      <c r="I19" s="59"/>
       <c r="J19" s="16" t="s">
         <v>195</v>
       </c>
@@ -6174,7 +6271,7 @@
       </c>
     </row>
     <row r="20" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E20" s="38" t="s">
+      <c r="E20" s="63" t="s">
         <v>199</v>
       </c>
       <c r="F20" s="16" t="s">
@@ -6183,10 +6280,10 @@
       <c r="G20" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="H20" s="33" t="s">
+      <c r="H20" s="58" t="s">
         <v>201</v>
       </c>
-      <c r="I20" s="34"/>
+      <c r="I20" s="59"/>
       <c r="J20" s="16" t="s">
         <v>179</v>
       </c>
@@ -6198,15 +6295,15 @@
       </c>
     </row>
     <row r="21" spans="5:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="39"/>
+      <c r="E21" s="64"/>
       <c r="F21" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="G21" s="35" t="s">
+      <c r="G21" s="60" t="s">
         <v>203</v>
       </c>
-      <c r="H21" s="36"/>
-      <c r="I21" s="37"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="62"/>
       <c r="J21" s="16" t="s">
         <v>204</v>
       </c>
@@ -6215,6 +6312,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="J13:L13"/>
     <mergeCell ref="J14:L15"/>
@@ -6230,12 +6333,6 @@
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="F14:I15"/>
     <mergeCell ref="L8:L9"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E20:E21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9412,8 +9509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9427,8 +9524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9532,4 +9629,228 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D5:G22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="32.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D5" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="67" t="s">
+        <v>216</v>
+      </c>
+      <c r="F5" s="67" t="s">
+        <v>217</v>
+      </c>
+      <c r="G5" s="67" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D6" s="16">
+        <v>1</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="F6" s="16">
+        <v>1</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D7" s="16">
+        <v>2</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="F7" s="16">
+        <v>4</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D8" s="16">
+        <v>3</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="F8" s="16">
+        <v>1</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D9" s="16">
+        <v>4</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="F9" s="16">
+        <v>1</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="D10" s="16">
+        <v>5</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="F10" s="16">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="11" spans="4:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="D11" s="16">
+        <v>6</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="F11" s="16">
+        <v>2</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D12" s="16">
+        <v>7</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="F12" s="16">
+        <v>1</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="4:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="D13" s="16">
+        <v>8</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="F13" s="16">
+        <v>1</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D14" s="16">
+        <v>9</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="F14" s="16">
+        <v>1</v>
+      </c>
+      <c r="G14" s="16"/>
+    </row>
+    <row r="15" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D15" s="16">
+        <v>10</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="G15" s="16"/>
+    </row>
+    <row r="16" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D16" s="16">
+        <v>11</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D17" s="16">
+        <v>12</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="F17" s="16">
+        <v>1</v>
+      </c>
+      <c r="G17" s="16"/>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D20" s="69" t="s">
+        <v>237</v>
+      </c>
+      <c r="E20" s="68" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D21" s="70"/>
+      <c r="E21" s="68" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D22" s="71"/>
+      <c r="E22" s="16" t="s">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D20:D22"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E20" r:id="rId1"/>
+    <hyperlink ref="E21" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Docs/Design_Arch/BL_SW_FLATFORM.xlsx
+++ b/Docs/Design_Arch/BL_SW_FLATFORM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="450" windowWidth="19875" windowHeight="7335" activeTab="7"/>
+    <workbookView xWindow="360" yWindow="510" windowWidth="19875" windowHeight="7275" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="RawIdeaAnalysis" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,8 @@
     <sheet name="Requirement" sheetId="7" r:id="rId5"/>
     <sheet name="PID" sheetId="8" r:id="rId6"/>
     <sheet name="OPL" sheetId="4" r:id="rId7"/>
-    <sheet name="MCR_HardwareBuild" sheetId="9" r:id="rId8"/>
+    <sheet name="MCR_Build" sheetId="9" r:id="rId8"/>
+    <sheet name="Drone_Build" sheetId="10" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Requirement!$C$2:$C$385</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="261">
   <si>
     <t>STT</t>
   </si>
@@ -757,6 +758,63 @@
   <si>
     <t>Tự thiết kế or đặt mua
 Lựa chọn công suất  phù hợp với tải</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>Tips, Guideline</t>
+  </si>
+  <si>
+    <t>Hardware</t>
+  </si>
+  <si>
+    <t>https://oscarliang.com/best-flight-controller-quad-hex-copter/</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>How To Choose a Flight Controller for Mini Quad</t>
+  </si>
+  <si>
+    <t>HOW TO GET STARTED WITH DRONE RACING AND MINI QUAD FPV</t>
+  </si>
+  <si>
+    <t>https://oscarliang.com/mini-quad-racing-guide/</t>
+  </si>
+  <si>
+    <t>Read First</t>
+  </si>
+  <si>
+    <t>http://quanphongrc.vn/ct/may-bay-dieu-khien/1871/geprc-gep-tx-chimp-5-inch-210mm-carbon-fiber-frame-kit-with-pdb-led-xt60-camera-moun.html</t>
+  </si>
+  <si>
+    <t>Frame - GEPRC GEP-TX Chimp 5 Inch 210MM Carbon Fiber Frame Kit with PDB LED XT60 Camera Moun</t>
+  </si>
+  <si>
+    <t>Gía</t>
+  </si>
+  <si>
+    <t>970.000 VND</t>
+  </si>
+  <si>
+    <t>https://l.facebook.com/l.php?u=https%3A%2F%2Fworld.taobao.com%2Fitem%2F546230564665.htm%3Fspm%3Da312a.7700714.0.0.Qx6JBv%23detail&amp;h=ATMvQ0w2pTaQ0KFJK9Mk5PsS_INYF5Rdl3Tah-FGZMCbctGNBS5EeA3kh-jPaCYaVgJG75UKfI90HglB3qVXtBHbcTeGI-QYzIC8U-l-hprMTKhOqMXVjwwARzfwHK7SJhiQkvdlQg</t>
+  </si>
+  <si>
+    <t>Pixhaw set</t>
+  </si>
+  <si>
+    <t>https://oscarliang.com/mini-quad-not-blackout-qav250/</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>HobbyKing FPV250L Long Frame Drone A Mini Sized FPV Drone (kit)</t>
+  </si>
+  <si>
+    <t>https://hobbyking.com/en_us/hobbyking-fpv250l-long-frame-quad-copter-a-mini-sized-fpv-multi-rotor-kit.html?___store=en_us</t>
   </si>
 </sst>
 </file>
@@ -803,7 +861,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -837,6 +895,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1005,7 +1069,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -1053,6 +1117,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1155,8 +1221,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1165,6 +1229,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4579,52 +4647,6 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>323850</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="7169" name="Object 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s7169"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5966,11 +5988,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L21"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5991,18 +6013,18 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
       <c r="I5" s="22"/>
-      <c r="J5" s="33" t="s">
+      <c r="J5" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E6" s="21" t="s">
@@ -6019,15 +6041,15 @@
       <c r="L6" s="21"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="36"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="38"/>
       <c r="J7" s="16" t="s">
         <v>179</v>
       </c>
@@ -6039,35 +6061,35 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E8" s="48"/>
-      <c r="F8" s="49" t="s">
+      <c r="E8" s="50"/>
+      <c r="F8" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="47" t="s">
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="49" t="s">
         <v>180</v>
       </c>
-      <c r="K8" s="47" t="s">
+      <c r="K8" s="49" t="s">
         <v>183</v>
       </c>
-      <c r="L8" s="47" t="s">
+      <c r="L8" s="49" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E9" s="44"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E10" s="43" t="s">
+      <c r="E10" s="45" t="s">
         <v>169</v>
       </c>
       <c r="F10" s="19" t="s">
@@ -6091,7 +6113,7 @@
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E11" s="48"/>
+      <c r="E11" s="50"/>
       <c r="F11" s="18" t="s">
         <v>161</v>
       </c>
@@ -6113,7 +6135,7 @@
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E12" s="44"/>
+      <c r="E12" s="46"/>
       <c r="F12" s="18" t="s">
         <v>165</v>
       </c>
@@ -6135,47 +6157,47 @@
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E13" s="43" t="s">
+      <c r="E13" s="45" t="s">
         <v>170</v>
       </c>
-      <c r="F13" s="55" t="s">
+      <c r="F13" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="34" t="s">
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="K13" s="35"/>
-      <c r="L13" s="36"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="38"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E14" s="48"/>
-      <c r="F14" s="49" t="s">
+      <c r="E14" s="50"/>
+      <c r="F14" s="51" t="s">
         <v>166</v>
       </c>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="37" t="s">
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="K14" s="38"/>
-      <c r="L14" s="39"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="41"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E15" s="44"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="42"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="44"/>
     </row>
     <row r="16" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="E16" s="43" t="s">
+      <c r="E16" s="45" t="s">
         <v>171</v>
       </c>
       <c r="F16" s="16" t="s">
@@ -6201,7 +6223,7 @@
       </c>
     </row>
     <row r="17" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E17" s="44"/>
+      <c r="E17" s="46"/>
       <c r="F17" s="16" t="s">
         <v>207</v>
       </c>
@@ -6225,7 +6247,7 @@
       </c>
     </row>
     <row r="18" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E18" s="63" t="s">
+      <c r="E18" s="65" t="s">
         <v>173</v>
       </c>
       <c r="F18" s="16" t="s">
@@ -6234,10 +6256,10 @@
       <c r="G18" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="H18" s="58" t="s">
+      <c r="H18" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="I18" s="59"/>
+      <c r="I18" s="61"/>
       <c r="J18" s="16" t="s">
         <v>179</v>
       </c>
@@ -6249,17 +6271,17 @@
       </c>
     </row>
     <row r="19" spans="5:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="E19" s="64"/>
+      <c r="E19" s="66"/>
       <c r="F19" s="16" t="s">
         <v>174</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="H19" s="60" t="s">
+      <c r="H19" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="I19" s="59"/>
+      <c r="I19" s="61"/>
       <c r="J19" s="16" t="s">
         <v>195</v>
       </c>
@@ -6271,7 +6293,7 @@
       </c>
     </row>
     <row r="20" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E20" s="63" t="s">
+      <c r="E20" s="65" t="s">
         <v>199</v>
       </c>
       <c r="F20" s="16" t="s">
@@ -6280,10 +6302,10 @@
       <c r="G20" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="H20" s="58" t="s">
+      <c r="H20" s="60" t="s">
         <v>201</v>
       </c>
-      <c r="I20" s="59"/>
+      <c r="I20" s="61"/>
       <c r="J20" s="16" t="s">
         <v>179</v>
       </c>
@@ -6295,15 +6317,15 @@
       </c>
     </row>
     <row r="21" spans="5:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="64"/>
+      <c r="E21" s="66"/>
       <c r="F21" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="G21" s="60" t="s">
+      <c r="G21" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="H21" s="61"/>
-      <c r="I21" s="62"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="64"/>
       <c r="J21" s="16" t="s">
         <v>204</v>
       </c>
@@ -6335,35 +6357,6 @@
     <mergeCell ref="L8:L9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="PDF" dvAspect="DVASPECT_ICON" shapeId="7169" r:id="rId3">
-          <objectPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>323850</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="PDF" dvAspect="DVASPECT_ICON" shapeId="7169" r:id="rId3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </oleObjects>
 </worksheet>
 </file>
 
@@ -6371,8 +6364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H385"/>
   <sheetViews>
-    <sheetView topLeftCell="C82" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6385,7 +6378,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G2" s="65" t="s">
+      <c r="G2" s="67" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="3" t="s">
@@ -6393,37 +6386,37 @@
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G3" s="66"/>
+      <c r="G3" s="68"/>
       <c r="H3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G4" s="66"/>
+      <c r="G4" s="68"/>
       <c r="H4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G5" s="66"/>
+      <c r="G5" s="68"/>
       <c r="H5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G6" s="66"/>
+      <c r="G6" s="68"/>
       <c r="H6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G7" s="66"/>
+      <c r="G7" s="68"/>
       <c r="H7" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G8" s="66"/>
+      <c r="G8" s="68"/>
       <c r="H8" s="3" t="s">
         <v>15</v>
       </c>
@@ -9509,8 +9502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9525,7 +9518,7 @@
   <dimension ref="B4:F12"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9635,8 +9628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D5:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9648,16 +9641,16 @@
   </cols>
   <sheetData>
     <row r="5" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D5" s="67" t="s">
+      <c r="D5" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="67" t="s">
+      <c r="E5" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="F5" s="67" t="s">
+      <c r="F5" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="G5" s="67" t="s">
+      <c r="G5" s="33" t="s">
         <v>220</v>
       </c>
     </row>
@@ -9827,13 +9820,13 @@
       <c r="D20" s="69" t="s">
         <v>237</v>
       </c>
-      <c r="E20" s="68" t="s">
+      <c r="E20" s="34" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="21" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D21" s="70"/>
-      <c r="E21" s="68" t="s">
+      <c r="E21" s="34" t="s">
         <v>239</v>
       </c>
     </row>
@@ -9853,4 +9846,286 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="91.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="72" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="16">
+        <v>1</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="16">
+        <v>2</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="34" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="16">
+        <v>3</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="16">
+        <v>4</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" spans="2:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="B8" s="16">
+        <v>5</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="73" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="16">
+        <v>6</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="16">
+        <v>7</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="16">
+        <v>8</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="16">
+        <v>9</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="16">
+        <v>10</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="16">
+        <v>11</v>
+      </c>
+      <c r="C14" s="34"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="16">
+        <v>12</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="72" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="16">
+        <v>1</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="16">
+        <v>2</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="E20" s="16"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="16">
+        <v>3</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="16">
+        <v>4</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="16">
+        <v>5</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="16">
+        <v>6</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="16">
+        <v>7</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="16">
+        <v>8</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="16">
+        <v>9</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="16">
+        <v>10</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="16">
+        <v>11</v>
+      </c>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D20" r:id="rId1"/>
+    <hyperlink ref="D19" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E8"/>
+    <hyperlink ref="D22" r:id="rId4"/>
+    <hyperlink ref="E5" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
+</worksheet>
 </file>
--- a/Docs/Design_Arch/BL_SW_FLATFORM.xlsx
+++ b/Docs/Design_Arch/BL_SW_FLATFORM.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="272">
   <si>
     <t>STT</t>
   </si>
@@ -802,9 +802,6 @@
     <t>https://l.facebook.com/l.php?u=https%3A%2F%2Fworld.taobao.com%2Fitem%2F546230564665.htm%3Fspm%3Da312a.7700714.0.0.Qx6JBv%23detail&amp;h=ATMvQ0w2pTaQ0KFJK9Mk5PsS_INYF5Rdl3Tah-FGZMCbctGNBS5EeA3kh-jPaCYaVgJG75UKfI90HglB3qVXtBHbcTeGI-QYzIC8U-l-hprMTKhOqMXVjwwARzfwHK7SJhiQkvdlQg</t>
   </si>
   <si>
-    <t>Pixhaw set</t>
-  </si>
-  <si>
     <t>https://oscarliang.com/mini-quad-not-blackout-qav250/</t>
   </si>
   <si>
@@ -815,6 +812,43 @@
   </si>
   <si>
     <t>https://hobbyking.com/en_us/hobbyking-fpv250l-long-frame-quad-copter-a-mini-sized-fpv-multi-rotor-kit.html?___store=en_us</t>
+  </si>
+  <si>
+    <t>http://quanphongrc.vn/ct/may-bay-dieu-khien/1419/dalrc-dl265-fpv-quad-frame-kit.html</t>
+  </si>
+  <si>
+    <t>Loại</t>
+  </si>
+  <si>
+    <t>Khung</t>
+  </si>
+  <si>
+    <t>FC</t>
+  </si>
+  <si>
+    <t>DALRC DL265 FPV Quad Frame Kit</t>
+  </si>
+  <si>
+    <t>820.000 VND</t>
+  </si>
+  <si>
+    <t>SDI FEW-250 250mm Carbon Fiber</t>
+  </si>
+  <si>
+    <t>http://quanphongrc.vn/ct/may-bay-dieu-khien/774/sdi-few-250-250mm-carbon-fiber.html</t>
+  </si>
+  <si>
+    <t>https://world.taobao.com/item/532843050547.htm?spm=a312a.7700714.0.0.M3X7BM#detail</t>
+  </si>
+  <si>
+    <t>Pixhaw set - full</t>
+  </si>
+  <si>
+    <t>Pixhaw set - Not full 1 - Tran Thanh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+¥ 600.00 </t>
   </si>
 </sst>
 </file>
@@ -1069,7 +1103,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -1119,6 +1153,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1194,27 +1253,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1230,9 +1268,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4591,15 +4634,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>277091</xdr:colOff>
+      <xdr:colOff>432955</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>103910</xdr:rowOff>
+      <xdr:rowOff>86592</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>63</xdr:col>
-      <xdr:colOff>145472</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>3602</xdr:rowOff>
+      <xdr:colOff>301336</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>176784</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4623,7 +4666,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="277091" y="1246910"/>
+          <a:off x="432955" y="1229592"/>
           <a:ext cx="40981745" cy="16092192"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5961,7 +6004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B2"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A46" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="N95" sqref="N95"/>
     </sheetView>
   </sheetViews>
@@ -6013,18 +6056,18 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="56" t="s">
         <v>177</v>
       </c>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
       <c r="I5" s="22"/>
-      <c r="J5" s="35" t="s">
+      <c r="J5" s="44" t="s">
         <v>178</v>
       </c>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E6" s="21" t="s">
@@ -6041,15 +6084,15 @@
       <c r="L6" s="21"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="38"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="47"/>
       <c r="J7" s="16" t="s">
         <v>179</v>
       </c>
@@ -6061,35 +6104,35 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E8" s="50"/>
-      <c r="F8" s="51" t="s">
+      <c r="E8" s="59"/>
+      <c r="F8" s="60" t="s">
         <v>160</v>
       </c>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="49" t="s">
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="58" t="s">
         <v>180</v>
       </c>
-      <c r="K8" s="49" t="s">
+      <c r="K8" s="58" t="s">
         <v>183</v>
       </c>
-      <c r="L8" s="49" t="s">
+      <c r="L8" s="58" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E9" s="46"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="54" t="s">
         <v>169</v>
       </c>
       <c r="F10" s="19" t="s">
@@ -6113,7 +6156,7 @@
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E11" s="50"/>
+      <c r="E11" s="59"/>
       <c r="F11" s="18" t="s">
         <v>161</v>
       </c>
@@ -6135,7 +6178,7 @@
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E12" s="46"/>
+      <c r="E12" s="55"/>
       <c r="F12" s="18" t="s">
         <v>165</v>
       </c>
@@ -6157,47 +6200,47 @@
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E13" s="45" t="s">
+      <c r="E13" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="F13" s="57" t="s">
+      <c r="F13" s="66" t="s">
         <v>159</v>
       </c>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="36" t="s">
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="K13" s="37"/>
-      <c r="L13" s="38"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="47"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E14" s="50"/>
-      <c r="F14" s="51" t="s">
+      <c r="E14" s="59"/>
+      <c r="F14" s="60" t="s">
         <v>166</v>
       </c>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="39" t="s">
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="K14" s="40"/>
-      <c r="L14" s="41"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="50"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E15" s="46"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="44"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="53"/>
     </row>
     <row r="16" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="E16" s="45" t="s">
+      <c r="E16" s="54" t="s">
         <v>171</v>
       </c>
       <c r="F16" s="16" t="s">
@@ -6223,7 +6266,7 @@
       </c>
     </row>
     <row r="17" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E17" s="46"/>
+      <c r="E17" s="55"/>
       <c r="F17" s="16" t="s">
         <v>207</v>
       </c>
@@ -6247,7 +6290,7 @@
       </c>
     </row>
     <row r="18" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E18" s="65" t="s">
+      <c r="E18" s="42" t="s">
         <v>173</v>
       </c>
       <c r="F18" s="16" t="s">
@@ -6256,10 +6299,10 @@
       <c r="G18" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="H18" s="60" t="s">
+      <c r="H18" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="I18" s="61"/>
+      <c r="I18" s="38"/>
       <c r="J18" s="16" t="s">
         <v>179</v>
       </c>
@@ -6271,17 +6314,17 @@
       </c>
     </row>
     <row r="19" spans="5:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="E19" s="66"/>
+      <c r="E19" s="43"/>
       <c r="F19" s="16" t="s">
         <v>174</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="H19" s="62" t="s">
+      <c r="H19" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="I19" s="61"/>
+      <c r="I19" s="38"/>
       <c r="J19" s="16" t="s">
         <v>195</v>
       </c>
@@ -6293,7 +6336,7 @@
       </c>
     </row>
     <row r="20" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E20" s="65" t="s">
+      <c r="E20" s="42" t="s">
         <v>199</v>
       </c>
       <c r="F20" s="16" t="s">
@@ -6302,10 +6345,10 @@
       <c r="G20" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="H20" s="60" t="s">
+      <c r="H20" s="37" t="s">
         <v>201</v>
       </c>
-      <c r="I20" s="61"/>
+      <c r="I20" s="38"/>
       <c r="J20" s="16" t="s">
         <v>179</v>
       </c>
@@ -6317,15 +6360,15 @@
       </c>
     </row>
     <row r="21" spans="5:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="66"/>
+      <c r="E21" s="43"/>
       <c r="F21" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="G21" s="62" t="s">
+      <c r="G21" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="H21" s="63"/>
-      <c r="I21" s="64"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="41"/>
       <c r="J21" s="16" t="s">
         <v>204</v>
       </c>
@@ -6334,12 +6377,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E20:E21"/>
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="J13:L13"/>
     <mergeCell ref="J14:L15"/>
@@ -6355,6 +6392,12 @@
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="F14:I15"/>
     <mergeCell ref="L8:L9"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6378,7 +6421,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G2" s="67" t="s">
+      <c r="G2" s="69" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="3" t="s">
@@ -6386,37 +6429,37 @@
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G3" s="68"/>
+      <c r="G3" s="70"/>
       <c r="H3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G4" s="68"/>
+      <c r="G4" s="70"/>
       <c r="H4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G5" s="68"/>
+      <c r="G5" s="70"/>
       <c r="H5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G6" s="68"/>
+      <c r="G6" s="70"/>
       <c r="H6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G7" s="68"/>
+      <c r="G7" s="70"/>
       <c r="H7" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G8" s="68"/>
+      <c r="G8" s="70"/>
       <c r="H8" s="3" t="s">
         <v>15</v>
       </c>
@@ -9503,7 +9546,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9629,7 +9672,7 @@
   <dimension ref="D5:G22"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9817,7 +9860,7 @@
       <c r="G17" s="16"/>
     </row>
     <row r="20" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D20" s="69" t="s">
+      <c r="D20" s="71" t="s">
         <v>237</v>
       </c>
       <c r="E20" s="34" t="s">
@@ -9825,13 +9868,13 @@
       </c>
     </row>
     <row r="21" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D21" s="70"/>
+      <c r="D21" s="72"/>
       <c r="E21" s="34" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="22" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D22" s="71"/>
+      <c r="D22" s="73"/>
       <c r="E22" s="16" t="s">
         <v>240</v>
       </c>
@@ -9850,282 +9893,341 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E29"/>
+  <dimension ref="B1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="91.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="91.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="138.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="72" t="s">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="35" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C1" s="35"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="D3" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="E3" s="33" t="s">
         <v>253</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="F3" s="33" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="16">
         <v>1</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="74" t="s">
+        <v>262</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="E4" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="F4" s="34" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="16">
         <v>2</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="75"/>
+      <c r="D5" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="34" t="s">
         <v>259</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="34" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="16">
         <v>3</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="75"/>
+      <c r="D6" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="16">
         <v>4</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-    </row>
-    <row r="8" spans="2:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="C7" s="76"/>
+      <c r="D7" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" s="16">
         <v>5</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="73" t="s">
+      <c r="C8" s="74" t="s">
+        <v>263</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="36" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="16">
         <v>6</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="75"/>
+      <c r="D9" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="16">
         <v>7</v>
       </c>
-      <c r="C10" s="16"/>
+      <c r="C10" s="75"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="16"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="16">
         <v>8</v>
       </c>
-      <c r="C11" s="16"/>
+      <c r="C11" s="76"/>
       <c r="D11" s="16"/>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="16"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="16">
         <v>9</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="16"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="16">
         <v>10</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="16"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="16">
         <v>11</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="16"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="16">
         <v>12</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="72" t="s">
+      <c r="F15" s="16"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="35" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="35"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="33"/>
+      <c r="D18" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="E18" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="E18" s="33" t="s">
+      <c r="F18" s="33" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="16">
         <v>1</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="16"/>
+      <c r="D19" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="E19" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="F19" s="16" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="16">
         <v>2</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="16"/>
+      <c r="D20" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="E20" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="E20" s="16"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="16"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="16">
         <v>3</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="16"/>
+      <c r="D21" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="D21" s="16"/>
       <c r="E21" s="16"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="16">
         <v>4</v>
       </c>
-      <c r="C22" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="D22" s="34" t="s">
+      <c r="C22" s="16"/>
+      <c r="D22" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="16">
         <v>5</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E23" s="16"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="16">
         <v>6</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="16"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="16">
         <v>7</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E25" s="16"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="16">
         <v>8</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="16"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="16">
         <v>9</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="16"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="16">
         <v>10</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="16"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="16">
         <v>11</v>
       </c>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C8:C11"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D20" r:id="rId1"/>
-    <hyperlink ref="D19" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E8"/>
-    <hyperlink ref="D22" r:id="rId4"/>
-    <hyperlink ref="E5" r:id="rId5"/>
+    <hyperlink ref="E20" r:id="rId1"/>
+    <hyperlink ref="E19" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="F8" display="https://l.facebook.com/l.php?u=https%3A%2F%2Fworld.taobao.com%2Fitem%2F546230564665.htm%3Fspm%3Da312a.7700714.0.0.Qx6JBv%23detail&amp;h=ATMvQ0w2pTaQ0KFJK9Mk5PsS_INYF5Rdl3Tah-FGZMCbctGNBS5EeA3kh-jPaCYaVgJG75UKfI90HglB3qVXtBHbcTeGI-QYzIC8U-l-hprMTKhOqMXVjwwARzf"/>
+    <hyperlink ref="E22" r:id="rId4"/>
+    <hyperlink ref="F5" r:id="rId5"/>
+    <hyperlink ref="F6" r:id="rId6"/>
+    <hyperlink ref="F7" r:id="rId7"/>
+    <hyperlink ref="F9" r:id="rId8" location="detail"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/Docs/Design_Arch/BL_SW_FLATFORM.xlsx
+++ b/Docs/Design_Arch/BL_SW_FLATFORM.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="274">
   <si>
     <t>STT</t>
   </si>
@@ -849,6 +849,12 @@
   <si>
     <t xml:space="preserve">
 ¥ 600.00 </t>
+  </si>
+  <si>
+    <t>https://hobbyking.com/media/file/464407735X1827665X48.jpg</t>
+  </si>
+  <si>
+    <t>Link to shop</t>
   </si>
 </sst>
 </file>
@@ -1154,9 +1160,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1277,6 +1280,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5660,6 +5664,101 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>Control value</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>802821</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5137273</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>170868</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1415142" y="6572249"/>
+          <a:ext cx="6266667" cy="4647619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>830037</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3429080" cy="374141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1442358" y="6041571"/>
+          <a:ext cx="3429080" cy="374141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1"/>
+            <a:t>DALRC DL265 FPV Quad Frame Kit</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6056,18 +6155,18 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="55" t="s">
         <v>177</v>
       </c>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
       <c r="I5" s="22"/>
-      <c r="J5" s="44" t="s">
+      <c r="J5" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E6" s="21" t="s">
@@ -6084,15 +6183,15 @@
       <c r="L6" s="21"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="53" t="s">
         <v>168</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="47"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="46"/>
       <c r="J7" s="16" t="s">
         <v>179</v>
       </c>
@@ -6104,35 +6203,35 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E8" s="59"/>
-      <c r="F8" s="60" t="s">
+      <c r="E8" s="58"/>
+      <c r="F8" s="59" t="s">
         <v>160</v>
       </c>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="58" t="s">
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="57" t="s">
         <v>180</v>
       </c>
-      <c r="K8" s="58" t="s">
+      <c r="K8" s="57" t="s">
         <v>183</v>
       </c>
-      <c r="L8" s="58" t="s">
+      <c r="L8" s="57" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E9" s="55"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E10" s="54" t="s">
+      <c r="E10" s="53" t="s">
         <v>169</v>
       </c>
       <c r="F10" s="19" t="s">
@@ -6156,7 +6255,7 @@
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E11" s="59"/>
+      <c r="E11" s="58"/>
       <c r="F11" s="18" t="s">
         <v>161</v>
       </c>
@@ -6178,7 +6277,7 @@
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E12" s="55"/>
+      <c r="E12" s="54"/>
       <c r="F12" s="18" t="s">
         <v>165</v>
       </c>
@@ -6200,47 +6299,47 @@
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E13" s="54" t="s">
+      <c r="E13" s="53" t="s">
         <v>170</v>
       </c>
-      <c r="F13" s="66" t="s">
+      <c r="F13" s="65" t="s">
         <v>159</v>
       </c>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="45" t="s">
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="K13" s="46"/>
-      <c r="L13" s="47"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="46"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E14" s="59"/>
-      <c r="F14" s="60" t="s">
+      <c r="E14" s="58"/>
+      <c r="F14" s="59" t="s">
         <v>166</v>
       </c>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="48" t="s">
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="47" t="s">
         <v>189</v>
       </c>
-      <c r="K14" s="49"/>
-      <c r="L14" s="50"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="49"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E15" s="55"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="53"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="52"/>
     </row>
     <row r="16" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="E16" s="54" t="s">
+      <c r="E16" s="53" t="s">
         <v>171</v>
       </c>
       <c r="F16" s="16" t="s">
@@ -6266,7 +6365,7 @@
       </c>
     </row>
     <row r="17" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E17" s="55"/>
+      <c r="E17" s="54"/>
       <c r="F17" s="16" t="s">
         <v>207</v>
       </c>
@@ -6290,7 +6389,7 @@
       </c>
     </row>
     <row r="18" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E18" s="42" t="s">
+      <c r="E18" s="41" t="s">
         <v>173</v>
       </c>
       <c r="F18" s="16" t="s">
@@ -6299,10 +6398,10 @@
       <c r="G18" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="H18" s="37" t="s">
+      <c r="H18" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="I18" s="38"/>
+      <c r="I18" s="37"/>
       <c r="J18" s="16" t="s">
         <v>179</v>
       </c>
@@ -6314,17 +6413,17 @@
       </c>
     </row>
     <row r="19" spans="5:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="E19" s="43"/>
+      <c r="E19" s="42"/>
       <c r="F19" s="16" t="s">
         <v>174</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="H19" s="39" t="s">
+      <c r="H19" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="I19" s="38"/>
+      <c r="I19" s="37"/>
       <c r="J19" s="16" t="s">
         <v>195</v>
       </c>
@@ -6336,7 +6435,7 @@
       </c>
     </row>
     <row r="20" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E20" s="42" t="s">
+      <c r="E20" s="41" t="s">
         <v>199</v>
       </c>
       <c r="F20" s="16" t="s">
@@ -6345,10 +6444,10 @@
       <c r="G20" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="H20" s="37" t="s">
+      <c r="H20" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="I20" s="38"/>
+      <c r="I20" s="37"/>
       <c r="J20" s="16" t="s">
         <v>179</v>
       </c>
@@ -6360,15 +6459,15 @@
       </c>
     </row>
     <row r="21" spans="5:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="43"/>
+      <c r="E21" s="42"/>
       <c r="F21" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="G21" s="39" t="s">
+      <c r="G21" s="38" t="s">
         <v>203</v>
       </c>
-      <c r="H21" s="40"/>
-      <c r="I21" s="41"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="40"/>
       <c r="J21" s="16" t="s">
         <v>204</v>
       </c>
@@ -6421,7 +6520,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G2" s="69" t="s">
+      <c r="G2" s="68" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="3" t="s">
@@ -6429,37 +6528,37 @@
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G3" s="70"/>
+      <c r="G3" s="69"/>
       <c r="H3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G4" s="70"/>
+      <c r="G4" s="69"/>
       <c r="H4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G5" s="70"/>
+      <c r="G5" s="69"/>
       <c r="H5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G6" s="70"/>
+      <c r="G6" s="69"/>
       <c r="H6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G7" s="70"/>
+      <c r="G7" s="69"/>
       <c r="H7" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G8" s="70"/>
+      <c r="G8" s="69"/>
       <c r="H8" s="3" t="s">
         <v>15</v>
       </c>
@@ -9860,7 +9959,7 @@
       <c r="G17" s="16"/>
     </row>
     <row r="20" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D20" s="71" t="s">
+      <c r="D20" s="70" t="s">
         <v>237</v>
       </c>
       <c r="E20" s="34" t="s">
@@ -9868,13 +9967,13 @@
       </c>
     </row>
     <row r="21" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D21" s="72"/>
+      <c r="D21" s="71"/>
       <c r="E21" s="34" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="22" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D22" s="73"/>
+      <c r="D22" s="72"/>
       <c r="E22" s="16" t="s">
         <v>240</v>
       </c>
@@ -9893,10 +9992,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F29"/>
+  <dimension ref="B1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9906,15 +10005,16 @@
     <col min="4" max="4" width="91.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="58.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="138.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="62.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1" s="35" t="s">
         <v>244</v>
       </c>
       <c r="C1" s="35"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="33" t="s">
         <v>0</v>
       </c>
@@ -9928,14 +10028,17 @@
         <v>253</v>
       </c>
       <c r="F3" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="G3" s="33" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="16">
         <v>1</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="73" t="s">
         <v>262</v>
       </c>
       <c r="D4" s="16" t="s">
@@ -9944,102 +10047,112 @@
       <c r="E4" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="16" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="16"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="16">
         <v>2</v>
       </c>
-      <c r="C5" s="75"/>
+      <c r="C5" s="74"/>
       <c r="D5" s="16" t="s">
         <v>258</v>
       </c>
       <c r="E5" s="16"/>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="16" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="16">
         <v>3</v>
       </c>
-      <c r="C6" s="75"/>
+      <c r="C6" s="74"/>
       <c r="D6" s="16" t="s">
         <v>264</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="16" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="76" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="16">
         <v>4</v>
       </c>
-      <c r="C7" s="76"/>
+      <c r="C7" s="75"/>
       <c r="D7" s="16" t="s">
         <v>266</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="16" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="16">
         <v>5</v>
       </c>
-      <c r="C8" s="74" t="s">
+      <c r="C8" s="73" t="s">
         <v>263</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>269</v>
       </c>
       <c r="E8" s="16"/>
-      <c r="F8" s="36" t="s">
+      <c r="F8" s="16" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G8" s="16"/>
+    </row>
+    <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="16">
         <v>6</v>
       </c>
-      <c r="C9" s="75"/>
+      <c r="C9" s="74"/>
       <c r="D9" s="16" t="s">
         <v>270</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="F9" s="36" t="s">
+      <c r="F9" s="16" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="16"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="16">
         <v>7</v>
       </c>
-      <c r="C10" s="75"/>
+      <c r="C10" s="74"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="16"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="16">
         <v>8</v>
       </c>
-      <c r="C11" s="76"/>
+      <c r="C11" s="75"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="16">
         <v>9</v>
       </c>
@@ -10047,8 +10160,9 @@
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="16"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="16">
         <v>10</v>
       </c>
@@ -10056,8 +10170,9 @@
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="16"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="16">
         <v>11</v>
       </c>
@@ -10065,8 +10180,9 @@
       <c r="D14" s="34"/>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="16"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="16">
         <v>12</v>
       </c>
@@ -10074,6 +10190,7 @@
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="35" t="s">
@@ -10226,8 +10343,10 @@
     <hyperlink ref="F6" r:id="rId6"/>
     <hyperlink ref="F7" r:id="rId7"/>
     <hyperlink ref="F9" r:id="rId8" location="detail"/>
+    <hyperlink ref="G6" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
+  <drawing r:id="rId11"/>
 </worksheet>
 </file>
--- a/Docs/Design_Arch/BL_SW_FLATFORM.xlsx
+++ b/Docs/Design_Arch/BL_SW_FLATFORM.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="278">
   <si>
     <t>STT</t>
   </si>
@@ -855,6 +855,18 @@
   </si>
   <si>
     <t>Link to shop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 x Motors </t>
+  </si>
+  <si>
+    <t>Motor</t>
+  </si>
+  <si>
+    <t>https://oscarliang.com/best-osd-quadcopter-fpv-data-on-screen-display-video/</t>
+  </si>
+  <si>
+    <t>OSD</t>
   </si>
 </sst>
 </file>
@@ -1109,7 +1121,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -1160,27 +1172,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1256,6 +1251,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1280,7 +1296,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6155,18 +6170,18 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="50" t="s">
         <v>177</v>
       </c>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
       <c r="I5" s="22"/>
-      <c r="J5" s="43" t="s">
+      <c r="J5" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E6" s="21" t="s">
@@ -6183,15 +6198,15 @@
       <c r="L6" s="21"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E7" s="53" t="s">
+      <c r="E7" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="46"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="41"/>
       <c r="J7" s="16" t="s">
         <v>179</v>
       </c>
@@ -6203,35 +6218,35 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E8" s="58"/>
-      <c r="F8" s="59" t="s">
+      <c r="E8" s="53"/>
+      <c r="F8" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="57" t="s">
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="52" t="s">
         <v>180</v>
       </c>
-      <c r="K8" s="57" t="s">
+      <c r="K8" s="52" t="s">
         <v>183</v>
       </c>
-      <c r="L8" s="57" t="s">
+      <c r="L8" s="52" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E9" s="54"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E10" s="53" t="s">
+      <c r="E10" s="48" t="s">
         <v>169</v>
       </c>
       <c r="F10" s="19" t="s">
@@ -6255,7 +6270,7 @@
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E11" s="58"/>
+      <c r="E11" s="53"/>
       <c r="F11" s="18" t="s">
         <v>161</v>
       </c>
@@ -6277,7 +6292,7 @@
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E12" s="54"/>
+      <c r="E12" s="49"/>
       <c r="F12" s="18" t="s">
         <v>165</v>
       </c>
@@ -6299,47 +6314,47 @@
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E13" s="53" t="s">
+      <c r="E13" s="48" t="s">
         <v>170</v>
       </c>
-      <c r="F13" s="65" t="s">
+      <c r="F13" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="44" t="s">
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="39" t="s">
         <v>188</v>
       </c>
-      <c r="K13" s="45"/>
-      <c r="L13" s="46"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="41"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E14" s="58"/>
-      <c r="F14" s="59" t="s">
+      <c r="E14" s="53"/>
+      <c r="F14" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="47" t="s">
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="42" t="s">
         <v>189</v>
       </c>
-      <c r="K14" s="48"/>
-      <c r="L14" s="49"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="44"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E15" s="54"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="52"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="47"/>
     </row>
     <row r="16" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="E16" s="53" t="s">
+      <c r="E16" s="48" t="s">
         <v>171</v>
       </c>
       <c r="F16" s="16" t="s">
@@ -6365,7 +6380,7 @@
       </c>
     </row>
     <row r="17" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E17" s="54"/>
+      <c r="E17" s="49"/>
       <c r="F17" s="16" t="s">
         <v>207</v>
       </c>
@@ -6389,7 +6404,7 @@
       </c>
     </row>
     <row r="18" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E18" s="41" t="s">
+      <c r="E18" s="68" t="s">
         <v>173</v>
       </c>
       <c r="F18" s="16" t="s">
@@ -6398,10 +6413,10 @@
       <c r="G18" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="H18" s="36" t="s">
+      <c r="H18" s="63" t="s">
         <v>176</v>
       </c>
-      <c r="I18" s="37"/>
+      <c r="I18" s="64"/>
       <c r="J18" s="16" t="s">
         <v>179</v>
       </c>
@@ -6413,17 +6428,17 @@
       </c>
     </row>
     <row r="19" spans="5:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="E19" s="42"/>
+      <c r="E19" s="69"/>
       <c r="F19" s="16" t="s">
         <v>174</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="H19" s="38" t="s">
+      <c r="H19" s="65" t="s">
         <v>214</v>
       </c>
-      <c r="I19" s="37"/>
+      <c r="I19" s="64"/>
       <c r="J19" s="16" t="s">
         <v>195</v>
       </c>
@@ -6435,7 +6450,7 @@
       </c>
     </row>
     <row r="20" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E20" s="41" t="s">
+      <c r="E20" s="68" t="s">
         <v>199</v>
       </c>
       <c r="F20" s="16" t="s">
@@ -6444,10 +6459,10 @@
       <c r="G20" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="H20" s="36" t="s">
+      <c r="H20" s="63" t="s">
         <v>201</v>
       </c>
-      <c r="I20" s="37"/>
+      <c r="I20" s="64"/>
       <c r="J20" s="16" t="s">
         <v>179</v>
       </c>
@@ -6459,15 +6474,15 @@
       </c>
     </row>
     <row r="21" spans="5:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="42"/>
+      <c r="E21" s="69"/>
       <c r="F21" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="G21" s="38" t="s">
+      <c r="G21" s="65" t="s">
         <v>203</v>
       </c>
-      <c r="H21" s="39"/>
-      <c r="I21" s="40"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="67"/>
       <c r="J21" s="16" t="s">
         <v>204</v>
       </c>
@@ -6476,6 +6491,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="J13:L13"/>
     <mergeCell ref="J14:L15"/>
@@ -6491,12 +6512,6 @@
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="F14:I15"/>
     <mergeCell ref="L8:L9"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E20:E21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6520,7 +6535,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G2" s="68" t="s">
+      <c r="G2" s="70" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="3" t="s">
@@ -6528,37 +6543,37 @@
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G3" s="69"/>
+      <c r="G3" s="71"/>
       <c r="H3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G4" s="69"/>
+      <c r="G4" s="71"/>
       <c r="H4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G5" s="69"/>
+      <c r="G5" s="71"/>
       <c r="H5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G6" s="69"/>
+      <c r="G6" s="71"/>
       <c r="H6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G7" s="69"/>
+      <c r="G7" s="71"/>
       <c r="H7" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G8" s="69"/>
+      <c r="G8" s="71"/>
       <c r="H8" s="3" t="s">
         <v>15</v>
       </c>
@@ -9959,7 +9974,7 @@
       <c r="G17" s="16"/>
     </row>
     <row r="20" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D20" s="70" t="s">
+      <c r="D20" s="72" t="s">
         <v>237</v>
       </c>
       <c r="E20" s="34" t="s">
@@ -9967,13 +9982,13 @@
       </c>
     </row>
     <row r="21" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D21" s="71"/>
+      <c r="D21" s="73"/>
       <c r="E21" s="34" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="22" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D22" s="72"/>
+      <c r="D22" s="74"/>
       <c r="E22" s="16" t="s">
         <v>240</v>
       </c>
@@ -9994,8 +10009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10038,7 +10053,7 @@
       <c r="B4" s="16">
         <v>1</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="75" t="s">
         <v>262</v>
       </c>
       <c r="D4" s="16" t="s">
@@ -10056,7 +10071,7 @@
       <c r="B5" s="16">
         <v>2</v>
       </c>
-      <c r="C5" s="74"/>
+      <c r="C5" s="76"/>
       <c r="D5" s="16" t="s">
         <v>258</v>
       </c>
@@ -10070,7 +10085,7 @@
       <c r="B6" s="16">
         <v>3</v>
       </c>
-      <c r="C6" s="74"/>
+      <c r="C6" s="76"/>
       <c r="D6" s="16" t="s">
         <v>264</v>
       </c>
@@ -10080,7 +10095,7 @@
       <c r="F6" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="G6" s="76" t="s">
+      <c r="G6" s="37" t="s">
         <v>272</v>
       </c>
     </row>
@@ -10088,7 +10103,7 @@
       <c r="B7" s="16">
         <v>4</v>
       </c>
-      <c r="C7" s="75"/>
+      <c r="C7" s="77"/>
       <c r="D7" s="16" t="s">
         <v>266</v>
       </c>
@@ -10104,7 +10119,7 @@
       <c r="B8" s="16">
         <v>5</v>
       </c>
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="75" t="s">
         <v>263</v>
       </c>
       <c r="D8" s="16" t="s">
@@ -10120,7 +10135,7 @@
       <c r="B9" s="16">
         <v>6</v>
       </c>
-      <c r="C9" s="74"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="16" t="s">
         <v>270</v>
       </c>
@@ -10136,7 +10151,7 @@
       <c r="B10" s="16">
         <v>7</v>
       </c>
-      <c r="C10" s="74"/>
+      <c r="C10" s="76"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
@@ -10146,7 +10161,7 @@
       <c r="B11" s="16">
         <v>8</v>
       </c>
-      <c r="C11" s="75"/>
+      <c r="C11" s="77"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
@@ -10156,8 +10171,12 @@
       <c r="B12" s="16">
         <v>9</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
+      <c r="C12" s="75" t="s">
+        <v>275</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>274</v>
+      </c>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
@@ -10166,20 +10185,24 @@
       <c r="B13" s="16">
         <v>10</v>
       </c>
-      <c r="C13" s="16"/>
+      <c r="C13" s="77"/>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
+      <c r="F13" s="34"/>
       <c r="G13" s="16"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="16">
         <v>11</v>
       </c>
-      <c r="C14" s="16"/>
+      <c r="C14" s="36" t="s">
+        <v>277</v>
+      </c>
       <c r="D14" s="34"/>
       <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
+      <c r="F14" s="34" t="s">
+        <v>276</v>
+      </c>
       <c r="G14" s="16"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
@@ -10329,9 +10352,10 @@
       <c r="F29" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="C8:C11"/>
+    <mergeCell ref="C12:C13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E20" r:id="rId1"/>
@@ -10344,9 +10368,10 @@
     <hyperlink ref="F7" r:id="rId7"/>
     <hyperlink ref="F9" r:id="rId8" location="detail"/>
     <hyperlink ref="G6" r:id="rId9"/>
+    <hyperlink ref="F14" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
-  <drawing r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
+  <drawing r:id="rId12"/>
 </worksheet>
 </file>
--- a/Docs/Design_Arch/BL_SW_FLATFORM.xlsx
+++ b/Docs/Design_Arch/BL_SW_FLATFORM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="510" windowWidth="19875" windowHeight="7275" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="360" yWindow="510" windowWidth="19875" windowHeight="7275" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="RawIdeaAnalysis" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="285">
   <si>
     <t>STT</t>
   </si>
@@ -799,9 +799,6 @@
     <t>970.000 VND</t>
   </si>
   <si>
-    <t>https://l.facebook.com/l.php?u=https%3A%2F%2Fworld.taobao.com%2Fitem%2F546230564665.htm%3Fspm%3Da312a.7700714.0.0.Qx6JBv%23detail&amp;h=ATMvQ0w2pTaQ0KFJK9Mk5PsS_INYF5Rdl3Tah-FGZMCbctGNBS5EeA3kh-jPaCYaVgJG75UKfI90HglB3qVXtBHbcTeGI-QYzIC8U-l-hprMTKhOqMXVjwwARzfwHK7SJhiQkvdlQg</t>
-  </si>
-  <si>
     <t>https://oscarliang.com/mini-quad-not-blackout-qav250/</t>
   </si>
   <si>
@@ -867,6 +864,30 @@
   </si>
   <si>
     <t>OSD</t>
+  </si>
+  <si>
+    <t>https://oscarliang.com/best-looptime-flight-controller/</t>
+  </si>
+  <si>
+    <t>Loop time to sample sensor</t>
+  </si>
+  <si>
+    <t>http://quanphongrc.vn/ct/may-bay-dieu-khien/224/devo-7e-without-rx-khong-bao-gom-rx.html</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>Devo 7E (Without RX - không bao gồm RX)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900.000 VND</t>
+  </si>
+  <si>
+    <t>http://www.clbmohinh.com/forum/m1348891-print.aspx</t>
+  </si>
+  <si>
+    <t>CC3D Evo</t>
   </si>
 </sst>
 </file>
@@ -1121,7 +1142,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -1172,10 +1193,31 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1251,27 +1293,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1294,6 +1315,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5694,13 +5724,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>802821</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>5137273</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>170868</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5732,7 +5762,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>830037</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>136071</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3429080" cy="374141"/>
@@ -6170,18 +6200,18 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
       <c r="I5" s="22"/>
-      <c r="J5" s="38" t="s">
+      <c r="J5" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E6" s="21" t="s">
@@ -6198,15 +6228,15 @@
       <c r="L6" s="21"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E7" s="48" t="s">
+      <c r="E7" s="55" t="s">
         <v>168</v>
       </c>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="46" t="s">
         <v>155</v>
       </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="41"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="48"/>
       <c r="J7" s="16" t="s">
         <v>179</v>
       </c>
@@ -6218,35 +6248,35 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E8" s="53"/>
-      <c r="F8" s="54" t="s">
+      <c r="E8" s="60"/>
+      <c r="F8" s="61" t="s">
         <v>160</v>
       </c>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="52" t="s">
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="59" t="s">
         <v>180</v>
       </c>
-      <c r="K8" s="52" t="s">
+      <c r="K8" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="L8" s="52" t="s">
+      <c r="L8" s="59" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E9" s="49"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E10" s="48" t="s">
+      <c r="E10" s="55" t="s">
         <v>169</v>
       </c>
       <c r="F10" s="19" t="s">
@@ -6270,7 +6300,7 @@
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E11" s="53"/>
+      <c r="E11" s="60"/>
       <c r="F11" s="18" t="s">
         <v>161</v>
       </c>
@@ -6292,7 +6322,7 @@
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E12" s="49"/>
+      <c r="E12" s="56"/>
       <c r="F12" s="18" t="s">
         <v>165</v>
       </c>
@@ -6314,47 +6344,47 @@
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E13" s="48" t="s">
+      <c r="E13" s="55" t="s">
         <v>170</v>
       </c>
-      <c r="F13" s="60" t="s">
+      <c r="F13" s="67" t="s">
         <v>159</v>
       </c>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="39" t="s">
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="K13" s="40"/>
-      <c r="L13" s="41"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="48"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E14" s="53"/>
-      <c r="F14" s="54" t="s">
+      <c r="E14" s="60"/>
+      <c r="F14" s="61" t="s">
         <v>166</v>
       </c>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="42" t="s">
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="49" t="s">
         <v>189</v>
       </c>
-      <c r="K14" s="43"/>
-      <c r="L14" s="44"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="51"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E15" s="49"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="47"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="54"/>
     </row>
     <row r="16" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="E16" s="48" t="s">
+      <c r="E16" s="55" t="s">
         <v>171</v>
       </c>
       <c r="F16" s="16" t="s">
@@ -6380,7 +6410,7 @@
       </c>
     </row>
     <row r="17" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E17" s="49"/>
+      <c r="E17" s="56"/>
       <c r="F17" s="16" t="s">
         <v>207</v>
       </c>
@@ -6404,7 +6434,7 @@
       </c>
     </row>
     <row r="18" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E18" s="68" t="s">
+      <c r="E18" s="43" t="s">
         <v>173</v>
       </c>
       <c r="F18" s="16" t="s">
@@ -6413,10 +6443,10 @@
       <c r="G18" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="H18" s="63" t="s">
+      <c r="H18" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="I18" s="64"/>
+      <c r="I18" s="39"/>
       <c r="J18" s="16" t="s">
         <v>179</v>
       </c>
@@ -6428,17 +6458,17 @@
       </c>
     </row>
     <row r="19" spans="5:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="E19" s="69"/>
+      <c r="E19" s="44"/>
       <c r="F19" s="16" t="s">
         <v>174</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="H19" s="65" t="s">
+      <c r="H19" s="40" t="s">
         <v>214</v>
       </c>
-      <c r="I19" s="64"/>
+      <c r="I19" s="39"/>
       <c r="J19" s="16" t="s">
         <v>195</v>
       </c>
@@ -6450,7 +6480,7 @@
       </c>
     </row>
     <row r="20" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E20" s="68" t="s">
+      <c r="E20" s="43" t="s">
         <v>199</v>
       </c>
       <c r="F20" s="16" t="s">
@@ -6459,10 +6489,10 @@
       <c r="G20" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="H20" s="63" t="s">
+      <c r="H20" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="I20" s="64"/>
+      <c r="I20" s="39"/>
       <c r="J20" s="16" t="s">
         <v>179</v>
       </c>
@@ -6474,15 +6504,15 @@
       </c>
     </row>
     <row r="21" spans="5:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="69"/>
+      <c r="E21" s="44"/>
       <c r="F21" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="G21" s="65" t="s">
+      <c r="G21" s="40" t="s">
         <v>203</v>
       </c>
-      <c r="H21" s="66"/>
-      <c r="I21" s="67"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="42"/>
       <c r="J21" s="16" t="s">
         <v>204</v>
       </c>
@@ -6491,12 +6521,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E20:E21"/>
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="J13:L13"/>
     <mergeCell ref="J14:L15"/>
@@ -6512,6 +6536,12 @@
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="F14:I15"/>
     <mergeCell ref="L8:L9"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9785,8 +9815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D5:G22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10007,15 +10037,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G29"/>
+  <dimension ref="B1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="C19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="80" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" style="15" customWidth="1"/>
     <col min="4" max="4" width="91.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="58.7109375" bestFit="1" customWidth="1"/>
@@ -10024,17 +10054,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="78" t="s">
         <v>244</v>
       </c>
       <c r="C1" s="35"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="79" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D3" s="33" t="s">
         <v>216</v>
@@ -10043,18 +10073,18 @@
         <v>253</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G3" s="33" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="16">
+      <c r="B4" s="37">
         <v>1</v>
       </c>
       <c r="C4" s="75" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>252</v>
@@ -10068,310 +10098,412 @@
       <c r="G4" s="16"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="16">
+      <c r="B5" s="37">
         <v>2</v>
       </c>
       <c r="C5" s="76"/>
       <c r="D5" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G5" s="16"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="16">
+      <c r="B6" s="37">
         <v>3</v>
       </c>
       <c r="C6" s="76"/>
       <c r="D6" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>265</v>
-      </c>
       <c r="F6" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="G6" s="37" t="s">
-        <v>272</v>
+        <v>259</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="16">
+      <c r="B7" s="37">
         <v>4</v>
       </c>
       <c r="C7" s="77"/>
       <c r="D7" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="F7" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>267</v>
-      </c>
       <c r="G7" s="16"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="16">
+      <c r="B8" s="75">
         <v>5</v>
       </c>
       <c r="C8" s="75" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E8" s="16"/>
-      <c r="F8" s="16" t="s">
-        <v>255</v>
-      </c>
+      <c r="F8" s="16"/>
       <c r="G8" s="16"/>
     </row>
     <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="16">
-        <v>6</v>
-      </c>
+      <c r="B9" s="76"/>
       <c r="C9" s="76"/>
       <c r="D9" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>271</v>
-      </c>
       <c r="F9" s="16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G9" s="16"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="16">
-        <v>7</v>
-      </c>
+      <c r="B10" s="76"/>
       <c r="C10" s="76"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="16">
-        <v>8</v>
-      </c>
-      <c r="C11" s="77"/>
+    <row r="11" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="16">
-        <v>9</v>
-      </c>
-      <c r="C12" s="75" t="s">
-        <v>275</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>274</v>
-      </c>
+    <row r="12" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="76"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="16">
-        <v>10</v>
-      </c>
+      <c r="B13" s="77"/>
       <c r="C13" s="77"/>
-      <c r="D13" s="16"/>
+      <c r="D13" s="16" t="s">
+        <v>284</v>
+      </c>
       <c r="E13" s="16"/>
-      <c r="F13" s="34"/>
+      <c r="F13" s="34" t="s">
+        <v>283</v>
+      </c>
       <c r="G13" s="16"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="16">
-        <v>11</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>277</v>
-      </c>
-      <c r="D14" s="34"/>
+      <c r="B14" s="75">
+        <v>6</v>
+      </c>
+      <c r="C14" s="75" t="s">
+        <v>274</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>273</v>
+      </c>
       <c r="E14" s="16"/>
-      <c r="F14" s="34" t="s">
-        <v>276</v>
-      </c>
+      <c r="F14" s="16"/>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="16">
-        <v>12</v>
-      </c>
-      <c r="C15" s="16"/>
+    <row r="15" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="76"/>
+      <c r="C15" s="76"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="C17" s="35"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>246</v>
-      </c>
-      <c r="F18" s="33" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="16">
-        <v>1</v>
-      </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="E19" s="34" t="s">
-        <v>249</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="16">
-        <v>2</v>
-      </c>
-      <c r="C20" s="16"/>
+    <row r="16" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="76"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="77"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="16"/>
+    </row>
+    <row r="18" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="75">
+        <v>7</v>
+      </c>
+      <c r="C18" s="75" t="s">
+        <v>276</v>
+      </c>
+      <c r="D18" s="34"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="G18" s="16"/>
+    </row>
+    <row r="19" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="77"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="16"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="75">
+        <v>8</v>
+      </c>
+      <c r="C20" s="75" t="s">
+        <v>280</v>
+      </c>
       <c r="D20" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="E20" s="34" t="s">
-        <v>245</v>
-      </c>
-      <c r="F20" s="16"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="16">
-        <v>3</v>
-      </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16" t="s">
-        <v>248</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="G20" s="16"/>
+    </row>
+    <row r="21" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="76"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="34"/>
       <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="16">
-        <v>4</v>
-      </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="E22" s="34" t="s">
-        <v>256</v>
-      </c>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="16">
-        <v>5</v>
-      </c>
-      <c r="C23" s="16"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="16"/>
+    </row>
+    <row r="22" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="76"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="16"/>
+    </row>
+    <row r="23" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="16">
-        <v>6</v>
-      </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="16"/>
+    </row>
+    <row r="24" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="34"/>
       <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="16">
-        <v>7</v>
-      </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="16"/>
+    </row>
+    <row r="25" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="34"/>
       <c r="E25" s="16"/>
-      <c r="F25" s="6"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="16">
-        <v>8</v>
-      </c>
-      <c r="C26" s="16"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="16"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="16">
+      <c r="F26" s="34"/>
+      <c r="G26" s="16"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="78" t="s">
+        <v>243</v>
+      </c>
+      <c r="C28" s="35"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="F29" s="33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="37">
+        <v>1</v>
+      </c>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="E30" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="37">
+        <v>2</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="E31" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="F31" s="16"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="37">
+        <v>3</v>
+      </c>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="37">
+        <v>4</v>
+      </c>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="E33" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="37">
+        <v>5</v>
+      </c>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="E34" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="37">
+        <v>6</v>
+      </c>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="37">
+        <v>7</v>
+      </c>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="37">
+        <v>8</v>
+      </c>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="37">
         <v>9</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="16">
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="37">
         <v>10</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="16">
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="37">
         <v>11</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="9">
     <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="B20:B23"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E20" r:id="rId1"/>
-    <hyperlink ref="E19" r:id="rId2"/>
+    <hyperlink ref="E31" r:id="rId1"/>
+    <hyperlink ref="E30" r:id="rId2"/>
     <hyperlink ref="F4" r:id="rId3"/>
-    <hyperlink ref="F8" display="https://l.facebook.com/l.php?u=https%3A%2F%2Fworld.taobao.com%2Fitem%2F546230564665.htm%3Fspm%3Da312a.7700714.0.0.Qx6JBv%23detail&amp;h=ATMvQ0w2pTaQ0KFJK9Mk5PsS_INYF5Rdl3Tah-FGZMCbctGNBS5EeA3kh-jPaCYaVgJG75UKfI90HglB3qVXtBHbcTeGI-QYzIC8U-l-hprMTKhOqMXVjwwARzf"/>
-    <hyperlink ref="E22" r:id="rId4"/>
+    <hyperlink ref="E33" r:id="rId4"/>
     <hyperlink ref="F5" r:id="rId5"/>
     <hyperlink ref="F6" r:id="rId6"/>
     <hyperlink ref="F7" r:id="rId7"/>
     <hyperlink ref="F9" r:id="rId8" location="detail"/>
     <hyperlink ref="G6" r:id="rId9"/>
-    <hyperlink ref="F14" r:id="rId10"/>
+    <hyperlink ref="E34" r:id="rId10"/>
+    <hyperlink ref="F13" r:id="rId11"/>
+    <hyperlink ref="F18" r:id="rId12"/>
+    <hyperlink ref="F20" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
-  <drawing r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
+  <drawing r:id="rId15"/>
 </worksheet>
 </file>
--- a/Docs/Design_Arch/BL_SW_FLATFORM.xlsx
+++ b/Docs/Design_Arch/BL_SW_FLATFORM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="510" windowWidth="19875" windowHeight="7275" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="360" yWindow="510" windowWidth="19875" windowHeight="7275" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="RawIdeaAnalysis" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="289">
   <si>
     <t>STT</t>
   </si>
@@ -888,6 +888,18 @@
   </si>
   <si>
     <t>CC3D Evo</t>
+  </si>
+  <si>
+    <t>http://www.embedded.com/design/prototyping-and-development/4024581/Sampling-rates-for-analog-sensors</t>
+  </si>
+  <si>
+    <t>Sampling rates for analog sensors</t>
+  </si>
+  <si>
+    <t>http://www.embedded.com/design/configurable-systems/4006414/How-to-Choose-A-Sensible-Sampling-Rate</t>
+  </si>
+  <si>
+    <t>How to Choose A Sensible Sampling Rate</t>
   </si>
 </sst>
 </file>
@@ -1197,25 +1209,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1293,6 +1293,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1315,15 +1336,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6200,18 +6212,18 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="53" t="s">
         <v>177</v>
       </c>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
       <c r="I5" s="22"/>
-      <c r="J5" s="45" t="s">
+      <c r="J5" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E6" s="21" t="s">
@@ -6228,15 +6240,15 @@
       <c r="L6" s="21"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E7" s="55" t="s">
+      <c r="E7" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="F7" s="46" t="s">
+      <c r="F7" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="48"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="44"/>
       <c r="J7" s="16" t="s">
         <v>179</v>
       </c>
@@ -6248,35 +6260,35 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E8" s="60"/>
-      <c r="F8" s="61" t="s">
+      <c r="E8" s="56"/>
+      <c r="F8" s="57" t="s">
         <v>160</v>
       </c>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="59" t="s">
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="55" t="s">
         <v>180</v>
       </c>
-      <c r="K8" s="59" t="s">
+      <c r="K8" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="L8" s="59" t="s">
+      <c r="L8" s="55" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E9" s="56"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E10" s="55" t="s">
+      <c r="E10" s="51" t="s">
         <v>169</v>
       </c>
       <c r="F10" s="19" t="s">
@@ -6300,7 +6312,7 @@
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E11" s="60"/>
+      <c r="E11" s="56"/>
       <c r="F11" s="18" t="s">
         <v>161</v>
       </c>
@@ -6322,7 +6334,7 @@
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E12" s="56"/>
+      <c r="E12" s="52"/>
       <c r="F12" s="18" t="s">
         <v>165</v>
       </c>
@@ -6344,47 +6356,47 @@
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E13" s="55" t="s">
+      <c r="E13" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="F13" s="67" t="s">
+      <c r="F13" s="63" t="s">
         <v>159</v>
       </c>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="46" t="s">
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="42" t="s">
         <v>188</v>
       </c>
-      <c r="K13" s="47"/>
-      <c r="L13" s="48"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="44"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E14" s="60"/>
-      <c r="F14" s="61" t="s">
+      <c r="E14" s="56"/>
+      <c r="F14" s="57" t="s">
         <v>166</v>
       </c>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="49" t="s">
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="K14" s="50"/>
-      <c r="L14" s="51"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="47"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E15" s="56"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="54"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="50"/>
     </row>
     <row r="16" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="E16" s="55" t="s">
+      <c r="E16" s="51" t="s">
         <v>171</v>
       </c>
       <c r="F16" s="16" t="s">
@@ -6410,7 +6422,7 @@
       </c>
     </row>
     <row r="17" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E17" s="56"/>
+      <c r="E17" s="52"/>
       <c r="F17" s="16" t="s">
         <v>207</v>
       </c>
@@ -6434,7 +6446,7 @@
       </c>
     </row>
     <row r="18" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E18" s="43" t="s">
+      <c r="E18" s="71" t="s">
         <v>173</v>
       </c>
       <c r="F18" s="16" t="s">
@@ -6443,10 +6455,10 @@
       <c r="G18" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="H18" s="38" t="s">
+      <c r="H18" s="66" t="s">
         <v>176</v>
       </c>
-      <c r="I18" s="39"/>
+      <c r="I18" s="67"/>
       <c r="J18" s="16" t="s">
         <v>179</v>
       </c>
@@ -6458,17 +6470,17 @@
       </c>
     </row>
     <row r="19" spans="5:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="E19" s="44"/>
+      <c r="E19" s="72"/>
       <c r="F19" s="16" t="s">
         <v>174</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="H19" s="40" t="s">
+      <c r="H19" s="68" t="s">
         <v>214</v>
       </c>
-      <c r="I19" s="39"/>
+      <c r="I19" s="67"/>
       <c r="J19" s="16" t="s">
         <v>195</v>
       </c>
@@ -6480,7 +6492,7 @@
       </c>
     </row>
     <row r="20" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E20" s="43" t="s">
+      <c r="E20" s="71" t="s">
         <v>199</v>
       </c>
       <c r="F20" s="16" t="s">
@@ -6489,10 +6501,10 @@
       <c r="G20" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="H20" s="38" t="s">
+      <c r="H20" s="66" t="s">
         <v>201</v>
       </c>
-      <c r="I20" s="39"/>
+      <c r="I20" s="67"/>
       <c r="J20" s="16" t="s">
         <v>179</v>
       </c>
@@ -6504,15 +6516,15 @@
       </c>
     </row>
     <row r="21" spans="5:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="44"/>
+      <c r="E21" s="72"/>
       <c r="F21" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="G21" s="40" t="s">
+      <c r="G21" s="68" t="s">
         <v>203</v>
       </c>
-      <c r="H21" s="41"/>
-      <c r="I21" s="42"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="70"/>
       <c r="J21" s="16" t="s">
         <v>204</v>
       </c>
@@ -6521,6 +6533,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="J13:L13"/>
     <mergeCell ref="J14:L15"/>
@@ -6536,12 +6554,6 @@
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="F14:I15"/>
     <mergeCell ref="L8:L9"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E20:E21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6565,7 +6577,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G2" s="70" t="s">
+      <c r="G2" s="73" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="3" t="s">
@@ -6573,37 +6585,37 @@
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G3" s="71"/>
+      <c r="G3" s="74"/>
       <c r="H3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G4" s="71"/>
+      <c r="G4" s="74"/>
       <c r="H4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G5" s="71"/>
+      <c r="G5" s="74"/>
       <c r="H5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G6" s="71"/>
+      <c r="G6" s="74"/>
       <c r="H6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G7" s="71"/>
+      <c r="G7" s="74"/>
       <c r="H7" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G8" s="71"/>
+      <c r="G8" s="74"/>
       <c r="H8" s="3" t="s">
         <v>15</v>
       </c>
@@ -9815,8 +9827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D5:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10004,7 +10016,7 @@
       <c r="G17" s="16"/>
     </row>
     <row r="20" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D20" s="72" t="s">
+      <c r="D20" s="75" t="s">
         <v>237</v>
       </c>
       <c r="E20" s="34" t="s">
@@ -10012,13 +10024,13 @@
       </c>
     </row>
     <row r="21" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D21" s="73"/>
+      <c r="D21" s="76"/>
       <c r="E21" s="34" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="22" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D22" s="74"/>
+      <c r="D22" s="77"/>
       <c r="E22" s="16" t="s">
         <v>240</v>
       </c>
@@ -10039,13 +10051,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="C19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="40" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" style="15" customWidth="1"/>
     <col min="4" max="4" width="91.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="58.7109375" bestFit="1" customWidth="1"/>
@@ -10054,13 +10066,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="38" t="s">
         <v>244</v>
       </c>
       <c r="C1" s="35"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="39" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="33" t="s">
@@ -10083,7 +10095,7 @@
       <c r="B4" s="37">
         <v>1</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="78" t="s">
         <v>261</v>
       </c>
       <c r="D4" s="16" t="s">
@@ -10101,7 +10113,7 @@
       <c r="B5" s="37">
         <v>2</v>
       </c>
-      <c r="C5" s="76"/>
+      <c r="C5" s="79"/>
       <c r="D5" s="16" t="s">
         <v>257</v>
       </c>
@@ -10115,7 +10127,7 @@
       <c r="B6" s="37">
         <v>3</v>
       </c>
-      <c r="C6" s="76"/>
+      <c r="C6" s="79"/>
       <c r="D6" s="16" t="s">
         <v>263</v>
       </c>
@@ -10133,7 +10145,7 @@
       <c r="B7" s="37">
         <v>4</v>
       </c>
-      <c r="C7" s="77"/>
+      <c r="C7" s="80"/>
       <c r="D7" s="16" t="s">
         <v>265</v>
       </c>
@@ -10146,10 +10158,10 @@
       <c r="G7" s="16"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="75">
+      <c r="B8" s="78">
         <v>5</v>
       </c>
-      <c r="C8" s="75" t="s">
+      <c r="C8" s="78" t="s">
         <v>262</v>
       </c>
       <c r="D8" s="16" t="s">
@@ -10160,8 +10172,8 @@
       <c r="G8" s="16"/>
     </row>
     <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
       <c r="D9" s="16" t="s">
         <v>269</v>
       </c>
@@ -10174,32 +10186,32 @@
       <c r="G9" s="16"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
     <row r="11" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
     </row>
     <row r="12" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="76"/>
-      <c r="C12" s="76"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
       <c r="D13" s="16" t="s">
         <v>284</v>
       </c>
@@ -10210,10 +10222,10 @@
       <c r="G13" s="16"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="75">
+      <c r="B14" s="78">
         <v>6</v>
       </c>
-      <c r="C14" s="75" t="s">
+      <c r="C14" s="78" t="s">
         <v>274</v>
       </c>
       <c r="D14" s="16" t="s">
@@ -10224,34 +10236,34 @@
       <c r="G14" s="16"/>
     </row>
     <row r="15" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="76"/>
-      <c r="C15" s="76"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
     </row>
     <row r="16" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="76"/>
-      <c r="C16" s="76"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="79"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="77"/>
-      <c r="C17" s="77"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="34"/>
       <c r="G17" s="16"/>
     </row>
     <row r="18" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="75">
+      <c r="B18" s="78">
         <v>7</v>
       </c>
-      <c r="C18" s="75" t="s">
+      <c r="C18" s="78" t="s">
         <v>276</v>
       </c>
       <c r="D18" s="34"/>
@@ -10262,18 +10274,18 @@
       <c r="G18" s="16"/>
     </row>
     <row r="19" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
       <c r="F19" s="34"/>
       <c r="G19" s="16"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="75">
+      <c r="B20" s="78">
         <v>8</v>
       </c>
-      <c r="C20" s="75" t="s">
+      <c r="C20" s="78" t="s">
         <v>280</v>
       </c>
       <c r="D20" s="16" t="s">
@@ -10288,24 +10300,24 @@
       <c r="G20" s="16"/>
     </row>
     <row r="21" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="76"/>
-      <c r="C21" s="76"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="79"/>
       <c r="D21" s="34"/>
       <c r="E21" s="16"/>
       <c r="F21" s="34"/>
       <c r="G21" s="16"/>
     </row>
     <row r="22" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="76"/>
-      <c r="C22" s="76"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="79"/>
       <c r="D22" s="34"/>
       <c r="E22" s="16"/>
       <c r="F22" s="34"/>
       <c r="G22" s="16"/>
     </row>
     <row r="23" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="77"/>
-      <c r="C23" s="77"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="80"/>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
       <c r="F23" s="34"/>
@@ -10336,13 +10348,13 @@
       <c r="G26" s="16"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="78" t="s">
+      <c r="B28" s="38" t="s">
         <v>243</v>
       </c>
       <c r="C28" s="35"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="79" t="s">
+      <c r="B29" s="39" t="s">
         <v>0</v>
       </c>
       <c r="C29" s="33"/>
@@ -10426,8 +10438,12 @@
         <v>6</v>
       </c>
       <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
+      <c r="D35" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="E35" s="34" t="s">
+        <v>285</v>
+      </c>
       <c r="F35" s="16"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
@@ -10435,8 +10451,12 @@
         <v>7</v>
       </c>
       <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
+      <c r="D36" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E36" s="34" t="s">
+        <v>287</v>
+      </c>
       <c r="F36" s="6"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -10477,6 +10497,8 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="B20:B23"/>
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="C8:C13"/>
     <mergeCell ref="C14:C17"/>
@@ -10484,8 +10506,6 @@
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="B8:B13"/>
     <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="B20:B23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E31" r:id="rId1"/>
@@ -10501,9 +10521,11 @@
     <hyperlink ref="F13" r:id="rId11"/>
     <hyperlink ref="F18" r:id="rId12"/>
     <hyperlink ref="F20" r:id="rId13"/>
+    <hyperlink ref="E35" r:id="rId14"/>
+    <hyperlink ref="E36" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
-  <drawing r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
+  <drawing r:id="rId17"/>
 </worksheet>
 </file>
--- a/Docs/Design_Arch/BL_SW_FLATFORM.xlsx
+++ b/Docs/Design_Arch/BL_SW_FLATFORM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="510" windowWidth="19875" windowHeight="7275" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="360" yWindow="570" windowWidth="19875" windowHeight="7215" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="RawIdeaAnalysis" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="299">
   <si>
     <t>STT</t>
   </si>
@@ -884,9 +884,6 @@
     <t xml:space="preserve"> 900.000 VND</t>
   </si>
   <si>
-    <t>http://www.clbmohinh.com/forum/m1348891-print.aspx</t>
-  </si>
-  <si>
     <t>CC3D Evo</t>
   </si>
   <si>
@@ -900,6 +897,40 @@
   </si>
   <si>
     <t>How to Choose A Sensible Sampling Rate</t>
+  </si>
+  <si>
+    <t>https://oscarliang.com/3s-4s-setup-mini-quadcopter/</t>
+  </si>
+  <si>
+    <t>Mini Quad: 3S, 4S Setups Comparison and Migration</t>
+  </si>
+  <si>
+    <t>http://www.clbmohinh.com/forum/m1348891-print.aspx
+http://quanphongrc.vn/ct/chi-tiet/260/cc3d.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 330.000 VND </t>
+  </si>
+  <si>
+    <t>http://quanphongrc.vn/ct/may-bay-dieu-khien/1270/emax-rs2205-s-2300kv-racespec-motor-cooling-series-for-fpv-multicopter-4pcs-set.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.240.000 VND </t>
+  </si>
+  <si>
+    <t>ESC</t>
+  </si>
+  <si>
+    <t>http://quanphongrc.vn/ct/may-bay-dieu-khien/1561/4x-favourite-fvt-littlebee-30a-s-esc-blheli-s-opto-2-6s-supports-mulitshot-oneshot42-oneshot125.html</t>
+  </si>
+  <si>
+    <t>4X Favourite FVT LittleBee 30A-S ESC BLHeli_S OPTO 2-6S Supports Mulitshot Oneshot42 OneShot125</t>
+  </si>
+  <si>
+    <t>1.200.000 VND</t>
+  </si>
+  <si>
+    <t>RX</t>
   </si>
 </sst>
 </file>
@@ -1154,7 +1185,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -1338,6 +1369,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5734,16 +5768,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>802821</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>144731</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>5137273</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>170868</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>486105</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>29850</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5760,8 +5794,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1415142" y="6572249"/>
-          <a:ext cx="6266667" cy="4647619"/>
+          <a:off x="26297659" y="5669231"/>
+          <a:ext cx="6261719" cy="4647619"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5772,10 +5806,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>830037</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>136071</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>293172</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>32162</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3429080" cy="374141"/>
     <xdr:sp macro="" textlink="">
@@ -5785,7 +5819,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1442358" y="6041571"/>
+          <a:off x="26305081" y="4985162"/>
           <a:ext cx="3429080" cy="374141"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5817,6 +5851,80 @@
             <a:rPr lang="en-US" sz="1800" b="1"/>
             <a:t>DALRC DL265 FPV Quad Frame Kit</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>54552</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="12312794" cy="609013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="682337" y="8055552"/>
+          <a:ext cx="12312794" cy="609013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Cấu</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t> hình Robocat</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Cấu hình robocat Kit robocat 650k Fc f3 330k Bec 5in1 168k Esc Favourite FVT LittleBee 30A-S 1200k Motor EMAX RS2205-S 2300KV 1240k Led 192k Chân TAROT 52k Cánh kingkong 5045 32k Pin tattu 2s 1800mah</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -10051,16 +10159,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="40" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="91.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="58.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="103" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="110.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="138.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="62.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -10209,15 +10317,17 @@
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="80"/>
       <c r="C13" s="80"/>
       <c r="D13" s="16" t="s">
-        <v>284</v>
-      </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="34" t="s">
         <v>283</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="F13" s="81" t="s">
+        <v>290</v>
       </c>
       <c r="G13" s="16"/>
     </row>
@@ -10231,8 +10341,12 @@
       <c r="D14" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
+      <c r="E14" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>292</v>
+      </c>
       <c r="G14" s="16"/>
     </row>
     <row r="15" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -10324,87 +10438,98 @@
       <c r="G23" s="16"/>
     </row>
     <row r="24" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="34"/>
+      <c r="B24" s="78">
+        <v>9</v>
+      </c>
+      <c r="C24" s="78" t="s">
+        <v>294</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>295</v>
+      </c>
       <c r="G24" s="16"/>
     </row>
     <row r="25" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="34"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="16"/>
       <c r="E25" s="16"/>
       <c r="F25" s="34"/>
       <c r="G25" s="16"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="16"/>
+    <row r="26" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="37">
+        <v>10</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="D26" s="34"/>
       <c r="E26" s="16"/>
       <c r="F26" s="34"/>
       <c r="G26" s="16"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="38" t="s">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="16"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="C28" s="35"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="39" t="s">
+      <c r="C29" s="35"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33" t="s">
+      <c r="C30" s="33"/>
+      <c r="D30" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="E29" s="33" t="s">
+      <c r="E30" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="F29" s="33" t="s">
+      <c r="F30" s="33" t="s">
         <v>220</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="37">
-        <v>1</v>
-      </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="E30" s="34" t="s">
-        <v>249</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31" s="16"/>
       <c r="D31" s="16" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E31" s="34" t="s">
-        <v>245</v>
-      </c>
-      <c r="F31" s="16"/>
+        <v>249</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C32" s="16"/>
       <c r="D32" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="E32" s="16"/>
+        <v>247</v>
+      </c>
+      <c r="E32" s="34" t="s">
+        <v>245</v>
+      </c>
       <c r="F32" s="16"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
@@ -10439,10 +10564,10 @@
       </c>
       <c r="C35" s="16"/>
       <c r="D35" s="16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E35" s="34" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F35" s="16"/>
     </row>
@@ -10452,10 +10577,10 @@
       </c>
       <c r="C36" s="16"/>
       <c r="D36" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E36" s="34" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F36" s="6"/>
     </row>
@@ -10464,8 +10589,12 @@
         <v>8</v>
       </c>
       <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
+      <c r="D37" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="E37" s="34" t="s">
+        <v>288</v>
+      </c>
       <c r="F37" s="16"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -10496,9 +10625,11 @@
       <c r="F40" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
     <mergeCell ref="C20:C23"/>
     <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="C8:C13"/>
     <mergeCell ref="C14:C17"/>
@@ -10508,8 +10639,8 @@
     <mergeCell ref="B14:B17"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E31" r:id="rId1"/>
-    <hyperlink ref="E30" r:id="rId2"/>
+    <hyperlink ref="E32" r:id="rId1"/>
+    <hyperlink ref="E31" r:id="rId2"/>
     <hyperlink ref="F4" r:id="rId3"/>
     <hyperlink ref="E33" r:id="rId4"/>
     <hyperlink ref="F5" r:id="rId5"/>
@@ -10518,14 +10649,17 @@
     <hyperlink ref="F9" r:id="rId8" location="detail"/>
     <hyperlink ref="G6" r:id="rId9"/>
     <hyperlink ref="E34" r:id="rId10"/>
-    <hyperlink ref="F13" r:id="rId11"/>
+    <hyperlink ref="F13" r:id="rId11" display="http://www.clbmohinh.com/forum/m1348891-print.aspx"/>
     <hyperlink ref="F18" r:id="rId12"/>
     <hyperlink ref="F20" r:id="rId13"/>
     <hyperlink ref="E35" r:id="rId14"/>
     <hyperlink ref="E36" r:id="rId15"/>
+    <hyperlink ref="E37" r:id="rId16"/>
+    <hyperlink ref="F14" r:id="rId17"/>
+    <hyperlink ref="F24" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
-  <drawing r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
+  <drawing r:id="rId20"/>
 </worksheet>
 </file>
--- a/Docs/Design_Arch/BL_SW_FLATFORM.xlsx
+++ b/Docs/Design_Arch/BL_SW_FLATFORM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="570" windowWidth="19875" windowHeight="7215" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="360" yWindow="630" windowWidth="19875" windowHeight="7155" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="RawIdeaAnalysis" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="304">
   <si>
     <t>STT</t>
   </si>
@@ -931,6 +931,21 @@
   </si>
   <si>
     <t>RX</t>
+  </si>
+  <si>
+    <t>Cánh 5" 3 lá. GepRC v2 5040 hoăc DAL v2 5040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motor 2306 </t>
+  </si>
+  <si>
+    <t>PFV system</t>
+  </si>
+  <si>
+    <t>DYS FPV 5.8G Antenna 4dBi Mushroom Antenna RHCP TX RX SMA RP-SMA Male</t>
+  </si>
+  <si>
+    <t>https://www.banggood.com/DYS-FPV-5_8G-Antenna-4dBi-Mushroom-Antenna-RHCP-TX-RX-SMA-RP-SMA-Male-p-1065852.html?p=RO30218521132014102T</t>
   </si>
 </sst>
 </file>
@@ -1185,7 +1200,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -1247,6 +1262,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1324,27 +1366,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1368,9 +1389,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5770,13 +5788,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>144731</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>486105</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>29850</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5860,7 +5878,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>54552</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="12312794" cy="609013"/>
@@ -6268,8 +6286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B2"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N95" sqref="N95"/>
+    <sheetView topLeftCell="A37" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="Y93" sqref="Y93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6320,18 +6338,18 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
       <c r="I5" s="22"/>
-      <c r="J5" s="41" t="s">
+      <c r="J5" s="50" t="s">
         <v>178</v>
       </c>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E6" s="21" t="s">
@@ -6348,15 +6366,15 @@
       <c r="L6" s="21"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E7" s="51" t="s">
+      <c r="E7" s="60" t="s">
         <v>168</v>
       </c>
-      <c r="F7" s="42" t="s">
+      <c r="F7" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="44"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="53"/>
       <c r="J7" s="16" t="s">
         <v>179</v>
       </c>
@@ -6368,35 +6386,35 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E8" s="56"/>
-      <c r="F8" s="57" t="s">
+      <c r="E8" s="65"/>
+      <c r="F8" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="55" t="s">
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="64" t="s">
         <v>180</v>
       </c>
-      <c r="K8" s="55" t="s">
+      <c r="K8" s="64" t="s">
         <v>183</v>
       </c>
-      <c r="L8" s="55" t="s">
+      <c r="L8" s="64" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E9" s="52"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E10" s="51" t="s">
+      <c r="E10" s="60" t="s">
         <v>169</v>
       </c>
       <c r="F10" s="19" t="s">
@@ -6420,7 +6438,7 @@
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E11" s="56"/>
+      <c r="E11" s="65"/>
       <c r="F11" s="18" t="s">
         <v>161</v>
       </c>
@@ -6442,7 +6460,7 @@
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E12" s="52"/>
+      <c r="E12" s="61"/>
       <c r="F12" s="18" t="s">
         <v>165</v>
       </c>
@@ -6464,47 +6482,47 @@
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E13" s="51" t="s">
+      <c r="E13" s="60" t="s">
         <v>170</v>
       </c>
-      <c r="F13" s="63" t="s">
+      <c r="F13" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="42" t="s">
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="K13" s="43"/>
-      <c r="L13" s="44"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="53"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E14" s="56"/>
-      <c r="F14" s="57" t="s">
+      <c r="E14" s="65"/>
+      <c r="F14" s="66" t="s">
         <v>166</v>
       </c>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="45" t="s">
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="54" t="s">
         <v>189</v>
       </c>
-      <c r="K14" s="46"/>
-      <c r="L14" s="47"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="56"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E15" s="52"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="50"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="59"/>
     </row>
     <row r="16" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="E16" s="51" t="s">
+      <c r="E16" s="60" t="s">
         <v>171</v>
       </c>
       <c r="F16" s="16" t="s">
@@ -6530,7 +6548,7 @@
       </c>
     </row>
     <row r="17" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E17" s="52"/>
+      <c r="E17" s="61"/>
       <c r="F17" s="16" t="s">
         <v>207</v>
       </c>
@@ -6554,7 +6572,7 @@
       </c>
     </row>
     <row r="18" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E18" s="71" t="s">
+      <c r="E18" s="48" t="s">
         <v>173</v>
       </c>
       <c r="F18" s="16" t="s">
@@ -6563,10 +6581,10 @@
       <c r="G18" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="H18" s="66" t="s">
+      <c r="H18" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="I18" s="67"/>
+      <c r="I18" s="44"/>
       <c r="J18" s="16" t="s">
         <v>179</v>
       </c>
@@ -6578,17 +6596,17 @@
       </c>
     </row>
     <row r="19" spans="5:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="E19" s="72"/>
+      <c r="E19" s="49"/>
       <c r="F19" s="16" t="s">
         <v>174</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="H19" s="68" t="s">
+      <c r="H19" s="45" t="s">
         <v>214</v>
       </c>
-      <c r="I19" s="67"/>
+      <c r="I19" s="44"/>
       <c r="J19" s="16" t="s">
         <v>195</v>
       </c>
@@ -6600,7 +6618,7 @@
       </c>
     </row>
     <row r="20" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E20" s="71" t="s">
+      <c r="E20" s="48" t="s">
         <v>199</v>
       </c>
       <c r="F20" s="16" t="s">
@@ -6609,10 +6627,10 @@
       <c r="G20" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="H20" s="66" t="s">
+      <c r="H20" s="43" t="s">
         <v>201</v>
       </c>
-      <c r="I20" s="67"/>
+      <c r="I20" s="44"/>
       <c r="J20" s="16" t="s">
         <v>179</v>
       </c>
@@ -6624,15 +6642,15 @@
       </c>
     </row>
     <row r="21" spans="5:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="72"/>
+      <c r="E21" s="49"/>
       <c r="F21" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="G21" s="68" t="s">
+      <c r="G21" s="45" t="s">
         <v>203</v>
       </c>
-      <c r="H21" s="69"/>
-      <c r="I21" s="70"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="47"/>
       <c r="J21" s="16" t="s">
         <v>204</v>
       </c>
@@ -6641,12 +6659,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E20:E21"/>
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="J13:L13"/>
     <mergeCell ref="J14:L15"/>
@@ -6662,6 +6674,12 @@
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="F14:I15"/>
     <mergeCell ref="L8:L9"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6672,7 +6690,7 @@
   <dimension ref="B2:H385"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6685,7 +6703,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G2" s="73" t="s">
+      <c r="G2" s="75" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="3" t="s">
@@ -6693,37 +6711,37 @@
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G3" s="74"/>
+      <c r="G3" s="76"/>
       <c r="H3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G4" s="74"/>
+      <c r="G4" s="76"/>
       <c r="H4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G5" s="74"/>
+      <c r="G5" s="76"/>
       <c r="H5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G6" s="74"/>
+      <c r="G6" s="76"/>
       <c r="H6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G7" s="74"/>
+      <c r="G7" s="76"/>
       <c r="H7" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G8" s="74"/>
+      <c r="G8" s="76"/>
       <c r="H8" s="3" t="s">
         <v>15</v>
       </c>
@@ -9810,7 +9828,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9935,8 +9953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D5:G22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10124,7 +10142,7 @@
       <c r="G17" s="16"/>
     </row>
     <row r="20" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D20" s="75" t="s">
+      <c r="D20" s="77" t="s">
         <v>237</v>
       </c>
       <c r="E20" s="34" t="s">
@@ -10132,13 +10150,13 @@
       </c>
     </row>
     <row r="21" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D21" s="76"/>
+      <c r="D21" s="78"/>
       <c r="E21" s="34" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="22" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D22" s="77"/>
+      <c r="D22" s="79"/>
       <c r="E22" s="16" t="s">
         <v>240</v>
       </c>
@@ -10157,10 +10175,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G40"/>
+  <dimension ref="B1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10203,7 +10221,7 @@
       <c r="B4" s="37">
         <v>1</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="80" t="s">
         <v>261</v>
       </c>
       <c r="D4" s="16" t="s">
@@ -10221,7 +10239,7 @@
       <c r="B5" s="37">
         <v>2</v>
       </c>
-      <c r="C5" s="79"/>
+      <c r="C5" s="81"/>
       <c r="D5" s="16" t="s">
         <v>257</v>
       </c>
@@ -10235,7 +10253,7 @@
       <c r="B6" s="37">
         <v>3</v>
       </c>
-      <c r="C6" s="79"/>
+      <c r="C6" s="81"/>
       <c r="D6" s="16" t="s">
         <v>263</v>
       </c>
@@ -10253,7 +10271,7 @@
       <c r="B7" s="37">
         <v>4</v>
       </c>
-      <c r="C7" s="80"/>
+      <c r="C7" s="82"/>
       <c r="D7" s="16" t="s">
         <v>265</v>
       </c>
@@ -10266,10 +10284,10 @@
       <c r="G7" s="16"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="78">
+      <c r="B8" s="80">
         <v>5</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="80" t="s">
         <v>262</v>
       </c>
       <c r="D8" s="16" t="s">
@@ -10280,8 +10298,8 @@
       <c r="G8" s="16"/>
     </row>
     <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
       <c r="D9" s="16" t="s">
         <v>269</v>
       </c>
@@ -10294,48 +10312,48 @@
       <c r="G9" s="16"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
     <row r="11" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
     </row>
     <row r="12" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
     </row>
     <row r="13" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="80"/>
-      <c r="C13" s="80"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="82"/>
       <c r="D13" s="16" t="s">
         <v>283</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="F13" s="81" t="s">
+      <c r="F13" s="42" t="s">
         <v>290</v>
       </c>
       <c r="G13" s="16"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="78">
+      <c r="B14" s="80">
         <v>6</v>
       </c>
-      <c r="C14" s="78" t="s">
+      <c r="C14" s="80" t="s">
         <v>274</v>
       </c>
       <c r="D14" s="16" t="s">
@@ -10350,34 +10368,38 @@
       <c r="G14" s="16"/>
     </row>
     <row r="15" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="16"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="16" t="s">
+        <v>300</v>
+      </c>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
+      <c r="G15" s="16" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="16" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="79"/>
-      <c r="C16" s="79"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="81"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="80"/>
-      <c r="C17" s="80"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="82"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="34"/>
       <c r="G17" s="16"/>
     </row>
     <row r="18" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="78">
+      <c r="B18" s="80">
         <v>7</v>
       </c>
-      <c r="C18" s="78" t="s">
+      <c r="C18" s="80" t="s">
         <v>276</v>
       </c>
       <c r="D18" s="34"/>
@@ -10388,18 +10410,18 @@
       <c r="G18" s="16"/>
     </row>
     <row r="19" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="80"/>
-      <c r="C19" s="80"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="82"/>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
       <c r="F19" s="34"/>
       <c r="G19" s="16"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="78">
+      <c r="B20" s="80">
         <v>8</v>
       </c>
-      <c r="C20" s="78" t="s">
+      <c r="C20" s="80" t="s">
         <v>280</v>
       </c>
       <c r="D20" s="16" t="s">
@@ -10414,34 +10436,34 @@
       <c r="G20" s="16"/>
     </row>
     <row r="21" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="79"/>
-      <c r="C21" s="79"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="81"/>
       <c r="D21" s="34"/>
       <c r="E21" s="16"/>
       <c r="F21" s="34"/>
       <c r="G21" s="16"/>
     </row>
     <row r="22" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="81"/>
       <c r="D22" s="34"/>
       <c r="E22" s="16"/>
       <c r="F22" s="34"/>
       <c r="G22" s="16"/>
     </row>
     <row r="23" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="80"/>
-      <c r="C23" s="80"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="82"/>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
       <c r="F23" s="34"/>
       <c r="G23" s="16"/>
     </row>
     <row r="24" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="78">
+      <c r="B24" s="80">
         <v>9</v>
       </c>
-      <c r="C24" s="78" t="s">
+      <c r="C24" s="80" t="s">
         <v>294</v>
       </c>
       <c r="D24" s="16" t="s">
@@ -10456,18 +10478,18 @@
       <c r="G24" s="16"/>
     </row>
     <row r="25" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="80"/>
-      <c r="C25" s="80"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="82"/>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
       <c r="F25" s="34"/>
       <c r="G25" s="16"/>
     </row>
     <row r="26" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="37">
+      <c r="B26" s="80">
         <v>10</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="80" t="s">
         <v>298</v>
       </c>
       <c r="D26" s="34"/>
@@ -10475,157 +10497,377 @@
       <c r="F26" s="34"/>
       <c r="G26" s="16"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="16"/>
+    <row r="27" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="81"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="34"/>
       <c r="E27" s="16"/>
       <c r="F27" s="34"/>
       <c r="G27" s="16"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="38" t="s">
+    <row r="28" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="81"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="16"/>
+    </row>
+    <row r="29" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="82"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="16"/>
+    </row>
+    <row r="30" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="80">
+        <v>11</v>
+      </c>
+      <c r="C30" s="80" t="s">
+        <v>301</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="E30" s="16"/>
+      <c r="F30" s="34" t="s">
+        <v>303</v>
+      </c>
+      <c r="G30" s="16"/>
+    </row>
+    <row r="31" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="81"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="16"/>
+    </row>
+    <row r="32" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="81"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="16"/>
+    </row>
+    <row r="33" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="81"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="16"/>
+    </row>
+    <row r="34" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="81"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="16"/>
+    </row>
+    <row r="35" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="81"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="16"/>
+    </row>
+    <row r="36" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="82"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="16"/>
+    </row>
+    <row r="37" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="16"/>
+    </row>
+    <row r="38" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="16"/>
+    </row>
+    <row r="39" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="16"/>
+    </row>
+    <row r="40" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="16"/>
+    </row>
+    <row r="41" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="16"/>
+    </row>
+    <row r="42" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="16"/>
+    </row>
+    <row r="43" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="16"/>
+    </row>
+    <row r="44" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="41"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="16"/>
+    </row>
+    <row r="45" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="16"/>
+    </row>
+    <row r="46" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="16"/>
+    </row>
+    <row r="47" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="16"/>
+    </row>
+    <row r="48" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="41"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="16"/>
+    </row>
+    <row r="49" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="41"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="16"/>
+    </row>
+    <row r="50" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="41"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="16"/>
+    </row>
+    <row r="51" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="41"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="16"/>
+    </row>
+    <row r="52" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="41"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="16"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="37"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="16"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="C29" s="35"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="39" t="s">
+      <c r="C55" s="35"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33" t="s">
+      <c r="C56" s="33"/>
+      <c r="D56" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="E30" s="33" t="s">
+      <c r="E56" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="F30" s="33" t="s">
+      <c r="F56" s="33" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="37">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="37">
         <v>1</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16" t="s">
+      <c r="C57" s="16"/>
+      <c r="D57" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="E31" s="34" t="s">
+      <c r="E57" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="F31" s="16" t="s">
+      <c r="F57" s="16" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="37">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="37">
         <v>2</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16" t="s">
+      <c r="C58" s="16"/>
+      <c r="D58" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="E32" s="34" t="s">
+      <c r="E58" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="F32" s="16"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="37">
+      <c r="F58" s="16"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="37">
         <v>4</v>
       </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16" t="s">
+      <c r="C59" s="16"/>
+      <c r="D59" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="E33" s="34" t="s">
+      <c r="E59" s="34" t="s">
         <v>255</v>
       </c>
-      <c r="F33" s="6"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="37">
+      <c r="F59" s="6"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="37">
         <v>5</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16" t="s">
+      <c r="C60" s="16"/>
+      <c r="D60" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="E34" s="34" t="s">
+      <c r="E60" s="34" t="s">
         <v>277</v>
       </c>
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="37">
+      <c r="F60" s="6"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="37">
         <v>6</v>
       </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16" t="s">
+      <c r="C61" s="16"/>
+      <c r="D61" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="E35" s="34" t="s">
+      <c r="E61" s="34" t="s">
         <v>284</v>
       </c>
-      <c r="F35" s="16"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="37">
+      <c r="F61" s="16"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="37">
         <v>7</v>
       </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16" t="s">
+      <c r="C62" s="16"/>
+      <c r="D62" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="E36" s="34" t="s">
+      <c r="E62" s="34" t="s">
         <v>286</v>
       </c>
-      <c r="F36" s="6"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="37">
+      <c r="F62" s="6"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="37">
         <v>8</v>
       </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16" t="s">
+      <c r="C63" s="16"/>
+      <c r="D63" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="E37" s="34" t="s">
+      <c r="E63" s="34" t="s">
         <v>288</v>
       </c>
-      <c r="F37" s="16"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="37">
+      <c r="F63" s="16"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="37">
         <v>9</v>
       </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="37">
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" s="37">
         <v>10</v>
       </c>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="37">
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66" s="37">
         <v>11</v>
       </c>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="15">
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C30:C36"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B36"/>
     <mergeCell ref="C20:C23"/>
     <mergeCell ref="B20:B23"/>
     <mergeCell ref="B24:B25"/>
@@ -10639,27 +10881,28 @@
     <mergeCell ref="B14:B17"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E32" r:id="rId1"/>
-    <hyperlink ref="E31" r:id="rId2"/>
+    <hyperlink ref="E58" r:id="rId1"/>
+    <hyperlink ref="E57" r:id="rId2"/>
     <hyperlink ref="F4" r:id="rId3"/>
-    <hyperlink ref="E33" r:id="rId4"/>
+    <hyperlink ref="E59" r:id="rId4"/>
     <hyperlink ref="F5" r:id="rId5"/>
     <hyperlink ref="F6" r:id="rId6"/>
     <hyperlink ref="F7" r:id="rId7"/>
     <hyperlink ref="F9" r:id="rId8" location="detail"/>
     <hyperlink ref="G6" r:id="rId9"/>
-    <hyperlink ref="E34" r:id="rId10"/>
+    <hyperlink ref="E60" r:id="rId10"/>
     <hyperlink ref="F13" r:id="rId11" display="http://www.clbmohinh.com/forum/m1348891-print.aspx"/>
     <hyperlink ref="F18" r:id="rId12"/>
     <hyperlink ref="F20" r:id="rId13"/>
-    <hyperlink ref="E35" r:id="rId14"/>
-    <hyperlink ref="E36" r:id="rId15"/>
-    <hyperlink ref="E37" r:id="rId16"/>
+    <hyperlink ref="E61" r:id="rId14"/>
+    <hyperlink ref="E62" r:id="rId15"/>
+    <hyperlink ref="E63" r:id="rId16"/>
     <hyperlink ref="F14" r:id="rId17"/>
     <hyperlink ref="F24" r:id="rId18"/>
+    <hyperlink ref="F30" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId19"/>
-  <drawing r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
+  <drawing r:id="rId21"/>
 </worksheet>
 </file>
--- a/Docs/Design_Arch/BL_SW_FLATFORM.xlsx
+++ b/Docs/Design_Arch/BL_SW_FLATFORM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="630" windowWidth="19875" windowHeight="7155" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="360" yWindow="630" windowWidth="19875" windowHeight="7155" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="RawIdeaAnalysis" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="OPL" sheetId="4" r:id="rId7"/>
     <sheet name="MCR_Build" sheetId="9" r:id="rId8"/>
     <sheet name="Drone_Build" sheetId="10" r:id="rId9"/>
+    <sheet name="CleanFlight" sheetId="11" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Requirement!$C$2:$C$385</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="311">
   <si>
     <t>STT</t>
   </si>
@@ -946,6 +947,28 @@
   </si>
   <si>
     <t>https://www.banggood.com/DYS-FPV-5_8G-Antenna-4dBi-Mushroom-Antenna-RHCP-TX-RX-SMA-RP-SMA-Male-p-1065852.html?p=RO30218521132014102T</t>
+  </si>
+  <si>
+    <t>http://quanphongrc.vn/ct/may-bay-dieu-khien/1436/matek-pdb-plus-xt60-connector.html</t>
+  </si>
+  <si>
+    <t>BEC</t>
+  </si>
+  <si>
+    <t>Matek PDB plus XT60 connector</t>
+  </si>
+  <si>
+    <t>105.000 VND</t>
+  </si>
+  <si>
+    <t>https://www.banggood.com/Fatshark-Fat-Shark-Teleporter-V5-5_8G-FPV-Goggles-with-Camera-Transmitter-CE-FCC-Headset-Combo-p-1051442.html?utmid=1108&amp;rmmds=brandsActivity</t>
+  </si>
+  <si>
+    <t>US$
+210.00</t>
+  </si>
+  <si>
+    <t>Fatshark Fat Shark Teleporter V5 5.8G FPV Goggles with Camera Transmitter CE FCC Headset Combo</t>
   </si>
 </sst>
 </file>
@@ -1270,27 +1293,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1364,6 +1366,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5941,6 +5964,1162 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>Cấu hình robocat Kit robocat 650k Fc f3 330k Bec 5in1 168k Esc Favourite FVT LittleBee 30A-S 1200k Motor EMAX RS2205-S 2300KV 1240k Led 192k Chân TAROT 52k Cánh kingkong 5045 32k Pin tattu 2s 1800mah</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>560295</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>590551</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3585883" y="784412"/>
+          <a:ext cx="3055844" cy="1606363"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400"/>
+            <a:t>FC</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8696326" y="114300"/>
+          <a:ext cx="1181100" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400"/>
+            <a:t>ECS</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>590551</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>63594</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6641727" y="542925"/>
+          <a:ext cx="1991846" cy="1044669"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7229475" y="1257300"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>43703</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>161364</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2147254" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7305115" y="1304364"/>
+          <a:ext cx="2147254" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>PWM/DSHOT/ONESHOT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t> Protocol</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>299356</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13480595" y="4895850"/>
+          <a:ext cx="1514475" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400"/>
+            <a:t>Brushless Motor</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12982576" y="5305425"/>
+          <a:ext cx="498019" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>179295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>459442</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>84045</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4314266" y="3036795"/>
+          <a:ext cx="1591235" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400"/>
+            <a:t>BEC</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>268941</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>134469</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>128866</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3899647" y="1658469"/>
+          <a:ext cx="717176" cy="565897"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400"/>
+            <a:t>Gyo</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>44263</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>156322</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>140074</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5490322" y="1669677"/>
+          <a:ext cx="717176" cy="565897"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400"/>
+            <a:t>Acc</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>268943</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>272864</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>179295</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="0"/>
+          <a:endCxn id="2" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5109884" y="2390775"/>
+          <a:ext cx="3921" cy="646020"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>302560</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="339580" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="TextBox 18"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5143501" y="2599765"/>
+          <a:ext cx="339580" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>5V</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>168089</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>128867</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rectangle 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6846794" y="3216089"/>
+          <a:ext cx="1591235" cy="532278"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400"/>
+            <a:t>PIN 3S/4S</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>459442</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>36420</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>53228</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="3"/>
+          <a:endCxn id="20" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5905501" y="3465420"/>
+          <a:ext cx="941293" cy="16808"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>78441</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>459440</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>140073</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Rectangle 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1288676" y="1187823"/>
+          <a:ext cx="1591235" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400"/>
+            <a:t>RX</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>459441</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>56031</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>560295</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>63594</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="2" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2879912" y="1580031"/>
+          <a:ext cx="705971" cy="7563"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>67236</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="TextBox 27"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3092824" y="1367118"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Rectangle 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4381501" y="4626429"/>
+          <a:ext cx="1605642" cy="748392"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400"/>
+            <a:t>TX</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>268941</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Straight Arrow Connector 30"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="2"/>
+          <a:endCxn id="24" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5167512" y="5374821"/>
+          <a:ext cx="16810" cy="575502"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>312965</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1214500" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="TextBox 31"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5211536" y="5510893"/>
+          <a:ext cx="1214500" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Wireless</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t> protocol</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1174232" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="TextBox 33"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="476251" y="3088821"/>
+          <a:ext cx="1174232" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>System</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Overview</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -6267,6 +7446,21 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
@@ -6317,7 +7511,7 @@
   <dimension ref="B2:L21"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6338,18 +7532,18 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E5" s="62" t="s">
+      <c r="E5" s="55" t="s">
         <v>177</v>
       </c>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
       <c r="I5" s="22"/>
-      <c r="J5" s="50" t="s">
+      <c r="J5" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E6" s="21" t="s">
@@ -6366,15 +7560,15 @@
       <c r="L6" s="21"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E7" s="60" t="s">
+      <c r="E7" s="53" t="s">
         <v>168</v>
       </c>
-      <c r="F7" s="51" t="s">
+      <c r="F7" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="53"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="46"/>
       <c r="J7" s="16" t="s">
         <v>179</v>
       </c>
@@ -6386,35 +7580,35 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E8" s="65"/>
-      <c r="F8" s="66" t="s">
+      <c r="E8" s="58"/>
+      <c r="F8" s="59" t="s">
         <v>160</v>
       </c>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="64" t="s">
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="57" t="s">
         <v>180</v>
       </c>
-      <c r="K8" s="64" t="s">
+      <c r="K8" s="57" t="s">
         <v>183</v>
       </c>
-      <c r="L8" s="64" t="s">
+      <c r="L8" s="57" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E9" s="61"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E10" s="60" t="s">
+      <c r="E10" s="53" t="s">
         <v>169</v>
       </c>
       <c r="F10" s="19" t="s">
@@ -6438,7 +7632,7 @@
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E11" s="65"/>
+      <c r="E11" s="58"/>
       <c r="F11" s="18" t="s">
         <v>161</v>
       </c>
@@ -6460,7 +7654,7 @@
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E12" s="61"/>
+      <c r="E12" s="54"/>
       <c r="F12" s="18" t="s">
         <v>165</v>
       </c>
@@ -6482,47 +7676,47 @@
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E13" s="60" t="s">
+      <c r="E13" s="53" t="s">
         <v>170</v>
       </c>
-      <c r="F13" s="72" t="s">
+      <c r="F13" s="65" t="s">
         <v>159</v>
       </c>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="51" t="s">
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="K13" s="52"/>
-      <c r="L13" s="53"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="46"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E14" s="65"/>
-      <c r="F14" s="66" t="s">
+      <c r="E14" s="58"/>
+      <c r="F14" s="59" t="s">
         <v>166</v>
       </c>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="54" t="s">
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="47" t="s">
         <v>189</v>
       </c>
-      <c r="K14" s="55"/>
-      <c r="L14" s="56"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="49"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E15" s="61"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="59"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="52"/>
     </row>
     <row r="16" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="E16" s="60" t="s">
+      <c r="E16" s="53" t="s">
         <v>171</v>
       </c>
       <c r="F16" s="16" t="s">
@@ -6548,7 +7742,7 @@
       </c>
     </row>
     <row r="17" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E17" s="61"/>
+      <c r="E17" s="54"/>
       <c r="F17" s="16" t="s">
         <v>207</v>
       </c>
@@ -6572,7 +7766,7 @@
       </c>
     </row>
     <row r="18" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E18" s="48" t="s">
+      <c r="E18" s="73" t="s">
         <v>173</v>
       </c>
       <c r="F18" s="16" t="s">
@@ -6581,10 +7775,10 @@
       <c r="G18" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="H18" s="43" t="s">
+      <c r="H18" s="68" t="s">
         <v>176</v>
       </c>
-      <c r="I18" s="44"/>
+      <c r="I18" s="69"/>
       <c r="J18" s="16" t="s">
         <v>179</v>
       </c>
@@ -6596,17 +7790,17 @@
       </c>
     </row>
     <row r="19" spans="5:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="E19" s="49"/>
+      <c r="E19" s="74"/>
       <c r="F19" s="16" t="s">
         <v>174</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="H19" s="45" t="s">
+      <c r="H19" s="70" t="s">
         <v>214</v>
       </c>
-      <c r="I19" s="44"/>
+      <c r="I19" s="69"/>
       <c r="J19" s="16" t="s">
         <v>195</v>
       </c>
@@ -6618,7 +7812,7 @@
       </c>
     </row>
     <row r="20" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E20" s="48" t="s">
+      <c r="E20" s="73" t="s">
         <v>199</v>
       </c>
       <c r="F20" s="16" t="s">
@@ -6627,10 +7821,10 @@
       <c r="G20" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="H20" s="43" t="s">
+      <c r="H20" s="68" t="s">
         <v>201</v>
       </c>
-      <c r="I20" s="44"/>
+      <c r="I20" s="69"/>
       <c r="J20" s="16" t="s">
         <v>179</v>
       </c>
@@ -6642,15 +7836,15 @@
       </c>
     </row>
     <row r="21" spans="5:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="49"/>
+      <c r="E21" s="74"/>
       <c r="F21" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="G21" s="45" t="s">
+      <c r="G21" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="H21" s="46"/>
-      <c r="I21" s="47"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="72"/>
       <c r="J21" s="16" t="s">
         <v>204</v>
       </c>
@@ -6659,6 +7853,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="J13:L13"/>
     <mergeCell ref="J14:L15"/>
@@ -6674,12 +7874,6 @@
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="F14:I15"/>
     <mergeCell ref="L8:L9"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E20:E21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6689,8 +7883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H385"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D177" sqref="D177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9827,8 +11021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10177,8 +11371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10537,12 +11731,18 @@
       </c>
       <c r="G30" s="16"/>
     </row>
-    <row r="31" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="81"/>
       <c r="C31" s="81"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="34"/>
+      <c r="D31" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>308</v>
+      </c>
       <c r="G31" s="16"/>
     </row>
     <row r="32" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -10582,14 +11782,24 @@
       <c r="C36" s="82"/>
       <c r="D36" s="34"/>
       <c r="E36" s="16"/>
-      <c r="F36" s="34"/>
+      <c r="F36" s="34" t="s">
+        <v>304</v>
+      </c>
       <c r="G36" s="16"/>
     </row>
     <row r="37" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="16"/>
+      <c r="B37" s="41">
+        <v>12</v>
+      </c>
+      <c r="C37" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>307</v>
+      </c>
       <c r="F37" s="34"/>
       <c r="G37" s="16"/>
     </row>
@@ -10864,6 +12074,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="B14:B17"/>
     <mergeCell ref="C26:C29"/>
     <mergeCell ref="C30:C36"/>
     <mergeCell ref="B26:B29"/>
@@ -10872,13 +12089,6 @@
     <mergeCell ref="B20:B23"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="B14:B17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E58" r:id="rId1"/>
@@ -10900,9 +12110,11 @@
     <hyperlink ref="F14" r:id="rId17"/>
     <hyperlink ref="F24" r:id="rId18"/>
     <hyperlink ref="F30" r:id="rId19"/>
+    <hyperlink ref="F36" r:id="rId20"/>
+    <hyperlink ref="F31" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
-  <drawing r:id="rId21"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
+  <drawing r:id="rId23"/>
 </worksheet>
 </file>
--- a/Docs/Design_Arch/BL_SW_FLATFORM.xlsx
+++ b/Docs/Design_Arch/BL_SW_FLATFORM.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="317">
   <si>
     <t>STT</t>
   </si>
@@ -969,6 +969,24 @@
   </si>
   <si>
     <t>Fatshark Fat Shark Teleporter V5 5.8G FPV Goggles with Camera Transmitter CE FCC Headset Combo</t>
+  </si>
+  <si>
+    <t>https://oscarliang.com/dshot/</t>
+  </si>
+  <si>
+    <t>ECS Protocol</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>D Shot</t>
   </si>
 </sst>
 </file>
@@ -1223,7 +1241,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -1292,6 +1310,30 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1368,27 +1410,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1413,6 +1434,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5978,15 +6000,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>560295</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>590551</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6035,15 +6057,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>161926</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6092,15 +6114,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>590551</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>161926</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>63594</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6143,9 +6165,9 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -6192,9 +6214,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>43703</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>161364</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2147254" cy="264560"/>
@@ -6249,15 +6271,15 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>299356</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6306,15 +6328,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6356,15 +6378,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>78442</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>179295</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>459442</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>84045</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6413,15 +6435,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>268941</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>134469</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>128866</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6476,15 +6498,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>44263</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>145677</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>156322</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>140074</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6539,15 +6561,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>268943</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>272864</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>179295</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6589,9 +6611,9 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>302560</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="339580" cy="264560"/>
@@ -6641,15 +6663,15 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>168089</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>128867</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6698,15 +6720,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>459442</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>36420</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>53228</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6749,15 +6771,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>78441</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>44823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>459440</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>140073</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6806,15 +6828,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>459441</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>56031</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>560295</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>63594</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6856,9 +6878,9 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>67236</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>33618</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -6905,15 +6927,15 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>54429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>40821</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6962,15 +6984,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>268941</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>40821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>285751</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>44823</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7013,9 +7035,9 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>312965</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>176893</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1214500" cy="264560"/>
@@ -7072,7 +7094,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>476251</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>40821</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1174232" cy="264560"/>
@@ -7448,16 +7470,124 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C49:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="101.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C49" s="2"/>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C51" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="E51" s="33" t="s">
+        <v>314</v>
+      </c>
+      <c r="F51" s="33" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C52" s="43">
+        <v>1</v>
+      </c>
+      <c r="D52" s="81" t="s">
+        <v>312</v>
+      </c>
+      <c r="E52" s="84" t="s">
+        <v>316</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C53" s="43">
+        <v>2</v>
+      </c>
+      <c r="D53" s="82"/>
+      <c r="E53" s="84"/>
+      <c r="F53" s="16"/>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C54" s="43">
+        <v>3</v>
+      </c>
+      <c r="D54" s="82"/>
+      <c r="E54" s="84"/>
+      <c r="F54" s="16"/>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C55" s="43">
+        <v>4</v>
+      </c>
+      <c r="D55" s="83"/>
+      <c r="E55" s="84"/>
+      <c r="F55" s="16"/>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C56" s="81">
+        <v>5</v>
+      </c>
+      <c r="D56" s="81"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+    </row>
+    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C57" s="82"/>
+      <c r="D57" s="82"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="6"/>
+    </row>
+    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C58" s="82"/>
+      <c r="D58" s="82"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+    </row>
+    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C59" s="82"/>
+      <c r="D59" s="82"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+    </row>
+    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C60" s="82"/>
+      <c r="D60" s="82"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+    </row>
+    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C61" s="83"/>
+      <c r="D61" s="83"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="C56:C61"/>
+    <mergeCell ref="D56:D61"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F52" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7532,18 +7662,18 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="63" t="s">
         <v>177</v>
       </c>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
       <c r="I5" s="22"/>
-      <c r="J5" s="43" t="s">
+      <c r="J5" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E6" s="21" t="s">
@@ -7560,15 +7690,15 @@
       <c r="L6" s="21"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E7" s="53" t="s">
+      <c r="E7" s="61" t="s">
         <v>168</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="46"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="54"/>
       <c r="J7" s="16" t="s">
         <v>179</v>
       </c>
@@ -7580,35 +7710,35 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E8" s="58"/>
-      <c r="F8" s="59" t="s">
+      <c r="E8" s="66"/>
+      <c r="F8" s="67" t="s">
         <v>160</v>
       </c>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="57" t="s">
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="65" t="s">
         <v>180</v>
       </c>
-      <c r="K8" s="57" t="s">
+      <c r="K8" s="65" t="s">
         <v>183</v>
       </c>
-      <c r="L8" s="57" t="s">
+      <c r="L8" s="65" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E9" s="54"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E10" s="53" t="s">
+      <c r="E10" s="61" t="s">
         <v>169</v>
       </c>
       <c r="F10" s="19" t="s">
@@ -7632,7 +7762,7 @@
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E11" s="58"/>
+      <c r="E11" s="66"/>
       <c r="F11" s="18" t="s">
         <v>161</v>
       </c>
@@ -7654,7 +7784,7 @@
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E12" s="54"/>
+      <c r="E12" s="62"/>
       <c r="F12" s="18" t="s">
         <v>165</v>
       </c>
@@ -7676,47 +7806,47 @@
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E13" s="53" t="s">
+      <c r="E13" s="61" t="s">
         <v>170</v>
       </c>
-      <c r="F13" s="65" t="s">
+      <c r="F13" s="73" t="s">
         <v>159</v>
       </c>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="44" t="s">
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="52" t="s">
         <v>188</v>
       </c>
-      <c r="K13" s="45"/>
-      <c r="L13" s="46"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="54"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E14" s="58"/>
-      <c r="F14" s="59" t="s">
+      <c r="E14" s="66"/>
+      <c r="F14" s="67" t="s">
         <v>166</v>
       </c>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="47" t="s">
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="55" t="s">
         <v>189</v>
       </c>
-      <c r="K14" s="48"/>
-      <c r="L14" s="49"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="57"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E15" s="54"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="52"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="60"/>
     </row>
     <row r="16" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="E16" s="53" t="s">
+      <c r="E16" s="61" t="s">
         <v>171</v>
       </c>
       <c r="F16" s="16" t="s">
@@ -7742,7 +7872,7 @@
       </c>
     </row>
     <row r="17" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E17" s="54"/>
+      <c r="E17" s="62"/>
       <c r="F17" s="16" t="s">
         <v>207</v>
       </c>
@@ -7766,7 +7896,7 @@
       </c>
     </row>
     <row r="18" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E18" s="73" t="s">
+      <c r="E18" s="49" t="s">
         <v>173</v>
       </c>
       <c r="F18" s="16" t="s">
@@ -7775,10 +7905,10 @@
       <c r="G18" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="H18" s="68" t="s">
+      <c r="H18" s="44" t="s">
         <v>176</v>
       </c>
-      <c r="I18" s="69"/>
+      <c r="I18" s="45"/>
       <c r="J18" s="16" t="s">
         <v>179</v>
       </c>
@@ -7790,17 +7920,17 @@
       </c>
     </row>
     <row r="19" spans="5:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="E19" s="74"/>
+      <c r="E19" s="50"/>
       <c r="F19" s="16" t="s">
         <v>174</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="H19" s="70" t="s">
+      <c r="H19" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="I19" s="69"/>
+      <c r="I19" s="45"/>
       <c r="J19" s="16" t="s">
         <v>195</v>
       </c>
@@ -7812,7 +7942,7 @@
       </c>
     </row>
     <row r="20" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E20" s="73" t="s">
+      <c r="E20" s="49" t="s">
         <v>199</v>
       </c>
       <c r="F20" s="16" t="s">
@@ -7821,10 +7951,10 @@
       <c r="G20" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="H20" s="68" t="s">
+      <c r="H20" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="I20" s="69"/>
+      <c r="I20" s="45"/>
       <c r="J20" s="16" t="s">
         <v>179</v>
       </c>
@@ -7836,15 +7966,15 @@
       </c>
     </row>
     <row r="21" spans="5:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="74"/>
+      <c r="E21" s="50"/>
       <c r="F21" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="G21" s="70" t="s">
+      <c r="G21" s="46" t="s">
         <v>203</v>
       </c>
-      <c r="H21" s="71"/>
-      <c r="I21" s="72"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="48"/>
       <c r="J21" s="16" t="s">
         <v>204</v>
       </c>
@@ -7853,12 +7983,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E20:E21"/>
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="J13:L13"/>
     <mergeCell ref="J14:L15"/>
@@ -7874,6 +7998,12 @@
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="F14:I15"/>
     <mergeCell ref="L8:L9"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7897,7 +8027,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G2" s="75" t="s">
+      <c r="G2" s="76" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="3" t="s">
@@ -7905,37 +8035,37 @@
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G3" s="76"/>
+      <c r="G3" s="77"/>
       <c r="H3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G4" s="76"/>
+      <c r="G4" s="77"/>
       <c r="H4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G5" s="76"/>
+      <c r="G5" s="77"/>
       <c r="H5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G6" s="76"/>
+      <c r="G6" s="77"/>
       <c r="H6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G7" s="76"/>
+      <c r="G7" s="77"/>
       <c r="H7" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G8" s="76"/>
+      <c r="G8" s="77"/>
       <c r="H8" s="3" t="s">
         <v>15</v>
       </c>
@@ -11336,7 +11466,7 @@
       <c r="G17" s="16"/>
     </row>
     <row r="20" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D20" s="77" t="s">
+      <c r="D20" s="78" t="s">
         <v>237</v>
       </c>
       <c r="E20" s="34" t="s">
@@ -11344,13 +11474,13 @@
       </c>
     </row>
     <row r="21" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D21" s="78"/>
+      <c r="D21" s="79"/>
       <c r="E21" s="34" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="22" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D22" s="79"/>
+      <c r="D22" s="80"/>
       <c r="E22" s="16" t="s">
         <v>240</v>
       </c>
@@ -11371,8 +11501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G66"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11415,7 +11545,7 @@
       <c r="B4" s="37">
         <v>1</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="81" t="s">
         <v>261</v>
       </c>
       <c r="D4" s="16" t="s">
@@ -11433,7 +11563,7 @@
       <c r="B5" s="37">
         <v>2</v>
       </c>
-      <c r="C5" s="81"/>
+      <c r="C5" s="82"/>
       <c r="D5" s="16" t="s">
         <v>257</v>
       </c>
@@ -11447,7 +11577,7 @@
       <c r="B6" s="37">
         <v>3</v>
       </c>
-      <c r="C6" s="81"/>
+      <c r="C6" s="82"/>
       <c r="D6" s="16" t="s">
         <v>263</v>
       </c>
@@ -11465,7 +11595,7 @@
       <c r="B7" s="37">
         <v>4</v>
       </c>
-      <c r="C7" s="82"/>
+      <c r="C7" s="83"/>
       <c r="D7" s="16" t="s">
         <v>265</v>
       </c>
@@ -11478,10 +11608,10 @@
       <c r="G7" s="16"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="80">
+      <c r="B8" s="81">
         <v>5</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="81" t="s">
         <v>262</v>
       </c>
       <c r="D8" s="16" t="s">
@@ -11492,8 +11622,8 @@
       <c r="G8" s="16"/>
     </row>
     <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="81"/>
-      <c r="C9" s="81"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
       <c r="D9" s="16" t="s">
         <v>269</v>
       </c>
@@ -11506,32 +11636,32 @@
       <c r="G9" s="16"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="82"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
     <row r="11" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
     </row>
     <row r="12" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="82"/>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
     </row>
     <row r="13" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="82"/>
-      <c r="C13" s="82"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="83"/>
       <c r="D13" s="16" t="s">
         <v>283</v>
       </c>
@@ -11544,10 +11674,10 @@
       <c r="G13" s="16"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="80">
+      <c r="B14" s="81">
         <v>6</v>
       </c>
-      <c r="C14" s="80" t="s">
+      <c r="C14" s="81" t="s">
         <v>274</v>
       </c>
       <c r="D14" s="16" t="s">
@@ -11562,8 +11692,8 @@
       <c r="G14" s="16"/>
     </row>
     <row r="15" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="81"/>
-      <c r="C15" s="81"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="82"/>
       <c r="D15" s="16" t="s">
         <v>300</v>
       </c>
@@ -11574,26 +11704,26 @@
       </c>
     </row>
     <row r="16" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="82"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="82"/>
-      <c r="C17" s="82"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="83"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="34"/>
       <c r="G17" s="16"/>
     </row>
     <row r="18" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="80">
+      <c r="B18" s="81">
         <v>7</v>
       </c>
-      <c r="C18" s="80" t="s">
+      <c r="C18" s="81" t="s">
         <v>276</v>
       </c>
       <c r="D18" s="34"/>
@@ -11604,18 +11734,18 @@
       <c r="G18" s="16"/>
     </row>
     <row r="19" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="82"/>
-      <c r="C19" s="82"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="83"/>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
       <c r="F19" s="34"/>
       <c r="G19" s="16"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="80">
+      <c r="B20" s="81">
         <v>8</v>
       </c>
-      <c r="C20" s="80" t="s">
+      <c r="C20" s="81" t="s">
         <v>280</v>
       </c>
       <c r="D20" s="16" t="s">
@@ -11630,34 +11760,34 @@
       <c r="G20" s="16"/>
     </row>
     <row r="21" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="81"/>
-      <c r="C21" s="81"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="82"/>
       <c r="D21" s="34"/>
       <c r="E21" s="16"/>
       <c r="F21" s="34"/>
       <c r="G21" s="16"/>
     </row>
     <row r="22" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="81"/>
-      <c r="C22" s="81"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="82"/>
       <c r="D22" s="34"/>
       <c r="E22" s="16"/>
       <c r="F22" s="34"/>
       <c r="G22" s="16"/>
     </row>
     <row r="23" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="82"/>
-      <c r="C23" s="82"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="83"/>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
       <c r="F23" s="34"/>
       <c r="G23" s="16"/>
     </row>
     <row r="24" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="80">
+      <c r="B24" s="81">
         <v>9</v>
       </c>
-      <c r="C24" s="80" t="s">
+      <c r="C24" s="81" t="s">
         <v>294</v>
       </c>
       <c r="D24" s="16" t="s">
@@ -11672,18 +11802,18 @@
       <c r="G24" s="16"/>
     </row>
     <row r="25" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="82"/>
-      <c r="C25" s="82"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="83"/>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
       <c r="F25" s="34"/>
       <c r="G25" s="16"/>
     </row>
     <row r="26" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="80">
+      <c r="B26" s="81">
         <v>10</v>
       </c>
-      <c r="C26" s="80" t="s">
+      <c r="C26" s="81" t="s">
         <v>298</v>
       </c>
       <c r="D26" s="34"/>
@@ -11692,34 +11822,34 @@
       <c r="G26" s="16"/>
     </row>
     <row r="27" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="81"/>
-      <c r="C27" s="81"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="82"/>
       <c r="D27" s="34"/>
       <c r="E27" s="16"/>
       <c r="F27" s="34"/>
       <c r="G27" s="16"/>
     </row>
     <row r="28" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="81"/>
-      <c r="C28" s="81"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="82"/>
       <c r="D28" s="34"/>
       <c r="E28" s="16"/>
       <c r="F28" s="34"/>
       <c r="G28" s="16"/>
     </row>
     <row r="29" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="82"/>
-      <c r="C29" s="82"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="83"/>
       <c r="D29" s="34"/>
       <c r="E29" s="16"/>
       <c r="F29" s="34"/>
       <c r="G29" s="16"/>
     </row>
     <row r="30" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="80">
+      <c r="B30" s="81">
         <v>11</v>
       </c>
-      <c r="C30" s="80" t="s">
+      <c r="C30" s="81" t="s">
         <v>301</v>
       </c>
       <c r="D30" s="16" t="s">
@@ -11732,8 +11862,8 @@
       <c r="G30" s="16"/>
     </row>
     <row r="31" spans="2:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B31" s="81"/>
-      <c r="C31" s="81"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="82"/>
       <c r="D31" s="16" t="s">
         <v>310</v>
       </c>
@@ -11746,40 +11876,40 @@
       <c r="G31" s="16"/>
     </row>
     <row r="32" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="81"/>
-      <c r="C32" s="81"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="82"/>
       <c r="D32" s="34"/>
       <c r="E32" s="16"/>
       <c r="F32" s="34"/>
       <c r="G32" s="16"/>
     </row>
     <row r="33" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="81"/>
-      <c r="C33" s="81"/>
+      <c r="B33" s="82"/>
+      <c r="C33" s="82"/>
       <c r="D33" s="34"/>
       <c r="E33" s="16"/>
       <c r="F33" s="34"/>
       <c r="G33" s="16"/>
     </row>
     <row r="34" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="81"/>
-      <c r="C34" s="81"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="82"/>
       <c r="D34" s="34"/>
       <c r="E34" s="16"/>
       <c r="F34" s="34"/>
       <c r="G34" s="16"/>
     </row>
     <row r="35" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="81"/>
-      <c r="C35" s="81"/>
+      <c r="B35" s="82"/>
+      <c r="C35" s="82"/>
       <c r="D35" s="34"/>
       <c r="E35" s="16"/>
       <c r="F35" s="34"/>
       <c r="G35" s="16"/>
     </row>
     <row r="36" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="82"/>
-      <c r="C36" s="82"/>
+      <c r="B36" s="83"/>
+      <c r="C36" s="83"/>
       <c r="D36" s="34"/>
       <c r="E36" s="16"/>
       <c r="F36" s="34" t="s">
@@ -12074,13 +12204,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="B14:B17"/>
     <mergeCell ref="C26:C29"/>
     <mergeCell ref="C30:C36"/>
     <mergeCell ref="B26:B29"/>
@@ -12089,6 +12212,13 @@
     <mergeCell ref="B20:B23"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="B14:B17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E58" r:id="rId1"/>

--- a/Docs/Design_Arch/BL_SW_FLATFORM.xlsx
+++ b/Docs/Design_Arch/BL_SW_FLATFORM.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="325">
   <si>
     <t>STT</t>
   </si>
@@ -987,6 +987,30 @@
   </si>
   <si>
     <t>D Shot</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=j2YtpeHGafs</t>
+  </si>
+  <si>
+    <t>PID</t>
+  </si>
+  <si>
+    <t>Betaflight 2 kHz (and above) gyro sync explained</t>
+  </si>
+  <si>
+    <t>Soft Mounting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redue Noise </t>
+  </si>
+  <si>
+    <t>https://oscarliang.com/soft-mounting-fc-motors/</t>
+  </si>
+  <si>
+    <t>https://oscarliang.com/pid-controller-0-1-2-cleanflight/</t>
+  </si>
+  <si>
+    <t>What are PID Controller 0, 1, 2, 3, 4 and 5 in CleanFlight?</t>
   </si>
 </sst>
 </file>
@@ -1241,7 +1265,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -1310,9 +1334,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6000,15 +6021,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>560295</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>590551</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6057,15 +6078,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>161926</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6114,15 +6135,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>590551</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>161926</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>63594</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6165,9 +6186,9 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -6214,9 +6235,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>43703</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>161364</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2147254" cy="264560"/>
@@ -6271,15 +6292,15 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>299356</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6328,15 +6349,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6378,15 +6399,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>78442</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>179295</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>459442</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>84045</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6435,15 +6456,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>268941</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>134469</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>128866</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6498,15 +6519,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>44263</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>145677</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>156322</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>140074</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6561,15 +6582,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>268943</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>272864</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>179295</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6611,9 +6632,9 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>302560</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="339580" cy="264560"/>
@@ -6663,15 +6684,15 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>168089</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>128867</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6720,15 +6741,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>459442</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>36420</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>53228</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6771,15 +6792,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>78441</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>44823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>459440</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>140073</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6828,15 +6849,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>459441</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>56031</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>560295</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>63594</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6878,9 +6899,9 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>67236</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>33618</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -6927,15 +6948,15 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>54429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>40821</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6984,15 +7005,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>268941</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>40821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>285751</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>44823</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7035,9 +7056,9 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>312965</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>176893</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1214500" cy="264560"/>
@@ -7143,6 +7164,55 @@
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
             <a:t> Overview</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2809875" y="3214688"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -7470,18 +7540,18 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C49:F61"/>
+  <dimension ref="C49:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J69" sqref="J69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="7.140625" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="101.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.5703125" customWidth="1"/>
+    <col min="6" max="6" width="49.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="49" spans="3:6" x14ac:dyDescent="0.25">
@@ -7502,13 +7572,13 @@
       </c>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C52" s="43">
+      <c r="C52" s="80">
         <v>1</v>
       </c>
-      <c r="D52" s="81" t="s">
+      <c r="D52" s="80" t="s">
         <v>312</v>
       </c>
-      <c r="E52" s="84" t="s">
+      <c r="E52" s="83" t="s">
         <v>316</v>
       </c>
       <c r="F52" s="2" t="s">
@@ -7516,78 +7586,133 @@
       </c>
     </row>
     <row r="53" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C53" s="43">
+      <c r="C53" s="81"/>
+      <c r="D53" s="81"/>
+      <c r="E53" s="83"/>
+      <c r="F53" s="16"/>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C54" s="81"/>
+      <c r="D54" s="81"/>
+      <c r="E54" s="83"/>
+      <c r="F54" s="16"/>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C55" s="82"/>
+      <c r="D55" s="82"/>
+      <c r="E55" s="83"/>
+      <c r="F55" s="16"/>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C56" s="80">
         <v>2</v>
       </c>
-      <c r="D53" s="82"/>
-      <c r="E53" s="84"/>
-      <c r="F53" s="16"/>
-    </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C54" s="43">
-        <v>3</v>
-      </c>
-      <c r="D54" s="82"/>
-      <c r="E54" s="84"/>
-      <c r="F54" s="16"/>
-    </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C55" s="43">
-        <v>4</v>
-      </c>
-      <c r="D55" s="83"/>
-      <c r="E55" s="84"/>
-      <c r="F55" s="16"/>
-    </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C56" s="81">
-        <v>5</v>
-      </c>
-      <c r="D56" s="81"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-    </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C57" s="82"/>
-      <c r="D57" s="82"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="6"/>
+      <c r="D56" s="80" t="s">
+        <v>318</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="F56" s="34" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C57" s="81"/>
+      <c r="D57" s="81"/>
+      <c r="E57" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="F57" s="42" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="58" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C58" s="82"/>
-      <c r="D58" s="82"/>
+      <c r="C58" s="81"/>
+      <c r="D58" s="81"/>
       <c r="E58" s="16"/>
       <c r="F58" s="16"/>
     </row>
     <row r="59" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C59" s="82"/>
-      <c r="D59" s="82"/>
+      <c r="C59" s="81"/>
+      <c r="D59" s="81"/>
       <c r="E59" s="16"/>
       <c r="F59" s="16"/>
     </row>
     <row r="60" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C60" s="82"/>
-      <c r="D60" s="82"/>
+      <c r="C60" s="81"/>
+      <c r="D60" s="81"/>
       <c r="E60" s="16"/>
       <c r="F60" s="16"/>
     </row>
     <row r="61" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C61" s="83"/>
-      <c r="D61" s="83"/>
+      <c r="C61" s="82"/>
+      <c r="D61" s="82"/>
       <c r="E61" s="16"/>
       <c r="F61" s="16"/>
     </row>
+    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C62" s="80">
+        <v>3</v>
+      </c>
+      <c r="D62" s="80" t="s">
+        <v>321</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="F62" s="34" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C63" s="81"/>
+      <c r="D63" s="81"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="6"/>
+    </row>
+    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C64" s="81"/>
+      <c r="D64" s="81"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C65" s="81"/>
+      <c r="D65" s="81"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+    </row>
+    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C66" s="81"/>
+      <c r="D66" s="81"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+    </row>
+    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C67" s="82"/>
+      <c r="D67" s="82"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="D52:D55"/>
     <mergeCell ref="C56:C61"/>
     <mergeCell ref="D56:D61"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="C62:C67"/>
+    <mergeCell ref="D62:D67"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F52" r:id="rId1"/>
+    <hyperlink ref="F56" r:id="rId2"/>
+    <hyperlink ref="F62" r:id="rId3"/>
+    <hyperlink ref="F57" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -7662,18 +7787,18 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E5" s="63" t="s">
+      <c r="E5" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
       <c r="I5" s="22"/>
-      <c r="J5" s="51" t="s">
+      <c r="J5" s="50" t="s">
         <v>178</v>
       </c>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E6" s="21" t="s">
@@ -7690,15 +7815,15 @@
       <c r="L6" s="21"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E7" s="61" t="s">
+      <c r="E7" s="60" t="s">
         <v>168</v>
       </c>
-      <c r="F7" s="52" t="s">
+      <c r="F7" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="54"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="53"/>
       <c r="J7" s="16" t="s">
         <v>179</v>
       </c>
@@ -7710,35 +7835,35 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E8" s="66"/>
-      <c r="F8" s="67" t="s">
+      <c r="E8" s="65"/>
+      <c r="F8" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="65" t="s">
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="64" t="s">
         <v>180</v>
       </c>
-      <c r="K8" s="65" t="s">
+      <c r="K8" s="64" t="s">
         <v>183</v>
       </c>
-      <c r="L8" s="65" t="s">
+      <c r="L8" s="64" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E9" s="62"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E10" s="61" t="s">
+      <c r="E10" s="60" t="s">
         <v>169</v>
       </c>
       <c r="F10" s="19" t="s">
@@ -7762,7 +7887,7 @@
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E11" s="66"/>
+      <c r="E11" s="65"/>
       <c r="F11" s="18" t="s">
         <v>161</v>
       </c>
@@ -7784,7 +7909,7 @@
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E12" s="62"/>
+      <c r="E12" s="61"/>
       <c r="F12" s="18" t="s">
         <v>165</v>
       </c>
@@ -7806,47 +7931,47 @@
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E13" s="61" t="s">
+      <c r="E13" s="60" t="s">
         <v>170</v>
       </c>
-      <c r="F13" s="73" t="s">
+      <c r="F13" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="52" t="s">
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="K13" s="53"/>
-      <c r="L13" s="54"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="53"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E14" s="66"/>
-      <c r="F14" s="67" t="s">
+      <c r="E14" s="65"/>
+      <c r="F14" s="66" t="s">
         <v>166</v>
       </c>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="55" t="s">
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="54" t="s">
         <v>189</v>
       </c>
-      <c r="K14" s="56"/>
-      <c r="L14" s="57"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="56"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E15" s="62"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="60"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="59"/>
     </row>
     <row r="16" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="E16" s="61" t="s">
+      <c r="E16" s="60" t="s">
         <v>171</v>
       </c>
       <c r="F16" s="16" t="s">
@@ -7872,7 +7997,7 @@
       </c>
     </row>
     <row r="17" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E17" s="62"/>
+      <c r="E17" s="61"/>
       <c r="F17" s="16" t="s">
         <v>207</v>
       </c>
@@ -7896,7 +8021,7 @@
       </c>
     </row>
     <row r="18" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E18" s="49" t="s">
+      <c r="E18" s="48" t="s">
         <v>173</v>
       </c>
       <c r="F18" s="16" t="s">
@@ -7905,10 +8030,10 @@
       <c r="G18" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="H18" s="44" t="s">
+      <c r="H18" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="I18" s="45"/>
+      <c r="I18" s="44"/>
       <c r="J18" s="16" t="s">
         <v>179</v>
       </c>
@@ -7920,17 +8045,17 @@
       </c>
     </row>
     <row r="19" spans="5:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="E19" s="50"/>
+      <c r="E19" s="49"/>
       <c r="F19" s="16" t="s">
         <v>174</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="H19" s="46" t="s">
+      <c r="H19" s="45" t="s">
         <v>214</v>
       </c>
-      <c r="I19" s="45"/>
+      <c r="I19" s="44"/>
       <c r="J19" s="16" t="s">
         <v>195</v>
       </c>
@@ -7942,7 +8067,7 @@
       </c>
     </row>
     <row r="20" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E20" s="49" t="s">
+      <c r="E20" s="48" t="s">
         <v>199</v>
       </c>
       <c r="F20" s="16" t="s">
@@ -7951,10 +8076,10 @@
       <c r="G20" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="H20" s="44" t="s">
+      <c r="H20" s="43" t="s">
         <v>201</v>
       </c>
-      <c r="I20" s="45"/>
+      <c r="I20" s="44"/>
       <c r="J20" s="16" t="s">
         <v>179</v>
       </c>
@@ -7966,15 +8091,15 @@
       </c>
     </row>
     <row r="21" spans="5:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="50"/>
+      <c r="E21" s="49"/>
       <c r="F21" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="G21" s="46" t="s">
+      <c r="G21" s="45" t="s">
         <v>203</v>
       </c>
-      <c r="H21" s="47"/>
-      <c r="I21" s="48"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="47"/>
       <c r="J21" s="16" t="s">
         <v>204</v>
       </c>
@@ -8027,7 +8152,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G2" s="76" t="s">
+      <c r="G2" s="75" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="3" t="s">
@@ -8035,37 +8160,37 @@
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G3" s="77"/>
+      <c r="G3" s="76"/>
       <c r="H3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G4" s="77"/>
+      <c r="G4" s="76"/>
       <c r="H4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G5" s="77"/>
+      <c r="G5" s="76"/>
       <c r="H5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G6" s="77"/>
+      <c r="G6" s="76"/>
       <c r="H6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G7" s="77"/>
+      <c r="G7" s="76"/>
       <c r="H7" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G8" s="77"/>
+      <c r="G8" s="76"/>
       <c r="H8" s="3" t="s">
         <v>15</v>
       </c>
@@ -11152,7 +11277,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11278,7 +11403,7 @@
   <dimension ref="D5:G22"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11466,7 +11591,7 @@
       <c r="G17" s="16"/>
     </row>
     <row r="20" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D20" s="78" t="s">
+      <c r="D20" s="77" t="s">
         <v>237</v>
       </c>
       <c r="E20" s="34" t="s">
@@ -11474,13 +11599,13 @@
       </c>
     </row>
     <row r="21" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D21" s="79"/>
+      <c r="D21" s="78"/>
       <c r="E21" s="34" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="22" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D22" s="80"/>
+      <c r="D22" s="79"/>
       <c r="E22" s="16" t="s">
         <v>240</v>
       </c>
@@ -11501,8 +11626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G66"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E13"/>
+    <sheetView topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11545,7 +11670,7 @@
       <c r="B4" s="37">
         <v>1</v>
       </c>
-      <c r="C4" s="81" t="s">
+      <c r="C4" s="80" t="s">
         <v>261</v>
       </c>
       <c r="D4" s="16" t="s">
@@ -11563,7 +11688,7 @@
       <c r="B5" s="37">
         <v>2</v>
       </c>
-      <c r="C5" s="82"/>
+      <c r="C5" s="81"/>
       <c r="D5" s="16" t="s">
         <v>257</v>
       </c>
@@ -11577,7 +11702,7 @@
       <c r="B6" s="37">
         <v>3</v>
       </c>
-      <c r="C6" s="82"/>
+      <c r="C6" s="81"/>
       <c r="D6" s="16" t="s">
         <v>263</v>
       </c>
@@ -11595,7 +11720,7 @@
       <c r="B7" s="37">
         <v>4</v>
       </c>
-      <c r="C7" s="83"/>
+      <c r="C7" s="82"/>
       <c r="D7" s="16" t="s">
         <v>265</v>
       </c>
@@ -11608,10 +11733,10 @@
       <c r="G7" s="16"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="81">
+      <c r="B8" s="80">
         <v>5</v>
       </c>
-      <c r="C8" s="81" t="s">
+      <c r="C8" s="80" t="s">
         <v>262</v>
       </c>
       <c r="D8" s="16" t="s">
@@ -11622,8 +11747,8 @@
       <c r="G8" s="16"/>
     </row>
     <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
       <c r="D9" s="16" t="s">
         <v>269</v>
       </c>
@@ -11636,32 +11761,32 @@
       <c r="G9" s="16"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="82"/>
-      <c r="C10" s="82"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
     <row r="11" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="82"/>
-      <c r="C11" s="82"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
     </row>
     <row r="12" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="82"/>
-      <c r="C12" s="82"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
     </row>
     <row r="13" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="83"/>
-      <c r="C13" s="83"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="82"/>
       <c r="D13" s="16" t="s">
         <v>283</v>
       </c>
@@ -11674,10 +11799,10 @@
       <c r="G13" s="16"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="81">
+      <c r="B14" s="80">
         <v>6</v>
       </c>
-      <c r="C14" s="81" t="s">
+      <c r="C14" s="80" t="s">
         <v>274</v>
       </c>
       <c r="D14" s="16" t="s">
@@ -11692,8 +11817,8 @@
       <c r="G14" s="16"/>
     </row>
     <row r="15" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="82"/>
-      <c r="C15" s="82"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="81"/>
       <c r="D15" s="16" t="s">
         <v>300</v>
       </c>
@@ -11704,26 +11829,26 @@
       </c>
     </row>
     <row r="16" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="82"/>
-      <c r="C16" s="82"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="81"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="83"/>
-      <c r="C17" s="83"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="82"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="34"/>
       <c r="G17" s="16"/>
     </row>
     <row r="18" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="81">
+      <c r="B18" s="80">
         <v>7</v>
       </c>
-      <c r="C18" s="81" t="s">
+      <c r="C18" s="80" t="s">
         <v>276</v>
       </c>
       <c r="D18" s="34"/>
@@ -11734,18 +11859,18 @@
       <c r="G18" s="16"/>
     </row>
     <row r="19" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="83"/>
-      <c r="C19" s="83"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="82"/>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
       <c r="F19" s="34"/>
       <c r="G19" s="16"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="81">
+      <c r="B20" s="80">
         <v>8</v>
       </c>
-      <c r="C20" s="81" t="s">
+      <c r="C20" s="80" t="s">
         <v>280</v>
       </c>
       <c r="D20" s="16" t="s">
@@ -11760,34 +11885,34 @@
       <c r="G20" s="16"/>
     </row>
     <row r="21" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="82"/>
-      <c r="C21" s="82"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="81"/>
       <c r="D21" s="34"/>
       <c r="E21" s="16"/>
       <c r="F21" s="34"/>
       <c r="G21" s="16"/>
     </row>
     <row r="22" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="82"/>
-      <c r="C22" s="82"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="81"/>
       <c r="D22" s="34"/>
       <c r="E22" s="16"/>
       <c r="F22" s="34"/>
       <c r="G22" s="16"/>
     </row>
     <row r="23" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="83"/>
-      <c r="C23" s="83"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="82"/>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
       <c r="F23" s="34"/>
       <c r="G23" s="16"/>
     </row>
     <row r="24" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="81">
+      <c r="B24" s="80">
         <v>9</v>
       </c>
-      <c r="C24" s="81" t="s">
+      <c r="C24" s="80" t="s">
         <v>294</v>
       </c>
       <c r="D24" s="16" t="s">
@@ -11802,18 +11927,18 @@
       <c r="G24" s="16"/>
     </row>
     <row r="25" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="83"/>
-      <c r="C25" s="83"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="82"/>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
       <c r="F25" s="34"/>
       <c r="G25" s="16"/>
     </row>
     <row r="26" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="81">
+      <c r="B26" s="80">
         <v>10</v>
       </c>
-      <c r="C26" s="81" t="s">
+      <c r="C26" s="80" t="s">
         <v>298</v>
       </c>
       <c r="D26" s="34"/>
@@ -11822,34 +11947,34 @@
       <c r="G26" s="16"/>
     </row>
     <row r="27" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="82"/>
-      <c r="C27" s="82"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="81"/>
       <c r="D27" s="34"/>
       <c r="E27" s="16"/>
       <c r="F27" s="34"/>
       <c r="G27" s="16"/>
     </row>
     <row r="28" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="82"/>
-      <c r="C28" s="82"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="81"/>
       <c r="D28" s="34"/>
       <c r="E28" s="16"/>
       <c r="F28" s="34"/>
       <c r="G28" s="16"/>
     </row>
     <row r="29" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="83"/>
-      <c r="C29" s="83"/>
+      <c r="B29" s="82"/>
+      <c r="C29" s="82"/>
       <c r="D29" s="34"/>
       <c r="E29" s="16"/>
       <c r="F29" s="34"/>
       <c r="G29" s="16"/>
     </row>
     <row r="30" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="81">
+      <c r="B30" s="80">
         <v>11</v>
       </c>
-      <c r="C30" s="81" t="s">
+      <c r="C30" s="80" t="s">
         <v>301</v>
       </c>
       <c r="D30" s="16" t="s">
@@ -11862,8 +11987,8 @@
       <c r="G30" s="16"/>
     </row>
     <row r="31" spans="2:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B31" s="82"/>
-      <c r="C31" s="82"/>
+      <c r="B31" s="81"/>
+      <c r="C31" s="81"/>
       <c r="D31" s="16" t="s">
         <v>310</v>
       </c>
@@ -11876,40 +12001,40 @@
       <c r="G31" s="16"/>
     </row>
     <row r="32" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="82"/>
-      <c r="C32" s="82"/>
+      <c r="B32" s="81"/>
+      <c r="C32" s="81"/>
       <c r="D32" s="34"/>
       <c r="E32" s="16"/>
       <c r="F32" s="34"/>
       <c r="G32" s="16"/>
     </row>
     <row r="33" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="82"/>
-      <c r="C33" s="82"/>
+      <c r="B33" s="81"/>
+      <c r="C33" s="81"/>
       <c r="D33" s="34"/>
       <c r="E33" s="16"/>
       <c r="F33" s="34"/>
       <c r="G33" s="16"/>
     </row>
     <row r="34" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="82"/>
-      <c r="C34" s="82"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="81"/>
       <c r="D34" s="34"/>
       <c r="E34" s="16"/>
       <c r="F34" s="34"/>
       <c r="G34" s="16"/>
     </row>
     <row r="35" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="82"/>
-      <c r="C35" s="82"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="81"/>
       <c r="D35" s="34"/>
       <c r="E35" s="16"/>
       <c r="F35" s="34"/>
       <c r="G35" s="16"/>
     </row>
     <row r="36" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="83"/>
-      <c r="C36" s="83"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="82"/>
       <c r="D36" s="34"/>
       <c r="E36" s="16"/>
       <c r="F36" s="34" t="s">
@@ -12181,7 +12306,7 @@
       </c>
       <c r="C64" s="16"/>
       <c r="D64" s="16"/>
-      <c r="E64" s="16"/>
+      <c r="E64" s="34"/>
       <c r="F64" s="16"/>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">

--- a/Docs/Design_Arch/BL_SW_FLATFORM.xlsx
+++ b/Docs/Design_Arch/BL_SW_FLATFORM.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="330">
   <si>
     <t>STT</t>
   </si>
@@ -1011,6 +1011,21 @@
   </si>
   <si>
     <t>What are PID Controller 0, 1, 2, 3, 4 and 5 in CleanFlight?</t>
+  </si>
+  <si>
+    <t>Dshot Setup, DSHOT Vs Multishot Comparison, Looptime CycleTime</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VmOsOHduKt8</t>
+  </si>
+  <si>
+    <t>Pin Lipo</t>
+  </si>
+  <si>
+    <t>https://www.rcgroups.com/forums/member.php</t>
+  </si>
+  <si>
+    <t>Tips for using a quadcopter lipo battery</t>
   </si>
 </sst>
 </file>
@@ -1335,27 +1350,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1431,6 +1426,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1455,7 +1471,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7540,17 +7555,17 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C49:F67"/>
+  <dimension ref="C49:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J69" sqref="J69"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="7.140625" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="51.5703125" customWidth="1"/>
+    <col min="5" max="5" width="66.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="49.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7572,13 +7587,13 @@
       </c>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C52" s="80">
+      <c r="C52" s="81">
         <v>1</v>
       </c>
-      <c r="D52" s="80" t="s">
+      <c r="D52" s="81" t="s">
         <v>312</v>
       </c>
-      <c r="E52" s="83" t="s">
+      <c r="E52" s="43" t="s">
         <v>316</v>
       </c>
       <c r="F52" s="2" t="s">
@@ -7586,28 +7601,32 @@
       </c>
     </row>
     <row r="53" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C53" s="81"/>
-      <c r="D53" s="81"/>
-      <c r="E53" s="83"/>
-      <c r="F53" s="16"/>
+      <c r="C53" s="82"/>
+      <c r="D53" s="82"/>
+      <c r="E53" s="43" t="s">
+        <v>325</v>
+      </c>
+      <c r="F53" s="34" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="54" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C54" s="81"/>
-      <c r="D54" s="81"/>
-      <c r="E54" s="83"/>
+      <c r="C54" s="82"/>
+      <c r="D54" s="82"/>
+      <c r="E54" s="43"/>
       <c r="F54" s="16"/>
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C55" s="82"/>
-      <c r="D55" s="82"/>
-      <c r="E55" s="83"/>
+      <c r="C55" s="83"/>
+      <c r="D55" s="83"/>
+      <c r="E55" s="43"/>
       <c r="F55" s="16"/>
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C56" s="80">
+      <c r="C56" s="81">
         <v>2</v>
       </c>
-      <c r="D56" s="80" t="s">
+      <c r="D56" s="81" t="s">
         <v>318</v>
       </c>
       <c r="E56" s="16" t="s">
@@ -7618,8 +7637,8 @@
       </c>
     </row>
     <row r="57" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C57" s="81"/>
-      <c r="D57" s="81"/>
+      <c r="C57" s="82"/>
+      <c r="D57" s="82"/>
       <c r="E57" s="16" t="s">
         <v>324</v>
       </c>
@@ -7628,34 +7647,34 @@
       </c>
     </row>
     <row r="58" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C58" s="81"/>
-      <c r="D58" s="81"/>
+      <c r="C58" s="82"/>
+      <c r="D58" s="82"/>
       <c r="E58" s="16"/>
       <c r="F58" s="16"/>
     </row>
     <row r="59" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C59" s="81"/>
-      <c r="D59" s="81"/>
+      <c r="C59" s="82"/>
+      <c r="D59" s="82"/>
       <c r="E59" s="16"/>
       <c r="F59" s="16"/>
     </row>
     <row r="60" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C60" s="81"/>
-      <c r="D60" s="81"/>
+      <c r="C60" s="82"/>
+      <c r="D60" s="82"/>
       <c r="E60" s="16"/>
       <c r="F60" s="16"/>
     </row>
     <row r="61" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C61" s="82"/>
-      <c r="D61" s="82"/>
+      <c r="C61" s="83"/>
+      <c r="D61" s="83"/>
       <c r="E61" s="16"/>
       <c r="F61" s="16"/>
     </row>
     <row r="62" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C62" s="80">
+      <c r="C62" s="81">
         <v>3</v>
       </c>
-      <c r="D62" s="80" t="s">
+      <c r="D62" s="81" t="s">
         <v>321</v>
       </c>
       <c r="E62" s="16" t="s">
@@ -7666,37 +7685,83 @@
       </c>
     </row>
     <row r="63" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C63" s="81"/>
-      <c r="D63" s="81"/>
+      <c r="C63" s="82"/>
+      <c r="D63" s="82"/>
       <c r="E63" s="16"/>
       <c r="F63" s="6"/>
     </row>
     <row r="64" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C64" s="81"/>
-      <c r="D64" s="81"/>
+      <c r="C64" s="82"/>
+      <c r="D64" s="82"/>
       <c r="E64" s="16"/>
       <c r="F64" s="16"/>
     </row>
     <row r="65" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C65" s="81"/>
-      <c r="D65" s="81"/>
+      <c r="C65" s="82"/>
+      <c r="D65" s="82"/>
       <c r="E65" s="16"/>
       <c r="F65" s="16"/>
     </row>
     <row r="66" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C66" s="81"/>
-      <c r="D66" s="81"/>
+      <c r="C66" s="82"/>
+      <c r="D66" s="82"/>
       <c r="E66" s="16"/>
       <c r="F66" s="16"/>
     </row>
     <row r="67" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C67" s="82"/>
-      <c r="D67" s="82"/>
+      <c r="C67" s="83"/>
+      <c r="D67" s="83"/>
       <c r="E67" s="16"/>
       <c r="F67" s="16"/>
     </row>
+    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C68" s="81">
+        <v>4</v>
+      </c>
+      <c r="D68" s="81" t="s">
+        <v>327</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="F68" s="34" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C69" s="82"/>
+      <c r="D69" s="82"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+    </row>
+    <row r="70" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C70" s="82"/>
+      <c r="D70" s="82"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+    </row>
+    <row r="71" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C71" s="82"/>
+      <c r="D71" s="82"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+    </row>
+    <row r="72" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C72" s="82"/>
+      <c r="D72" s="82"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+    </row>
+    <row r="73" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C73" s="83"/>
+      <c r="D73" s="83"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="D68:D73"/>
+    <mergeCell ref="C68:C73"/>
     <mergeCell ref="D52:D55"/>
     <mergeCell ref="C56:C61"/>
     <mergeCell ref="D56:D61"/>
@@ -7709,10 +7774,12 @@
     <hyperlink ref="F56" r:id="rId2"/>
     <hyperlink ref="F62" r:id="rId3"/>
     <hyperlink ref="F57" r:id="rId4"/>
+    <hyperlink ref="F53" r:id="rId5"/>
+    <hyperlink ref="F68" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
-  <drawing r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
+  <drawing r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -7787,18 +7854,18 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E5" s="62" t="s">
+      <c r="E5" s="56" t="s">
         <v>177</v>
       </c>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
       <c r="I5" s="22"/>
-      <c r="J5" s="50" t="s">
+      <c r="J5" s="44" t="s">
         <v>178</v>
       </c>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E6" s="21" t="s">
@@ -7815,15 +7882,15 @@
       <c r="L6" s="21"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E7" s="60" t="s">
+      <c r="E7" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="F7" s="51" t="s">
+      <c r="F7" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="53"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="47"/>
       <c r="J7" s="16" t="s">
         <v>179</v>
       </c>
@@ -7835,35 +7902,35 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E8" s="65"/>
-      <c r="F8" s="66" t="s">
+      <c r="E8" s="59"/>
+      <c r="F8" s="60" t="s">
         <v>160</v>
       </c>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="64" t="s">
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="58" t="s">
         <v>180</v>
       </c>
-      <c r="K8" s="64" t="s">
+      <c r="K8" s="58" t="s">
         <v>183</v>
       </c>
-      <c r="L8" s="64" t="s">
+      <c r="L8" s="58" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E9" s="61"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E10" s="60" t="s">
+      <c r="E10" s="54" t="s">
         <v>169</v>
       </c>
       <c r="F10" s="19" t="s">
@@ -7887,7 +7954,7 @@
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E11" s="65"/>
+      <c r="E11" s="59"/>
       <c r="F11" s="18" t="s">
         <v>161</v>
       </c>
@@ -7909,7 +7976,7 @@
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E12" s="61"/>
+      <c r="E12" s="55"/>
       <c r="F12" s="18" t="s">
         <v>165</v>
       </c>
@@ -7931,47 +7998,47 @@
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E13" s="60" t="s">
+      <c r="E13" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="F13" s="72" t="s">
+      <c r="F13" s="66" t="s">
         <v>159</v>
       </c>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="51" t="s">
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="K13" s="52"/>
-      <c r="L13" s="53"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="47"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E14" s="65"/>
-      <c r="F14" s="66" t="s">
+      <c r="E14" s="59"/>
+      <c r="F14" s="60" t="s">
         <v>166</v>
       </c>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="54" t="s">
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="K14" s="55"/>
-      <c r="L14" s="56"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="50"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E15" s="61"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="59"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="53"/>
     </row>
     <row r="16" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="E16" s="60" t="s">
+      <c r="E16" s="54" t="s">
         <v>171</v>
       </c>
       <c r="F16" s="16" t="s">
@@ -7997,7 +8064,7 @@
       </c>
     </row>
     <row r="17" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E17" s="61"/>
+      <c r="E17" s="55"/>
       <c r="F17" s="16" t="s">
         <v>207</v>
       </c>
@@ -8021,7 +8088,7 @@
       </c>
     </row>
     <row r="18" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E18" s="48" t="s">
+      <c r="E18" s="74" t="s">
         <v>173</v>
       </c>
       <c r="F18" s="16" t="s">
@@ -8030,10 +8097,10 @@
       <c r="G18" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="H18" s="43" t="s">
+      <c r="H18" s="69" t="s">
         <v>176</v>
       </c>
-      <c r="I18" s="44"/>
+      <c r="I18" s="70"/>
       <c r="J18" s="16" t="s">
         <v>179</v>
       </c>
@@ -8045,17 +8112,17 @@
       </c>
     </row>
     <row r="19" spans="5:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="E19" s="49"/>
+      <c r="E19" s="75"/>
       <c r="F19" s="16" t="s">
         <v>174</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="H19" s="45" t="s">
+      <c r="H19" s="71" t="s">
         <v>214</v>
       </c>
-      <c r="I19" s="44"/>
+      <c r="I19" s="70"/>
       <c r="J19" s="16" t="s">
         <v>195</v>
       </c>
@@ -8067,7 +8134,7 @@
       </c>
     </row>
     <row r="20" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E20" s="48" t="s">
+      <c r="E20" s="74" t="s">
         <v>199</v>
       </c>
       <c r="F20" s="16" t="s">
@@ -8076,10 +8143,10 @@
       <c r="G20" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="H20" s="43" t="s">
+      <c r="H20" s="69" t="s">
         <v>201</v>
       </c>
-      <c r="I20" s="44"/>
+      <c r="I20" s="70"/>
       <c r="J20" s="16" t="s">
         <v>179</v>
       </c>
@@ -8091,15 +8158,15 @@
       </c>
     </row>
     <row r="21" spans="5:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="49"/>
+      <c r="E21" s="75"/>
       <c r="F21" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="G21" s="45" t="s">
+      <c r="G21" s="71" t="s">
         <v>203</v>
       </c>
-      <c r="H21" s="46"/>
-      <c r="I21" s="47"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="73"/>
       <c r="J21" s="16" t="s">
         <v>204</v>
       </c>
@@ -8108,6 +8175,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="J13:L13"/>
     <mergeCell ref="J14:L15"/>
@@ -8123,12 +8196,6 @@
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="F14:I15"/>
     <mergeCell ref="L8:L9"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E20:E21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8152,7 +8219,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G2" s="75" t="s">
+      <c r="G2" s="76" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="3" t="s">
@@ -8160,37 +8227,37 @@
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G3" s="76"/>
+      <c r="G3" s="77"/>
       <c r="H3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G4" s="76"/>
+      <c r="G4" s="77"/>
       <c r="H4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G5" s="76"/>
+      <c r="G5" s="77"/>
       <c r="H5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G6" s="76"/>
+      <c r="G6" s="77"/>
       <c r="H6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G7" s="76"/>
+      <c r="G7" s="77"/>
       <c r="H7" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G8" s="76"/>
+      <c r="G8" s="77"/>
       <c r="H8" s="3" t="s">
         <v>15</v>
       </c>
@@ -11591,7 +11658,7 @@
       <c r="G17" s="16"/>
     </row>
     <row r="20" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D20" s="77" t="s">
+      <c r="D20" s="78" t="s">
         <v>237</v>
       </c>
       <c r="E20" s="34" t="s">
@@ -11599,13 +11666,13 @@
       </c>
     </row>
     <row r="21" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D21" s="78"/>
+      <c r="D21" s="79"/>
       <c r="E21" s="34" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="22" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D22" s="79"/>
+      <c r="D22" s="80"/>
       <c r="E22" s="16" t="s">
         <v>240</v>
       </c>
@@ -11626,8 +11693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G66"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11670,7 +11737,7 @@
       <c r="B4" s="37">
         <v>1</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="81" t="s">
         <v>261</v>
       </c>
       <c r="D4" s="16" t="s">
@@ -11688,7 +11755,7 @@
       <c r="B5" s="37">
         <v>2</v>
       </c>
-      <c r="C5" s="81"/>
+      <c r="C5" s="82"/>
       <c r="D5" s="16" t="s">
         <v>257</v>
       </c>
@@ -11702,7 +11769,7 @@
       <c r="B6" s="37">
         <v>3</v>
       </c>
-      <c r="C6" s="81"/>
+      <c r="C6" s="82"/>
       <c r="D6" s="16" t="s">
         <v>263</v>
       </c>
@@ -11720,7 +11787,7 @@
       <c r="B7" s="37">
         <v>4</v>
       </c>
-      <c r="C7" s="82"/>
+      <c r="C7" s="83"/>
       <c r="D7" s="16" t="s">
         <v>265</v>
       </c>
@@ -11733,10 +11800,10 @@
       <c r="G7" s="16"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="80">
+      <c r="B8" s="81">
         <v>5</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="81" t="s">
         <v>262</v>
       </c>
       <c r="D8" s="16" t="s">
@@ -11747,8 +11814,8 @@
       <c r="G8" s="16"/>
     </row>
     <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="81"/>
-      <c r="C9" s="81"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
       <c r="D9" s="16" t="s">
         <v>269</v>
       </c>
@@ -11761,32 +11828,32 @@
       <c r="G9" s="16"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="82"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
     <row r="11" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
     </row>
     <row r="12" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="82"/>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
     </row>
     <row r="13" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="82"/>
-      <c r="C13" s="82"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="83"/>
       <c r="D13" s="16" t="s">
         <v>283</v>
       </c>
@@ -11799,10 +11866,10 @@
       <c r="G13" s="16"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="80">
+      <c r="B14" s="81">
         <v>6</v>
       </c>
-      <c r="C14" s="80" t="s">
+      <c r="C14" s="81" t="s">
         <v>274</v>
       </c>
       <c r="D14" s="16" t="s">
@@ -11817,8 +11884,8 @@
       <c r="G14" s="16"/>
     </row>
     <row r="15" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="81"/>
-      <c r="C15" s="81"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="82"/>
       <c r="D15" s="16" t="s">
         <v>300</v>
       </c>
@@ -11829,26 +11896,26 @@
       </c>
     </row>
     <row r="16" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="82"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="82"/>
-      <c r="C17" s="82"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="83"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="34"/>
       <c r="G17" s="16"/>
     </row>
     <row r="18" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="80">
+      <c r="B18" s="81">
         <v>7</v>
       </c>
-      <c r="C18" s="80" t="s">
+      <c r="C18" s="81" t="s">
         <v>276</v>
       </c>
       <c r="D18" s="34"/>
@@ -11859,18 +11926,18 @@
       <c r="G18" s="16"/>
     </row>
     <row r="19" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="82"/>
-      <c r="C19" s="82"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="83"/>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
       <c r="F19" s="34"/>
       <c r="G19" s="16"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="80">
+      <c r="B20" s="81">
         <v>8</v>
       </c>
-      <c r="C20" s="80" t="s">
+      <c r="C20" s="81" t="s">
         <v>280</v>
       </c>
       <c r="D20" s="16" t="s">
@@ -11885,34 +11952,34 @@
       <c r="G20" s="16"/>
     </row>
     <row r="21" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="81"/>
-      <c r="C21" s="81"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="82"/>
       <c r="D21" s="34"/>
       <c r="E21" s="16"/>
       <c r="F21" s="34"/>
       <c r="G21" s="16"/>
     </row>
     <row r="22" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="81"/>
-      <c r="C22" s="81"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="82"/>
       <c r="D22" s="34"/>
       <c r="E22" s="16"/>
       <c r="F22" s="34"/>
       <c r="G22" s="16"/>
     </row>
     <row r="23" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="82"/>
-      <c r="C23" s="82"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="83"/>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
       <c r="F23" s="34"/>
       <c r="G23" s="16"/>
     </row>
     <row r="24" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="80">
+      <c r="B24" s="81">
         <v>9</v>
       </c>
-      <c r="C24" s="80" t="s">
+      <c r="C24" s="81" t="s">
         <v>294</v>
       </c>
       <c r="D24" s="16" t="s">
@@ -11927,18 +11994,18 @@
       <c r="G24" s="16"/>
     </row>
     <row r="25" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="82"/>
-      <c r="C25" s="82"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="83"/>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
       <c r="F25" s="34"/>
       <c r="G25" s="16"/>
     </row>
     <row r="26" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="80">
+      <c r="B26" s="81">
         <v>10</v>
       </c>
-      <c r="C26" s="80" t="s">
+      <c r="C26" s="81" t="s">
         <v>298</v>
       </c>
       <c r="D26" s="34"/>
@@ -11947,34 +12014,34 @@
       <c r="G26" s="16"/>
     </row>
     <row r="27" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="81"/>
-      <c r="C27" s="81"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="82"/>
       <c r="D27" s="34"/>
       <c r="E27" s="16"/>
       <c r="F27" s="34"/>
       <c r="G27" s="16"/>
     </row>
     <row r="28" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="81"/>
-      <c r="C28" s="81"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="82"/>
       <c r="D28" s="34"/>
       <c r="E28" s="16"/>
       <c r="F28" s="34"/>
       <c r="G28" s="16"/>
     </row>
     <row r="29" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="82"/>
-      <c r="C29" s="82"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="83"/>
       <c r="D29" s="34"/>
       <c r="E29" s="16"/>
       <c r="F29" s="34"/>
       <c r="G29" s="16"/>
     </row>
     <row r="30" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="80">
+      <c r="B30" s="81">
         <v>11</v>
       </c>
-      <c r="C30" s="80" t="s">
+      <c r="C30" s="81" t="s">
         <v>301</v>
       </c>
       <c r="D30" s="16" t="s">
@@ -11987,8 +12054,8 @@
       <c r="G30" s="16"/>
     </row>
     <row r="31" spans="2:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B31" s="81"/>
-      <c r="C31" s="81"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="82"/>
       <c r="D31" s="16" t="s">
         <v>310</v>
       </c>
@@ -12001,40 +12068,40 @@
       <c r="G31" s="16"/>
     </row>
     <row r="32" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="81"/>
-      <c r="C32" s="81"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="82"/>
       <c r="D32" s="34"/>
       <c r="E32" s="16"/>
       <c r="F32" s="34"/>
       <c r="G32" s="16"/>
     </row>
     <row r="33" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="81"/>
-      <c r="C33" s="81"/>
+      <c r="B33" s="82"/>
+      <c r="C33" s="82"/>
       <c r="D33" s="34"/>
       <c r="E33" s="16"/>
       <c r="F33" s="34"/>
       <c r="G33" s="16"/>
     </row>
     <row r="34" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="81"/>
-      <c r="C34" s="81"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="82"/>
       <c r="D34" s="34"/>
       <c r="E34" s="16"/>
       <c r="F34" s="34"/>
       <c r="G34" s="16"/>
     </row>
     <row r="35" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="81"/>
-      <c r="C35" s="81"/>
+      <c r="B35" s="82"/>
+      <c r="C35" s="82"/>
       <c r="D35" s="34"/>
       <c r="E35" s="16"/>
       <c r="F35" s="34"/>
       <c r="G35" s="16"/>
     </row>
     <row r="36" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="82"/>
-      <c r="C36" s="82"/>
+      <c r="B36" s="83"/>
+      <c r="C36" s="83"/>
       <c r="D36" s="34"/>
       <c r="E36" s="16"/>
       <c r="F36" s="34" t="s">
@@ -12329,6 +12396,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="B14:B17"/>
     <mergeCell ref="C26:C29"/>
     <mergeCell ref="C30:C36"/>
     <mergeCell ref="B26:B29"/>
@@ -12337,13 +12411,6 @@
     <mergeCell ref="B20:B23"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="B14:B17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E58" r:id="rId1"/>

--- a/Docs/Design_Arch/BL_SW_FLATFORM.xlsx
+++ b/Docs/Design_Arch/BL_SW_FLATFORM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="630" windowWidth="19875" windowHeight="7155" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="360" yWindow="630" windowWidth="19875" windowHeight="7155" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="RawIdeaAnalysis" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="MCR_Build" sheetId="9" r:id="rId8"/>
     <sheet name="Drone_Build" sheetId="10" r:id="rId9"/>
     <sheet name="CleanFlight" sheetId="11" r:id="rId10"/>
+    <sheet name="Process" sheetId="12" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Requirement!$C$2:$C$385</definedName>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="333">
   <si>
     <t>STT</t>
   </si>
@@ -1026,6 +1027,15 @@
   </si>
   <si>
     <t>Tips for using a quadcopter lipo battery</t>
+  </si>
+  <si>
+    <t>https://github.com/chibinh8/cleanflight/blob/master/docs/development/Development.md</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Development in cleanflight project</t>
   </si>
 </sst>
 </file>
@@ -1072,7 +1082,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1112,6 +1122,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1280,7 +1296,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -1351,6 +1367,27 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1426,27 +1463,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1471,6 +1487,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7557,8 +7574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C49:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7780,6 +7797,154 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>
   <drawing r:id="rId8"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="85.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="84" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="16">
+        <v>1</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="16">
+        <v>2</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="16">
+        <v>3</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="16">
+        <v>4</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="16">
+        <v>5</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="16">
+        <v>6</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="16">
+        <v>7</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="16">
+        <v>8</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="16">
+        <v>9</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="16">
+        <v>10</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="16">
+        <v>11</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="16">
+        <v>12</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="16">
+        <v>13</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="16">
+        <v>14</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="16">
+        <v>15</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -7854,18 +8019,18 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="63" t="s">
         <v>177</v>
       </c>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
       <c r="I5" s="22"/>
-      <c r="J5" s="44" t="s">
+      <c r="J5" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E6" s="21" t="s">
@@ -7882,15 +8047,15 @@
       <c r="L6" s="21"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="61" t="s">
         <v>168</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="47"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="54"/>
       <c r="J7" s="16" t="s">
         <v>179</v>
       </c>
@@ -7902,35 +8067,35 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E8" s="59"/>
-      <c r="F8" s="60" t="s">
+      <c r="E8" s="66"/>
+      <c r="F8" s="67" t="s">
         <v>160</v>
       </c>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="58" t="s">
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="65" t="s">
         <v>180</v>
       </c>
-      <c r="K8" s="58" t="s">
+      <c r="K8" s="65" t="s">
         <v>183</v>
       </c>
-      <c r="L8" s="58" t="s">
+      <c r="L8" s="65" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E9" s="55"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E10" s="54" t="s">
+      <c r="E10" s="61" t="s">
         <v>169</v>
       </c>
       <c r="F10" s="19" t="s">
@@ -7954,7 +8119,7 @@
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E11" s="59"/>
+      <c r="E11" s="66"/>
       <c r="F11" s="18" t="s">
         <v>161</v>
       </c>
@@ -7976,7 +8141,7 @@
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E12" s="55"/>
+      <c r="E12" s="62"/>
       <c r="F12" s="18" t="s">
         <v>165</v>
       </c>
@@ -7998,47 +8163,47 @@
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E13" s="54" t="s">
+      <c r="E13" s="61" t="s">
         <v>170</v>
       </c>
-      <c r="F13" s="66" t="s">
+      <c r="F13" s="73" t="s">
         <v>159</v>
       </c>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="45" t="s">
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="52" t="s">
         <v>188</v>
       </c>
-      <c r="K13" s="46"/>
-      <c r="L13" s="47"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="54"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E14" s="59"/>
-      <c r="F14" s="60" t="s">
+      <c r="E14" s="66"/>
+      <c r="F14" s="67" t="s">
         <v>166</v>
       </c>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="48" t="s">
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="55" t="s">
         <v>189</v>
       </c>
-      <c r="K14" s="49"/>
-      <c r="L14" s="50"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="57"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E15" s="55"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="53"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="60"/>
     </row>
     <row r="16" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="E16" s="54" t="s">
+      <c r="E16" s="61" t="s">
         <v>171</v>
       </c>
       <c r="F16" s="16" t="s">
@@ -8064,7 +8229,7 @@
       </c>
     </row>
     <row r="17" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E17" s="55"/>
+      <c r="E17" s="62"/>
       <c r="F17" s="16" t="s">
         <v>207</v>
       </c>
@@ -8088,7 +8253,7 @@
       </c>
     </row>
     <row r="18" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E18" s="74" t="s">
+      <c r="E18" s="49" t="s">
         <v>173</v>
       </c>
       <c r="F18" s="16" t="s">
@@ -8097,10 +8262,10 @@
       <c r="G18" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="H18" s="69" t="s">
+      <c r="H18" s="44" t="s">
         <v>176</v>
       </c>
-      <c r="I18" s="70"/>
+      <c r="I18" s="45"/>
       <c r="J18" s="16" t="s">
         <v>179</v>
       </c>
@@ -8112,17 +8277,17 @@
       </c>
     </row>
     <row r="19" spans="5:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="E19" s="75"/>
+      <c r="E19" s="50"/>
       <c r="F19" s="16" t="s">
         <v>174</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="H19" s="71" t="s">
+      <c r="H19" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="I19" s="70"/>
+      <c r="I19" s="45"/>
       <c r="J19" s="16" t="s">
         <v>195</v>
       </c>
@@ -8134,7 +8299,7 @@
       </c>
     </row>
     <row r="20" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E20" s="74" t="s">
+      <c r="E20" s="49" t="s">
         <v>199</v>
       </c>
       <c r="F20" s="16" t="s">
@@ -8143,10 +8308,10 @@
       <c r="G20" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="H20" s="69" t="s">
+      <c r="H20" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="I20" s="70"/>
+      <c r="I20" s="45"/>
       <c r="J20" s="16" t="s">
         <v>179</v>
       </c>
@@ -8158,15 +8323,15 @@
       </c>
     </row>
     <row r="21" spans="5:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="75"/>
+      <c r="E21" s="50"/>
       <c r="F21" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="G21" s="71" t="s">
+      <c r="G21" s="46" t="s">
         <v>203</v>
       </c>
-      <c r="H21" s="72"/>
-      <c r="I21" s="73"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="48"/>
       <c r="J21" s="16" t="s">
         <v>204</v>
       </c>
@@ -8175,12 +8340,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E20:E21"/>
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="J13:L13"/>
     <mergeCell ref="J14:L15"/>
@@ -8196,6 +8355,12 @@
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="F14:I15"/>
     <mergeCell ref="L8:L9"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12396,13 +12561,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="B14:B17"/>
     <mergeCell ref="C26:C29"/>
     <mergeCell ref="C30:C36"/>
     <mergeCell ref="B26:B29"/>
@@ -12411,6 +12569,13 @@
     <mergeCell ref="B20:B23"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="B14:B17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E58" r:id="rId1"/>

--- a/Docs/Design_Arch/BL_SW_FLATFORM.xlsx
+++ b/Docs/Design_Arch/BL_SW_FLATFORM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="630" windowWidth="19875" windowHeight="7155" firstSheet="3" activeTab="10"/>
+    <workbookView xWindow="360" yWindow="630" windowWidth="19875" windowHeight="7155" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="RawIdeaAnalysis" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="338">
   <si>
     <t>STT</t>
   </si>
@@ -1036,6 +1036,21 @@
   </si>
   <si>
     <t>Development in cleanflight project</t>
+  </si>
+  <si>
+    <t>http://quanphongrc.vn/ct/may-bay-dieu-khien/1485/3-blades-bullnose-propeller-ocday-5045-v2-4pcs-set.html</t>
+  </si>
+  <si>
+    <t>Cánh</t>
+  </si>
+  <si>
+    <t>http://quanphongrc.vn/ct/may-bay-dieu-khien/1716/kingkong-5045-5x4x3-3-blade-cw-ccw-4pcs-set.html</t>
+  </si>
+  <si>
+    <t>3 Blades Bullnose Propeller OCDAY 5045 V2 (4pcs/set)</t>
+  </si>
+  <si>
+    <t>Kingkong 5045 5x4X3 3-Blade CW CCW (4pcs/set)</t>
   </si>
 </sst>
 </file>
@@ -1367,27 +1382,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1463,6 +1458,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1487,7 +1503,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7574,8 +7589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C49:F73"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H66" sqref="H66"/>
+    <sheetView topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7604,10 +7619,10 @@
       </c>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C52" s="81">
+      <c r="C52" s="82">
         <v>1</v>
       </c>
-      <c r="D52" s="81" t="s">
+      <c r="D52" s="82" t="s">
         <v>312</v>
       </c>
       <c r="E52" s="43" t="s">
@@ -7618,8 +7633,8 @@
       </c>
     </row>
     <row r="53" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C53" s="82"/>
-      <c r="D53" s="82"/>
+      <c r="C53" s="83"/>
+      <c r="D53" s="83"/>
       <c r="E53" s="43" t="s">
         <v>325</v>
       </c>
@@ -7628,22 +7643,22 @@
       </c>
     </row>
     <row r="54" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C54" s="82"/>
-      <c r="D54" s="82"/>
+      <c r="C54" s="83"/>
+      <c r="D54" s="83"/>
       <c r="E54" s="43"/>
       <c r="F54" s="16"/>
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C55" s="83"/>
-      <c r="D55" s="83"/>
+      <c r="C55" s="84"/>
+      <c r="D55" s="84"/>
       <c r="E55" s="43"/>
       <c r="F55" s="16"/>
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C56" s="81">
+      <c r="C56" s="82">
         <v>2</v>
       </c>
-      <c r="D56" s="81" t="s">
+      <c r="D56" s="82" t="s">
         <v>318</v>
       </c>
       <c r="E56" s="16" t="s">
@@ -7654,8 +7669,8 @@
       </c>
     </row>
     <row r="57" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C57" s="82"/>
-      <c r="D57" s="82"/>
+      <c r="C57" s="83"/>
+      <c r="D57" s="83"/>
       <c r="E57" s="16" t="s">
         <v>324</v>
       </c>
@@ -7664,34 +7679,34 @@
       </c>
     </row>
     <row r="58" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C58" s="82"/>
-      <c r="D58" s="82"/>
+      <c r="C58" s="83"/>
+      <c r="D58" s="83"/>
       <c r="E58" s="16"/>
       <c r="F58" s="16"/>
     </row>
     <row r="59" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C59" s="82"/>
-      <c r="D59" s="82"/>
+      <c r="C59" s="83"/>
+      <c r="D59" s="83"/>
       <c r="E59" s="16"/>
       <c r="F59" s="16"/>
     </row>
     <row r="60" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C60" s="82"/>
-      <c r="D60" s="82"/>
+      <c r="C60" s="83"/>
+      <c r="D60" s="83"/>
       <c r="E60" s="16"/>
       <c r="F60" s="16"/>
     </row>
     <row r="61" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C61" s="83"/>
-      <c r="D61" s="83"/>
+      <c r="C61" s="84"/>
+      <c r="D61" s="84"/>
       <c r="E61" s="16"/>
       <c r="F61" s="16"/>
     </row>
     <row r="62" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C62" s="81">
+      <c r="C62" s="82">
         <v>3</v>
       </c>
-      <c r="D62" s="81" t="s">
+      <c r="D62" s="82" t="s">
         <v>321</v>
       </c>
       <c r="E62" s="16" t="s">
@@ -7702,40 +7717,40 @@
       </c>
     </row>
     <row r="63" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C63" s="82"/>
-      <c r="D63" s="82"/>
+      <c r="C63" s="83"/>
+      <c r="D63" s="83"/>
       <c r="E63" s="16"/>
       <c r="F63" s="6"/>
     </row>
     <row r="64" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C64" s="82"/>
-      <c r="D64" s="82"/>
+      <c r="C64" s="83"/>
+      <c r="D64" s="83"/>
       <c r="E64" s="16"/>
       <c r="F64" s="16"/>
     </row>
     <row r="65" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C65" s="82"/>
-      <c r="D65" s="82"/>
+      <c r="C65" s="83"/>
+      <c r="D65" s="83"/>
       <c r="E65" s="16"/>
       <c r="F65" s="16"/>
     </row>
     <row r="66" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C66" s="82"/>
-      <c r="D66" s="82"/>
+      <c r="C66" s="83"/>
+      <c r="D66" s="83"/>
       <c r="E66" s="16"/>
       <c r="F66" s="16"/>
     </row>
     <row r="67" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C67" s="83"/>
-      <c r="D67" s="83"/>
+      <c r="C67" s="84"/>
+      <c r="D67" s="84"/>
       <c r="E67" s="16"/>
       <c r="F67" s="16"/>
     </row>
     <row r="68" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C68" s="81">
+      <c r="C68" s="82">
         <v>4</v>
       </c>
-      <c r="D68" s="81" t="s">
+      <c r="D68" s="82" t="s">
         <v>327</v>
       </c>
       <c r="E68" s="16" t="s">
@@ -7746,32 +7761,32 @@
       </c>
     </row>
     <row r="69" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C69" s="82"/>
-      <c r="D69" s="82"/>
+      <c r="C69" s="83"/>
+      <c r="D69" s="83"/>
       <c r="E69" s="16"/>
       <c r="F69" s="16"/>
     </row>
     <row r="70" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C70" s="82"/>
-      <c r="D70" s="82"/>
+      <c r="C70" s="83"/>
+      <c r="D70" s="83"/>
       <c r="E70" s="16"/>
       <c r="F70" s="16"/>
     </row>
     <row r="71" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C71" s="82"/>
-      <c r="D71" s="82"/>
+      <c r="C71" s="83"/>
+      <c r="D71" s="83"/>
       <c r="E71" s="16"/>
       <c r="F71" s="16"/>
     </row>
     <row r="72" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C72" s="82"/>
-      <c r="D72" s="82"/>
+      <c r="C72" s="83"/>
+      <c r="D72" s="83"/>
       <c r="E72" s="16"/>
       <c r="F72" s="16"/>
     </row>
     <row r="73" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C73" s="83"/>
-      <c r="D73" s="83"/>
+      <c r="C73" s="84"/>
+      <c r="D73" s="84"/>
       <c r="E73" s="16"/>
       <c r="F73" s="16"/>
     </row>
@@ -7804,18 +7819,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="85.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="44" t="s">
         <v>246</v>
       </c>
     </row>
@@ -8019,18 +8035,18 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E5" s="63" t="s">
+      <c r="E5" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
       <c r="I5" s="22"/>
-      <c r="J5" s="51" t="s">
+      <c r="J5" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E6" s="21" t="s">
@@ -8047,15 +8063,15 @@
       <c r="L6" s="21"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E7" s="61" t="s">
+      <c r="E7" s="55" t="s">
         <v>168</v>
       </c>
-      <c r="F7" s="52" t="s">
+      <c r="F7" s="46" t="s">
         <v>155</v>
       </c>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="54"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="48"/>
       <c r="J7" s="16" t="s">
         <v>179</v>
       </c>
@@ -8067,35 +8083,35 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E8" s="66"/>
-      <c r="F8" s="67" t="s">
+      <c r="E8" s="60"/>
+      <c r="F8" s="61" t="s">
         <v>160</v>
       </c>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="65" t="s">
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="59" t="s">
         <v>180</v>
       </c>
-      <c r="K8" s="65" t="s">
+      <c r="K8" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="L8" s="65" t="s">
+      <c r="L8" s="59" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E9" s="62"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E10" s="61" t="s">
+      <c r="E10" s="55" t="s">
         <v>169</v>
       </c>
       <c r="F10" s="19" t="s">
@@ -8119,7 +8135,7 @@
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E11" s="66"/>
+      <c r="E11" s="60"/>
       <c r="F11" s="18" t="s">
         <v>161</v>
       </c>
@@ -8141,7 +8157,7 @@
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E12" s="62"/>
+      <c r="E12" s="56"/>
       <c r="F12" s="18" t="s">
         <v>165</v>
       </c>
@@ -8163,47 +8179,47 @@
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E13" s="61" t="s">
+      <c r="E13" s="55" t="s">
         <v>170</v>
       </c>
-      <c r="F13" s="73" t="s">
+      <c r="F13" s="67" t="s">
         <v>159</v>
       </c>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="52" t="s">
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="K13" s="53"/>
-      <c r="L13" s="54"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="48"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E14" s="66"/>
-      <c r="F14" s="67" t="s">
+      <c r="E14" s="60"/>
+      <c r="F14" s="61" t="s">
         <v>166</v>
       </c>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="55" t="s">
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="49" t="s">
         <v>189</v>
       </c>
-      <c r="K14" s="56"/>
-      <c r="L14" s="57"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="51"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E15" s="62"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="60"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="54"/>
     </row>
     <row r="16" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="E16" s="61" t="s">
+      <c r="E16" s="55" t="s">
         <v>171</v>
       </c>
       <c r="F16" s="16" t="s">
@@ -8229,7 +8245,7 @@
       </c>
     </row>
     <row r="17" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E17" s="62"/>
+      <c r="E17" s="56"/>
       <c r="F17" s="16" t="s">
         <v>207</v>
       </c>
@@ -8253,7 +8269,7 @@
       </c>
     </row>
     <row r="18" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E18" s="49" t="s">
+      <c r="E18" s="75" t="s">
         <v>173</v>
       </c>
       <c r="F18" s="16" t="s">
@@ -8262,10 +8278,10 @@
       <c r="G18" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="H18" s="44" t="s">
+      <c r="H18" s="70" t="s">
         <v>176</v>
       </c>
-      <c r="I18" s="45"/>
+      <c r="I18" s="71"/>
       <c r="J18" s="16" t="s">
         <v>179</v>
       </c>
@@ -8277,17 +8293,17 @@
       </c>
     </row>
     <row r="19" spans="5:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="E19" s="50"/>
+      <c r="E19" s="76"/>
       <c r="F19" s="16" t="s">
         <v>174</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="H19" s="46" t="s">
+      <c r="H19" s="72" t="s">
         <v>214</v>
       </c>
-      <c r="I19" s="45"/>
+      <c r="I19" s="71"/>
       <c r="J19" s="16" t="s">
         <v>195</v>
       </c>
@@ -8299,7 +8315,7 @@
       </c>
     </row>
     <row r="20" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E20" s="49" t="s">
+      <c r="E20" s="75" t="s">
         <v>199</v>
       </c>
       <c r="F20" s="16" t="s">
@@ -8308,10 +8324,10 @@
       <c r="G20" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="H20" s="44" t="s">
+      <c r="H20" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="I20" s="45"/>
+      <c r="I20" s="71"/>
       <c r="J20" s="16" t="s">
         <v>179</v>
       </c>
@@ -8323,15 +8339,15 @@
       </c>
     </row>
     <row r="21" spans="5:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="50"/>
+      <c r="E21" s="76"/>
       <c r="F21" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="G21" s="46" t="s">
+      <c r="G21" s="72" t="s">
         <v>203</v>
       </c>
-      <c r="H21" s="47"/>
-      <c r="I21" s="48"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="74"/>
       <c r="J21" s="16" t="s">
         <v>204</v>
       </c>
@@ -8340,6 +8356,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="J13:L13"/>
     <mergeCell ref="J14:L15"/>
@@ -8355,12 +8377,6 @@
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="F14:I15"/>
     <mergeCell ref="L8:L9"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E20:E21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8384,7 +8400,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G2" s="76" t="s">
+      <c r="G2" s="77" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="3" t="s">
@@ -8392,37 +8408,37 @@
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G3" s="77"/>
+      <c r="G3" s="78"/>
       <c r="H3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G4" s="77"/>
+      <c r="G4" s="78"/>
       <c r="H4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G5" s="77"/>
+      <c r="G5" s="78"/>
       <c r="H5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G6" s="77"/>
+      <c r="G6" s="78"/>
       <c r="H6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G7" s="77"/>
+      <c r="G7" s="78"/>
       <c r="H7" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G8" s="77"/>
+      <c r="G8" s="78"/>
       <c r="H8" s="3" t="s">
         <v>15</v>
       </c>
@@ -11508,8 +11524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11823,7 +11839,7 @@
       <c r="G17" s="16"/>
     </row>
     <row r="20" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D20" s="78" t="s">
+      <c r="D20" s="79" t="s">
         <v>237</v>
       </c>
       <c r="E20" s="34" t="s">
@@ -11831,13 +11847,13 @@
       </c>
     </row>
     <row r="21" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D21" s="79"/>
+      <c r="D21" s="80"/>
       <c r="E21" s="34" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="22" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D22" s="80"/>
+      <c r="D22" s="81"/>
       <c r="E22" s="16" t="s">
         <v>240</v>
       </c>
@@ -11858,8 +11874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G66"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11902,7 +11918,7 @@
       <c r="B4" s="37">
         <v>1</v>
       </c>
-      <c r="C4" s="81" t="s">
+      <c r="C4" s="82" t="s">
         <v>261</v>
       </c>
       <c r="D4" s="16" t="s">
@@ -11920,7 +11936,7 @@
       <c r="B5" s="37">
         <v>2</v>
       </c>
-      <c r="C5" s="82"/>
+      <c r="C5" s="83"/>
       <c r="D5" s="16" t="s">
         <v>257</v>
       </c>
@@ -11934,7 +11950,7 @@
       <c r="B6" s="37">
         <v>3</v>
       </c>
-      <c r="C6" s="82"/>
+      <c r="C6" s="83"/>
       <c r="D6" s="16" t="s">
         <v>263</v>
       </c>
@@ -11952,7 +11968,7 @@
       <c r="B7" s="37">
         <v>4</v>
       </c>
-      <c r="C7" s="83"/>
+      <c r="C7" s="84"/>
       <c r="D7" s="16" t="s">
         <v>265</v>
       </c>
@@ -11965,10 +11981,10 @@
       <c r="G7" s="16"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="81">
+      <c r="B8" s="82">
         <v>5</v>
       </c>
-      <c r="C8" s="81" t="s">
+      <c r="C8" s="82" t="s">
         <v>262</v>
       </c>
       <c r="D8" s="16" t="s">
@@ -11979,8 +11995,8 @@
       <c r="G8" s="16"/>
     </row>
     <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
       <c r="D9" s="16" t="s">
         <v>269</v>
       </c>
@@ -11993,32 +12009,32 @@
       <c r="G9" s="16"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="82"/>
-      <c r="C10" s="82"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
     <row r="11" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="82"/>
-      <c r="C11" s="82"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="83"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
     </row>
     <row r="12" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="82"/>
-      <c r="C12" s="82"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="83"/>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
     </row>
     <row r="13" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="83"/>
-      <c r="C13" s="83"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="84"/>
       <c r="D13" s="16" t="s">
         <v>283</v>
       </c>
@@ -12031,10 +12047,10 @@
       <c r="G13" s="16"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="81">
+      <c r="B14" s="82">
         <v>6</v>
       </c>
-      <c r="C14" s="81" t="s">
+      <c r="C14" s="82" t="s">
         <v>274</v>
       </c>
       <c r="D14" s="16" t="s">
@@ -12049,8 +12065,8 @@
       <c r="G14" s="16"/>
     </row>
     <row r="15" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="82"/>
-      <c r="C15" s="82"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="83"/>
       <c r="D15" s="16" t="s">
         <v>300</v>
       </c>
@@ -12061,26 +12077,26 @@
       </c>
     </row>
     <row r="16" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="82"/>
-      <c r="C16" s="82"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="83"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="83"/>
-      <c r="C17" s="83"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="84"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="34"/>
       <c r="G17" s="16"/>
     </row>
     <row r="18" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="81">
+      <c r="B18" s="82">
         <v>7</v>
       </c>
-      <c r="C18" s="81" t="s">
+      <c r="C18" s="82" t="s">
         <v>276</v>
       </c>
       <c r="D18" s="34"/>
@@ -12091,18 +12107,18 @@
       <c r="G18" s="16"/>
     </row>
     <row r="19" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="83"/>
-      <c r="C19" s="83"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="84"/>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
       <c r="F19" s="34"/>
       <c r="G19" s="16"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="81">
+      <c r="B20" s="82">
         <v>8</v>
       </c>
-      <c r="C20" s="81" t="s">
+      <c r="C20" s="82" t="s">
         <v>280</v>
       </c>
       <c r="D20" s="16" t="s">
@@ -12117,34 +12133,34 @@
       <c r="G20" s="16"/>
     </row>
     <row r="21" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="82"/>
-      <c r="C21" s="82"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="83"/>
       <c r="D21" s="34"/>
       <c r="E21" s="16"/>
       <c r="F21" s="34"/>
       <c r="G21" s="16"/>
     </row>
     <row r="22" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="82"/>
-      <c r="C22" s="82"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="83"/>
       <c r="D22" s="34"/>
       <c r="E22" s="16"/>
       <c r="F22" s="34"/>
       <c r="G22" s="16"/>
     </row>
     <row r="23" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="83"/>
-      <c r="C23" s="83"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="84"/>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
       <c r="F23" s="34"/>
       <c r="G23" s="16"/>
     </row>
     <row r="24" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="81">
+      <c r="B24" s="82">
         <v>9</v>
       </c>
-      <c r="C24" s="81" t="s">
+      <c r="C24" s="82" t="s">
         <v>294</v>
       </c>
       <c r="D24" s="16" t="s">
@@ -12159,18 +12175,18 @@
       <c r="G24" s="16"/>
     </row>
     <row r="25" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="83"/>
-      <c r="C25" s="83"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="84"/>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
       <c r="F25" s="34"/>
       <c r="G25" s="16"/>
     </row>
     <row r="26" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="81">
+      <c r="B26" s="82">
         <v>10</v>
       </c>
-      <c r="C26" s="81" t="s">
+      <c r="C26" s="82" t="s">
         <v>298</v>
       </c>
       <c r="D26" s="34"/>
@@ -12179,34 +12195,34 @@
       <c r="G26" s="16"/>
     </row>
     <row r="27" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="82"/>
-      <c r="C27" s="82"/>
+      <c r="B27" s="83"/>
+      <c r="C27" s="83"/>
       <c r="D27" s="34"/>
       <c r="E27" s="16"/>
       <c r="F27" s="34"/>
       <c r="G27" s="16"/>
     </row>
     <row r="28" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="82"/>
-      <c r="C28" s="82"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="83"/>
       <c r="D28" s="34"/>
       <c r="E28" s="16"/>
       <c r="F28" s="34"/>
       <c r="G28" s="16"/>
     </row>
     <row r="29" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="83"/>
-      <c r="C29" s="83"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="84"/>
       <c r="D29" s="34"/>
       <c r="E29" s="16"/>
       <c r="F29" s="34"/>
       <c r="G29" s="16"/>
     </row>
     <row r="30" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="81">
+      <c r="B30" s="82">
         <v>11</v>
       </c>
-      <c r="C30" s="81" t="s">
+      <c r="C30" s="82" t="s">
         <v>301</v>
       </c>
       <c r="D30" s="16" t="s">
@@ -12219,8 +12235,8 @@
       <c r="G30" s="16"/>
     </row>
     <row r="31" spans="2:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B31" s="82"/>
-      <c r="C31" s="82"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="83"/>
       <c r="D31" s="16" t="s">
         <v>310</v>
       </c>
@@ -12233,40 +12249,40 @@
       <c r="G31" s="16"/>
     </row>
     <row r="32" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="82"/>
-      <c r="C32" s="82"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="83"/>
       <c r="D32" s="34"/>
       <c r="E32" s="16"/>
       <c r="F32" s="34"/>
       <c r="G32" s="16"/>
     </row>
     <row r="33" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="82"/>
-      <c r="C33" s="82"/>
+      <c r="B33" s="83"/>
+      <c r="C33" s="83"/>
       <c r="D33" s="34"/>
       <c r="E33" s="16"/>
       <c r="F33" s="34"/>
       <c r="G33" s="16"/>
     </row>
     <row r="34" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="82"/>
-      <c r="C34" s="82"/>
+      <c r="B34" s="83"/>
+      <c r="C34" s="83"/>
       <c r="D34" s="34"/>
       <c r="E34" s="16"/>
       <c r="F34" s="34"/>
       <c r="G34" s="16"/>
     </row>
     <row r="35" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="82"/>
-      <c r="C35" s="82"/>
+      <c r="B35" s="83"/>
+      <c r="C35" s="83"/>
       <c r="D35" s="34"/>
       <c r="E35" s="16"/>
       <c r="F35" s="34"/>
       <c r="G35" s="16"/>
     </row>
     <row r="36" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="83"/>
-      <c r="C36" s="83"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="84"/>
       <c r="D36" s="34"/>
       <c r="E36" s="16"/>
       <c r="F36" s="34" t="s">
@@ -12275,10 +12291,10 @@
       <c r="G36" s="16"/>
     </row>
     <row r="37" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="41">
+      <c r="B37" s="82">
         <v>12</v>
       </c>
-      <c r="C37" s="41" t="s">
+      <c r="C37" s="82" t="s">
         <v>305</v>
       </c>
       <c r="D37" s="16" t="s">
@@ -12291,27 +12307,39 @@
       <c r="G37" s="16"/>
     </row>
     <row r="38" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
+      <c r="B38" s="84"/>
+      <c r="C38" s="84"/>
       <c r="D38" s="34"/>
       <c r="E38" s="16"/>
       <c r="F38" s="34"/>
       <c r="G38" s="16"/>
     </row>
     <row r="39" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="41"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="34"/>
+      <c r="B39" s="82">
+        <v>13</v>
+      </c>
+      <c r="C39" s="82" t="s">
+        <v>334</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>336</v>
+      </c>
       <c r="E39" s="16"/>
-      <c r="F39" s="34"/>
+      <c r="F39" s="34" t="s">
+        <v>333</v>
+      </c>
       <c r="G39" s="16"/>
     </row>
     <row r="40" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="41"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="34"/>
+      <c r="B40" s="84"/>
+      <c r="C40" s="84"/>
+      <c r="D40" s="16" t="s">
+        <v>337</v>
+      </c>
       <c r="E40" s="16"/>
-      <c r="F40" s="34"/>
+      <c r="F40" s="34" t="s">
+        <v>335</v>
+      </c>
       <c r="G40" s="16"/>
     </row>
     <row r="41" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -12560,7 +12588,18 @@
       <c r="F66" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="19">
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="B14:B17"/>
     <mergeCell ref="C26:C29"/>
     <mergeCell ref="C30:C36"/>
     <mergeCell ref="B26:B29"/>
@@ -12569,13 +12608,6 @@
     <mergeCell ref="B20:B23"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="B14:B17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E58" r:id="rId1"/>
@@ -12599,9 +12631,11 @@
     <hyperlink ref="F30" r:id="rId19"/>
     <hyperlink ref="F36" r:id="rId20"/>
     <hyperlink ref="F31" r:id="rId21"/>
+    <hyperlink ref="F39" r:id="rId22"/>
+    <hyperlink ref="F40" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId22"/>
-  <drawing r:id="rId23"/>
+  <pageSetup orientation="portrait" r:id="rId24"/>
+  <drawing r:id="rId25"/>
 </worksheet>
 </file>
--- a/Docs/Design_Arch/BL_SW_FLATFORM.xlsx
+++ b/Docs/Design_Arch/BL_SW_FLATFORM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="630" windowWidth="19875" windowHeight="7155" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="360" yWindow="630" windowWidth="19875" windowHeight="7155" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="RawIdeaAnalysis" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="346">
   <si>
     <t>STT</t>
   </si>
@@ -1051,12 +1051,39 @@
   </si>
   <si>
     <t>Kingkong 5045 5x4X3 3-Blade CW CCW (4pcs/set)</t>
+  </si>
+  <si>
+    <t>https://hobbyking.com/en_us/frsky-2-4ghz-accst-taranis-x9d-plus-and-x8r-combo-digital-telemetry-radio-system-mode-2.html</t>
+  </si>
+  <si>
+    <t>FrSky 2.4GHz ACCST TARANIS X9D PLUS and X8R Combo Digital Telemetry Radio System (Mode 2)</t>
+  </si>
+  <si>
+    <t>http://quanphongrc.vn/ct/may-bay-dieu-khien/2103/boscam-gs922-5-8g-32ch-fpv-diversity-aio-goggles-with-dvr.html</t>
+  </si>
+  <si>
+    <t>Boscam GS922 5.8G 32CH FPV Diversity AIO Goggles With DVR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.960.000 VND</t>
+  </si>
+  <si>
+    <t>http://quanphongrc.vn/ct/may-bay-dieu-khien/1931/frsky-taranis-q-x7-digital-telemetry-radio-system-2-4ghz-accst-black-no-plugs-standard-version.html</t>
+  </si>
+  <si>
+    <t>FrSky Taranis Q X7 Digital Telemetry Radio System 2.4GHz ACCST (Black-no plugs) (Standard Version)</t>
+  </si>
+  <si>
+    <t>2.320.000 VND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1311,7 +1338,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -1383,6 +1410,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1458,27 +1506,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1497,11 +1524,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7589,8 +7634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C49:F73"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7633,8 +7678,8 @@
       </c>
     </row>
     <row r="53" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C53" s="83"/>
-      <c r="D53" s="83"/>
+      <c r="C53" s="84"/>
+      <c r="D53" s="84"/>
       <c r="E53" s="43" t="s">
         <v>325</v>
       </c>
@@ -7643,14 +7688,14 @@
       </c>
     </row>
     <row r="54" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C54" s="83"/>
-      <c r="D54" s="83"/>
+      <c r="C54" s="84"/>
+      <c r="D54" s="84"/>
       <c r="E54" s="43"/>
       <c r="F54" s="16"/>
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C55" s="84"/>
-      <c r="D55" s="84"/>
+      <c r="C55" s="83"/>
+      <c r="D55" s="83"/>
       <c r="E55" s="43"/>
       <c r="F55" s="16"/>
     </row>
@@ -7669,8 +7714,8 @@
       </c>
     </row>
     <row r="57" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C57" s="83"/>
-      <c r="D57" s="83"/>
+      <c r="C57" s="84"/>
+      <c r="D57" s="84"/>
       <c r="E57" s="16" t="s">
         <v>324</v>
       </c>
@@ -7679,26 +7724,26 @@
       </c>
     </row>
     <row r="58" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C58" s="83"/>
-      <c r="D58" s="83"/>
+      <c r="C58" s="84"/>
+      <c r="D58" s="84"/>
       <c r="E58" s="16"/>
       <c r="F58" s="16"/>
     </row>
     <row r="59" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C59" s="83"/>
-      <c r="D59" s="83"/>
+      <c r="C59" s="84"/>
+      <c r="D59" s="84"/>
       <c r="E59" s="16"/>
       <c r="F59" s="16"/>
     </row>
     <row r="60" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C60" s="83"/>
-      <c r="D60" s="83"/>
+      <c r="C60" s="84"/>
+      <c r="D60" s="84"/>
       <c r="E60" s="16"/>
       <c r="F60" s="16"/>
     </row>
     <row r="61" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C61" s="84"/>
-      <c r="D61" s="84"/>
+      <c r="C61" s="83"/>
+      <c r="D61" s="83"/>
       <c r="E61" s="16"/>
       <c r="F61" s="16"/>
     </row>
@@ -7717,32 +7762,32 @@
       </c>
     </row>
     <row r="63" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C63" s="83"/>
-      <c r="D63" s="83"/>
+      <c r="C63" s="84"/>
+      <c r="D63" s="84"/>
       <c r="E63" s="16"/>
       <c r="F63" s="6"/>
     </row>
     <row r="64" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C64" s="83"/>
-      <c r="D64" s="83"/>
+      <c r="C64" s="84"/>
+      <c r="D64" s="84"/>
       <c r="E64" s="16"/>
       <c r="F64" s="16"/>
     </row>
     <row r="65" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C65" s="83"/>
-      <c r="D65" s="83"/>
+      <c r="C65" s="84"/>
+      <c r="D65" s="84"/>
       <c r="E65" s="16"/>
       <c r="F65" s="16"/>
     </row>
     <row r="66" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C66" s="83"/>
-      <c r="D66" s="83"/>
+      <c r="C66" s="84"/>
+      <c r="D66" s="84"/>
       <c r="E66" s="16"/>
       <c r="F66" s="16"/>
     </row>
     <row r="67" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C67" s="84"/>
-      <c r="D67" s="84"/>
+      <c r="C67" s="83"/>
+      <c r="D67" s="83"/>
       <c r="E67" s="16"/>
       <c r="F67" s="16"/>
     </row>
@@ -7761,32 +7806,32 @@
       </c>
     </row>
     <row r="69" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C69" s="83"/>
-      <c r="D69" s="83"/>
+      <c r="C69" s="84"/>
+      <c r="D69" s="84"/>
       <c r="E69" s="16"/>
       <c r="F69" s="16"/>
     </row>
     <row r="70" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C70" s="83"/>
-      <c r="D70" s="83"/>
+      <c r="C70" s="84"/>
+      <c r="D70" s="84"/>
       <c r="E70" s="16"/>
       <c r="F70" s="16"/>
     </row>
     <row r="71" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C71" s="83"/>
-      <c r="D71" s="83"/>
+      <c r="C71" s="84"/>
+      <c r="D71" s="84"/>
       <c r="E71" s="16"/>
       <c r="F71" s="16"/>
     </row>
     <row r="72" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C72" s="83"/>
-      <c r="D72" s="83"/>
+      <c r="C72" s="84"/>
+      <c r="D72" s="84"/>
       <c r="E72" s="16"/>
       <c r="F72" s="16"/>
     </row>
     <row r="73" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C73" s="84"/>
-      <c r="D73" s="84"/>
+      <c r="C73" s="83"/>
+      <c r="D73" s="83"/>
       <c r="E73" s="16"/>
       <c r="F73" s="16"/>
     </row>
@@ -7819,8 +7864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8035,18 +8080,18 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="64" t="s">
         <v>177</v>
       </c>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
       <c r="I5" s="22"/>
-      <c r="J5" s="45" t="s">
+      <c r="J5" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E6" s="21" t="s">
@@ -8063,15 +8108,15 @@
       <c r="L6" s="21"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E7" s="55" t="s">
+      <c r="E7" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="F7" s="46" t="s">
+      <c r="F7" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="48"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="55"/>
       <c r="J7" s="16" t="s">
         <v>179</v>
       </c>
@@ -8083,35 +8128,35 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E8" s="60"/>
-      <c r="F8" s="61" t="s">
+      <c r="E8" s="67"/>
+      <c r="F8" s="68" t="s">
         <v>160</v>
       </c>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="59" t="s">
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="66" t="s">
         <v>180</v>
       </c>
-      <c r="K8" s="59" t="s">
+      <c r="K8" s="66" t="s">
         <v>183</v>
       </c>
-      <c r="L8" s="59" t="s">
+      <c r="L8" s="66" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E9" s="56"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E10" s="55" t="s">
+      <c r="E10" s="62" t="s">
         <v>169</v>
       </c>
       <c r="F10" s="19" t="s">
@@ -8135,7 +8180,7 @@
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E11" s="60"/>
+      <c r="E11" s="67"/>
       <c r="F11" s="18" t="s">
         <v>161</v>
       </c>
@@ -8157,7 +8202,7 @@
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E12" s="56"/>
+      <c r="E12" s="63"/>
       <c r="F12" s="18" t="s">
         <v>165</v>
       </c>
@@ -8179,47 +8224,47 @@
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E13" s="55" t="s">
+      <c r="E13" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="F13" s="67" t="s">
+      <c r="F13" s="74" t="s">
         <v>159</v>
       </c>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="46" t="s">
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="53" t="s">
         <v>188</v>
       </c>
-      <c r="K13" s="47"/>
-      <c r="L13" s="48"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="55"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E14" s="60"/>
-      <c r="F14" s="61" t="s">
+      <c r="E14" s="67"/>
+      <c r="F14" s="68" t="s">
         <v>166</v>
       </c>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="49" t="s">
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="56" t="s">
         <v>189</v>
       </c>
-      <c r="K14" s="50"/>
-      <c r="L14" s="51"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="58"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E15" s="56"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="54"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="61"/>
     </row>
     <row r="16" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="E16" s="55" t="s">
+      <c r="E16" s="62" t="s">
         <v>171</v>
       </c>
       <c r="F16" s="16" t="s">
@@ -8245,7 +8290,7 @@
       </c>
     </row>
     <row r="17" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E17" s="56"/>
+      <c r="E17" s="63"/>
       <c r="F17" s="16" t="s">
         <v>207</v>
       </c>
@@ -8269,7 +8314,7 @@
       </c>
     </row>
     <row r="18" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E18" s="75" t="s">
+      <c r="E18" s="50" t="s">
         <v>173</v>
       </c>
       <c r="F18" s="16" t="s">
@@ -8278,10 +8323,10 @@
       <c r="G18" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="H18" s="70" t="s">
+      <c r="H18" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="I18" s="71"/>
+      <c r="I18" s="46"/>
       <c r="J18" s="16" t="s">
         <v>179</v>
       </c>
@@ -8293,17 +8338,17 @@
       </c>
     </row>
     <row r="19" spans="5:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="E19" s="76"/>
+      <c r="E19" s="51"/>
       <c r="F19" s="16" t="s">
         <v>174</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="H19" s="72" t="s">
+      <c r="H19" s="47" t="s">
         <v>214</v>
       </c>
-      <c r="I19" s="71"/>
+      <c r="I19" s="46"/>
       <c r="J19" s="16" t="s">
         <v>195</v>
       </c>
@@ -8315,7 +8360,7 @@
       </c>
     </row>
     <row r="20" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E20" s="75" t="s">
+      <c r="E20" s="50" t="s">
         <v>199</v>
       </c>
       <c r="F20" s="16" t="s">
@@ -8324,10 +8369,10 @@
       <c r="G20" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="H20" s="70" t="s">
+      <c r="H20" s="45" t="s">
         <v>201</v>
       </c>
-      <c r="I20" s="71"/>
+      <c r="I20" s="46"/>
       <c r="J20" s="16" t="s">
         <v>179</v>
       </c>
@@ -8339,15 +8384,15 @@
       </c>
     </row>
     <row r="21" spans="5:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="76"/>
+      <c r="E21" s="51"/>
       <c r="F21" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="G21" s="72" t="s">
+      <c r="G21" s="47" t="s">
         <v>203</v>
       </c>
-      <c r="H21" s="73"/>
-      <c r="I21" s="74"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="49"/>
       <c r="J21" s="16" t="s">
         <v>204</v>
       </c>
@@ -8356,12 +8401,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E20:E21"/>
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="J13:L13"/>
     <mergeCell ref="J14:L15"/>
@@ -8377,6 +8416,12 @@
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="F14:I15"/>
     <mergeCell ref="L8:L9"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11524,8 +11569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11874,8 +11919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G66"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView topLeftCell="B52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11883,7 +11928,7 @@
     <col min="2" max="2" width="20.140625" style="40" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" style="15" customWidth="1"/>
     <col min="4" max="4" width="103" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="110.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="110.140625" style="85" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="138.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="62.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -11904,7 +11949,7 @@
       <c r="D3" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="86" t="s">
         <v>253</v>
       </c>
       <c r="F3" s="33" t="s">
@@ -11924,7 +11969,7 @@
       <c r="D4" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="87" t="s">
         <v>254</v>
       </c>
       <c r="F4" s="16" t="s">
@@ -11936,11 +11981,11 @@
       <c r="B5" s="37">
         <v>2</v>
       </c>
-      <c r="C5" s="83"/>
+      <c r="C5" s="84"/>
       <c r="D5" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="E5" s="16"/>
+      <c r="E5" s="87"/>
       <c r="F5" s="16" t="s">
         <v>258</v>
       </c>
@@ -11950,11 +11995,11 @@
       <c r="B6" s="37">
         <v>3</v>
       </c>
-      <c r="C6" s="83"/>
+      <c r="C6" s="84"/>
       <c r="D6" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="87" t="s">
         <v>264</v>
       </c>
       <c r="F6" s="16" t="s">
@@ -11968,11 +12013,11 @@
       <c r="B7" s="37">
         <v>4</v>
       </c>
-      <c r="C7" s="84"/>
+      <c r="C7" s="83"/>
       <c r="D7" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="87" t="s">
         <v>264</v>
       </c>
       <c r="F7" s="16" t="s">
@@ -11990,17 +12035,17 @@
       <c r="D8" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="E8" s="16"/>
+      <c r="E8" s="87"/>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
     </row>
     <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="83"/>
-      <c r="C9" s="83"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
       <c r="D9" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="88" t="s">
         <v>270</v>
       </c>
       <c r="F9" s="16" t="s">
@@ -12009,36 +12054,36 @@
       <c r="G9" s="16"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="84"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
+      <c r="E10" s="87"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
     <row r="11" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="83"/>
-      <c r="C11" s="83"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
       <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
+      <c r="E11" s="87"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
     </row>
     <row r="12" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="83"/>
-      <c r="C12" s="83"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="84"/>
       <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
+      <c r="E12" s="87"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
     </row>
     <row r="13" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="84"/>
-      <c r="C13" s="84"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="83"/>
       <c r="D13" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="87" t="s">
         <v>291</v>
       </c>
       <c r="F13" s="42" t="s">
@@ -12056,7 +12101,7 @@
       <c r="D14" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="87" t="s">
         <v>293</v>
       </c>
       <c r="F14" s="34" t="s">
@@ -12065,30 +12110,30 @@
       <c r="G14" s="16"/>
     </row>
     <row r="15" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="83"/>
-      <c r="C15" s="83"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="84"/>
       <c r="D15" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="E15" s="16"/>
+      <c r="E15" s="87"/>
       <c r="F15" s="16"/>
       <c r="G15" s="16" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="16" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="83"/>
-      <c r="C16" s="83"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="84"/>
       <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
+      <c r="E16" s="87"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="84"/>
-      <c r="C17" s="84"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="83"/>
       <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
+      <c r="E17" s="87"/>
       <c r="F17" s="34"/>
       <c r="G17" s="16"/>
     </row>
@@ -12100,17 +12145,17 @@
         <v>276</v>
       </c>
       <c r="D18" s="34"/>
-      <c r="E18" s="16"/>
+      <c r="E18" s="87"/>
       <c r="F18" s="34" t="s">
         <v>275</v>
       </c>
       <c r="G18" s="16"/>
     </row>
     <row r="19" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="84"/>
-      <c r="C19" s="84"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="83"/>
       <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
+      <c r="E19" s="87"/>
       <c r="F19" s="34"/>
       <c r="G19" s="16"/>
     </row>
@@ -12124,7 +12169,7 @@
       <c r="D20" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="87" t="s">
         <v>282</v>
       </c>
       <c r="F20" s="34" t="s">
@@ -12133,26 +12178,38 @@
       <c r="G20" s="16"/>
     </row>
     <row r="21" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="83"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="34"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="E21" s="89">
+        <v>209.99</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>338</v>
+      </c>
       <c r="G21" s="16"/>
     </row>
     <row r="22" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="83"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="34"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="E22" s="89" t="s">
+        <v>345</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>343</v>
+      </c>
       <c r="G22" s="16"/>
     </row>
     <row r="23" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="84"/>
-      <c r="C23" s="84"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="83"/>
       <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
+      <c r="E23" s="87"/>
       <c r="F23" s="34"/>
       <c r="G23" s="16"/>
     </row>
@@ -12166,7 +12223,7 @@
       <c r="D24" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="87" t="s">
         <v>297</v>
       </c>
       <c r="F24" s="34" t="s">
@@ -12175,10 +12232,10 @@
       <c r="G24" s="16"/>
     </row>
     <row r="25" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="84"/>
-      <c r="C25" s="84"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="83"/>
       <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
+      <c r="E25" s="87"/>
       <c r="F25" s="34"/>
       <c r="G25" s="16"/>
     </row>
@@ -12190,31 +12247,31 @@
         <v>298</v>
       </c>
       <c r="D26" s="34"/>
-      <c r="E26" s="16"/>
+      <c r="E26" s="87"/>
       <c r="F26" s="34"/>
       <c r="G26" s="16"/>
     </row>
     <row r="27" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="83"/>
-      <c r="C27" s="83"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="84"/>
       <c r="D27" s="34"/>
-      <c r="E27" s="16"/>
+      <c r="E27" s="87"/>
       <c r="F27" s="34"/>
       <c r="G27" s="16"/>
     </row>
     <row r="28" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="83"/>
-      <c r="C28" s="83"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="84"/>
       <c r="D28" s="34"/>
-      <c r="E28" s="16"/>
+      <c r="E28" s="87"/>
       <c r="F28" s="34"/>
       <c r="G28" s="16"/>
     </row>
     <row r="29" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="84"/>
-      <c r="C29" s="84"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="83"/>
       <c r="D29" s="34"/>
-      <c r="E29" s="16"/>
+      <c r="E29" s="87"/>
       <c r="F29" s="34"/>
       <c r="G29" s="16"/>
     </row>
@@ -12228,19 +12285,19 @@
       <c r="D30" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="E30" s="16"/>
+      <c r="E30" s="87"/>
       <c r="F30" s="34" t="s">
         <v>303</v>
       </c>
       <c r="G30" s="16"/>
     </row>
     <row r="31" spans="2:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B31" s="83"/>
-      <c r="C31" s="83"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="84"/>
       <c r="D31" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="88" t="s">
         <v>309</v>
       </c>
       <c r="F31" s="34" t="s">
@@ -12249,42 +12306,48 @@
       <c r="G31" s="16"/>
     </row>
     <row r="32" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="83"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="34"/>
+      <c r="B32" s="84"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="E32" s="87" t="s">
+        <v>342</v>
+      </c>
+      <c r="F32" s="34" t="s">
+        <v>340</v>
+      </c>
       <c r="G32" s="16"/>
     </row>
     <row r="33" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="83"/>
-      <c r="C33" s="83"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="84"/>
       <c r="D33" s="34"/>
-      <c r="E33" s="16"/>
+      <c r="E33" s="87"/>
       <c r="F33" s="34"/>
       <c r="G33" s="16"/>
     </row>
     <row r="34" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="83"/>
-      <c r="C34" s="83"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="84"/>
       <c r="D34" s="34"/>
-      <c r="E34" s="16"/>
+      <c r="E34" s="87"/>
       <c r="F34" s="34"/>
       <c r="G34" s="16"/>
     </row>
     <row r="35" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="83"/>
-      <c r="C35" s="83"/>
+      <c r="B35" s="84"/>
+      <c r="C35" s="84"/>
       <c r="D35" s="34"/>
-      <c r="E35" s="16"/>
+      <c r="E35" s="87"/>
       <c r="F35" s="34"/>
       <c r="G35" s="16"/>
     </row>
     <row r="36" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="84"/>
-      <c r="C36" s="84"/>
+      <c r="B36" s="83"/>
+      <c r="C36" s="83"/>
       <c r="D36" s="34"/>
-      <c r="E36" s="16"/>
+      <c r="E36" s="87"/>
       <c r="F36" s="34" t="s">
         <v>304</v>
       </c>
@@ -12300,17 +12363,17 @@
       <c r="D37" s="16" t="s">
         <v>306</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="87" t="s">
         <v>307</v>
       </c>
       <c r="F37" s="34"/>
       <c r="G37" s="16"/>
     </row>
     <row r="38" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="84"/>
-      <c r="C38" s="84"/>
+      <c r="B38" s="83"/>
+      <c r="C38" s="83"/>
       <c r="D38" s="34"/>
-      <c r="E38" s="16"/>
+      <c r="E38" s="87"/>
       <c r="F38" s="34"/>
       <c r="G38" s="16"/>
     </row>
@@ -12324,19 +12387,19 @@
       <c r="D39" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="E39" s="16"/>
+      <c r="E39" s="87"/>
       <c r="F39" s="34" t="s">
         <v>333</v>
       </c>
       <c r="G39" s="16"/>
     </row>
     <row r="40" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="84"/>
-      <c r="C40" s="84"/>
+      <c r="B40" s="83"/>
+      <c r="C40" s="83"/>
       <c r="D40" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="E40" s="16"/>
+      <c r="E40" s="87"/>
       <c r="F40" s="34" t="s">
         <v>335</v>
       </c>
@@ -12346,7 +12409,7 @@
       <c r="B41" s="41"/>
       <c r="C41" s="41"/>
       <c r="D41" s="34"/>
-      <c r="E41" s="16"/>
+      <c r="E41" s="87"/>
       <c r="F41" s="34"/>
       <c r="G41" s="16"/>
     </row>
@@ -12354,7 +12417,7 @@
       <c r="B42" s="41"/>
       <c r="C42" s="41"/>
       <c r="D42" s="34"/>
-      <c r="E42" s="16"/>
+      <c r="E42" s="87"/>
       <c r="F42" s="34"/>
       <c r="G42" s="16"/>
     </row>
@@ -12362,7 +12425,7 @@
       <c r="B43" s="41"/>
       <c r="C43" s="41"/>
       <c r="D43" s="34"/>
-      <c r="E43" s="16"/>
+      <c r="E43" s="87"/>
       <c r="F43" s="34"/>
       <c r="G43" s="16"/>
     </row>
@@ -12370,7 +12433,7 @@
       <c r="B44" s="41"/>
       <c r="C44" s="41"/>
       <c r="D44" s="34"/>
-      <c r="E44" s="16"/>
+      <c r="E44" s="87"/>
       <c r="F44" s="34"/>
       <c r="G44" s="16"/>
     </row>
@@ -12378,7 +12441,7 @@
       <c r="B45" s="41"/>
       <c r="C45" s="41"/>
       <c r="D45" s="34"/>
-      <c r="E45" s="16"/>
+      <c r="E45" s="87"/>
       <c r="F45" s="34"/>
       <c r="G45" s="16"/>
     </row>
@@ -12386,7 +12449,7 @@
       <c r="B46" s="41"/>
       <c r="C46" s="41"/>
       <c r="D46" s="34"/>
-      <c r="E46" s="16"/>
+      <c r="E46" s="87"/>
       <c r="F46" s="34"/>
       <c r="G46" s="16"/>
     </row>
@@ -12394,7 +12457,7 @@
       <c r="B47" s="41"/>
       <c r="C47" s="41"/>
       <c r="D47" s="34"/>
-      <c r="E47" s="16"/>
+      <c r="E47" s="87"/>
       <c r="F47" s="34"/>
       <c r="G47" s="16"/>
     </row>
@@ -12402,7 +12465,7 @@
       <c r="B48" s="41"/>
       <c r="C48" s="41"/>
       <c r="D48" s="34"/>
-      <c r="E48" s="16"/>
+      <c r="E48" s="87"/>
       <c r="F48" s="34"/>
       <c r="G48" s="16"/>
     </row>
@@ -12410,7 +12473,7 @@
       <c r="B49" s="41"/>
       <c r="C49" s="41"/>
       <c r="D49" s="34"/>
-      <c r="E49" s="16"/>
+      <c r="E49" s="87"/>
       <c r="F49" s="34"/>
       <c r="G49" s="16"/>
     </row>
@@ -12418,7 +12481,7 @@
       <c r="B50" s="41"/>
       <c r="C50" s="41"/>
       <c r="D50" s="34"/>
-      <c r="E50" s="16"/>
+      <c r="E50" s="87"/>
       <c r="F50" s="34"/>
       <c r="G50" s="16"/>
     </row>
@@ -12426,7 +12489,7 @@
       <c r="B51" s="41"/>
       <c r="C51" s="41"/>
       <c r="D51" s="34"/>
-      <c r="E51" s="16"/>
+      <c r="E51" s="87"/>
       <c r="F51" s="34"/>
       <c r="G51" s="16"/>
     </row>
@@ -12434,7 +12497,7 @@
       <c r="B52" s="41"/>
       <c r="C52" s="41"/>
       <c r="D52" s="34"/>
-      <c r="E52" s="16"/>
+      <c r="E52" s="87"/>
       <c r="F52" s="34"/>
       <c r="G52" s="16"/>
     </row>
@@ -12442,7 +12505,7 @@
       <c r="B53" s="37"/>
       <c r="C53" s="37"/>
       <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
+      <c r="E53" s="87"/>
       <c r="F53" s="34"/>
       <c r="G53" s="16"/>
     </row>
@@ -12460,7 +12523,7 @@
       <c r="D56" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="E56" s="33" t="s">
+      <c r="E56" s="86" t="s">
         <v>246</v>
       </c>
       <c r="F56" s="33" t="s">
@@ -12475,7 +12538,7 @@
       <c r="D57" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="E57" s="34" t="s">
+      <c r="E57" s="90" t="s">
         <v>249</v>
       </c>
       <c r="F57" s="16" t="s">
@@ -12490,7 +12553,7 @@
       <c r="D58" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="E58" s="34" t="s">
+      <c r="E58" s="90" t="s">
         <v>245</v>
       </c>
       <c r="F58" s="16"/>
@@ -12503,7 +12566,7 @@
       <c r="D59" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="E59" s="34" t="s">
+      <c r="E59" s="90" t="s">
         <v>255</v>
       </c>
       <c r="F59" s="6"/>
@@ -12516,7 +12579,7 @@
       <c r="D60" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="E60" s="34" t="s">
+      <c r="E60" s="90" t="s">
         <v>277</v>
       </c>
       <c r="F60" s="6"/>
@@ -12529,7 +12592,7 @@
       <c r="D61" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="E61" s="34" t="s">
+      <c r="E61" s="90" t="s">
         <v>284</v>
       </c>
       <c r="F61" s="16"/>
@@ -12542,7 +12605,7 @@
       <c r="D62" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="E62" s="34" t="s">
+      <c r="E62" s="90" t="s">
         <v>286</v>
       </c>
       <c r="F62" s="6"/>
@@ -12555,7 +12618,7 @@
       <c r="D63" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="E63" s="34" t="s">
+      <c r="E63" s="90" t="s">
         <v>288</v>
       </c>
       <c r="F63" s="16"/>
@@ -12566,7 +12629,7 @@
       </c>
       <c r="C64" s="16"/>
       <c r="D64" s="16"/>
-      <c r="E64" s="34"/>
+      <c r="E64" s="90"/>
       <c r="F64" s="16"/>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
@@ -12575,7 +12638,7 @@
       </c>
       <c r="C65" s="16"/>
       <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
+      <c r="E65" s="87"/>
       <c r="F65" s="16"/>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
@@ -12584,11 +12647,14 @@
       </c>
       <c r="C66" s="16"/>
       <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
+      <c r="E66" s="87"/>
       <c r="F66" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="C37:C38"/>
     <mergeCell ref="C39:C40"/>
@@ -12605,9 +12671,6 @@
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="B30:B36"/>
     <mergeCell ref="C20:C23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E58" r:id="rId1"/>
@@ -12633,9 +12696,12 @@
     <hyperlink ref="F31" r:id="rId21"/>
     <hyperlink ref="F39" r:id="rId22"/>
     <hyperlink ref="F40" r:id="rId23"/>
+    <hyperlink ref="F21" r:id="rId24"/>
+    <hyperlink ref="F32" r:id="rId25"/>
+    <hyperlink ref="F22" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId24"/>
-  <drawing r:id="rId25"/>
+  <pageSetup orientation="portrait" r:id="rId27"/>
+  <drawing r:id="rId28"/>
 </worksheet>
 </file>
--- a/Docs/Design_Arch/BL_SW_FLATFORM.xlsx
+++ b/Docs/Design_Arch/BL_SW_FLATFORM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="630" windowWidth="19875" windowHeight="7155" firstSheet="3" activeTab="10"/>
+    <workbookView xWindow="360" yWindow="630" windowWidth="19875" windowHeight="7155" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="RawIdeaAnalysis" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="348">
   <si>
     <t>STT</t>
   </si>
@@ -1075,6 +1075,12 @@
   </si>
   <si>
     <t>2.320.000 VND</t>
+  </si>
+  <si>
+    <t>Eachine EV800 Review and VR-007 Comparison from Banggood</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LlAvt0_6a5k</t>
   </si>
 </sst>
 </file>
@@ -1410,26 +1416,23 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1506,6 +1509,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1524,29 +1548,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7634,8 +7640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C49:F73"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I65" sqref="I65"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7664,10 +7670,10 @@
       </c>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C52" s="82">
+      <c r="C52" s="88">
         <v>1</v>
       </c>
-      <c r="D52" s="82" t="s">
+      <c r="D52" s="88" t="s">
         <v>312</v>
       </c>
       <c r="E52" s="43" t="s">
@@ -7678,8 +7684,8 @@
       </c>
     </row>
     <row r="53" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C53" s="84"/>
-      <c r="D53" s="84"/>
+      <c r="C53" s="89"/>
+      <c r="D53" s="89"/>
       <c r="E53" s="43" t="s">
         <v>325</v>
       </c>
@@ -7688,22 +7694,22 @@
       </c>
     </row>
     <row r="54" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C54" s="84"/>
-      <c r="D54" s="84"/>
+      <c r="C54" s="89"/>
+      <c r="D54" s="89"/>
       <c r="E54" s="43"/>
       <c r="F54" s="16"/>
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C55" s="83"/>
-      <c r="D55" s="83"/>
+      <c r="C55" s="90"/>
+      <c r="D55" s="90"/>
       <c r="E55" s="43"/>
       <c r="F55" s="16"/>
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C56" s="82">
+      <c r="C56" s="88">
         <v>2</v>
       </c>
-      <c r="D56" s="82" t="s">
+      <c r="D56" s="88" t="s">
         <v>318</v>
       </c>
       <c r="E56" s="16" t="s">
@@ -7714,8 +7720,8 @@
       </c>
     </row>
     <row r="57" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C57" s="84"/>
-      <c r="D57" s="84"/>
+      <c r="C57" s="89"/>
+      <c r="D57" s="89"/>
       <c r="E57" s="16" t="s">
         <v>324</v>
       </c>
@@ -7724,34 +7730,34 @@
       </c>
     </row>
     <row r="58" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C58" s="84"/>
-      <c r="D58" s="84"/>
+      <c r="C58" s="89"/>
+      <c r="D58" s="89"/>
       <c r="E58" s="16"/>
       <c r="F58" s="16"/>
     </row>
     <row r="59" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C59" s="84"/>
-      <c r="D59" s="84"/>
+      <c r="C59" s="89"/>
+      <c r="D59" s="89"/>
       <c r="E59" s="16"/>
       <c r="F59" s="16"/>
     </row>
     <row r="60" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C60" s="84"/>
-      <c r="D60" s="84"/>
+      <c r="C60" s="89"/>
+      <c r="D60" s="89"/>
       <c r="E60" s="16"/>
       <c r="F60" s="16"/>
     </row>
     <row r="61" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C61" s="83"/>
-      <c r="D61" s="83"/>
+      <c r="C61" s="90"/>
+      <c r="D61" s="90"/>
       <c r="E61" s="16"/>
       <c r="F61" s="16"/>
     </row>
     <row r="62" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C62" s="82">
+      <c r="C62" s="88">
         <v>3</v>
       </c>
-      <c r="D62" s="82" t="s">
+      <c r="D62" s="88" t="s">
         <v>321</v>
       </c>
       <c r="E62" s="16" t="s">
@@ -7762,40 +7768,40 @@
       </c>
     </row>
     <row r="63" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C63" s="84"/>
-      <c r="D63" s="84"/>
+      <c r="C63" s="89"/>
+      <c r="D63" s="89"/>
       <c r="E63" s="16"/>
       <c r="F63" s="6"/>
     </row>
     <row r="64" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C64" s="84"/>
-      <c r="D64" s="84"/>
+      <c r="C64" s="89"/>
+      <c r="D64" s="89"/>
       <c r="E64" s="16"/>
       <c r="F64" s="16"/>
     </row>
     <row r="65" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C65" s="84"/>
-      <c r="D65" s="84"/>
+      <c r="C65" s="89"/>
+      <c r="D65" s="89"/>
       <c r="E65" s="16"/>
       <c r="F65" s="16"/>
     </row>
     <row r="66" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C66" s="84"/>
-      <c r="D66" s="84"/>
+      <c r="C66" s="89"/>
+      <c r="D66" s="89"/>
       <c r="E66" s="16"/>
       <c r="F66" s="16"/>
     </row>
     <row r="67" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C67" s="83"/>
-      <c r="D67" s="83"/>
+      <c r="C67" s="90"/>
+      <c r="D67" s="90"/>
       <c r="E67" s="16"/>
       <c r="F67" s="16"/>
     </row>
     <row r="68" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C68" s="82">
+      <c r="C68" s="88">
         <v>4</v>
       </c>
-      <c r="D68" s="82" t="s">
+      <c r="D68" s="88" t="s">
         <v>327</v>
       </c>
       <c r="E68" s="16" t="s">
@@ -7806,32 +7812,32 @@
       </c>
     </row>
     <row r="69" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C69" s="84"/>
-      <c r="D69" s="84"/>
+      <c r="C69" s="89"/>
+      <c r="D69" s="89"/>
       <c r="E69" s="16"/>
       <c r="F69" s="16"/>
     </row>
     <row r="70" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C70" s="84"/>
-      <c r="D70" s="84"/>
+      <c r="C70" s="89"/>
+      <c r="D70" s="89"/>
       <c r="E70" s="16"/>
       <c r="F70" s="16"/>
     </row>
     <row r="71" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C71" s="84"/>
-      <c r="D71" s="84"/>
+      <c r="C71" s="89"/>
+      <c r="D71" s="89"/>
       <c r="E71" s="16"/>
       <c r="F71" s="16"/>
     </row>
     <row r="72" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C72" s="84"/>
-      <c r="D72" s="84"/>
+      <c r="C72" s="89"/>
+      <c r="D72" s="89"/>
       <c r="E72" s="16"/>
       <c r="F72" s="16"/>
     </row>
     <row r="73" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C73" s="83"/>
-      <c r="D73" s="83"/>
+      <c r="C73" s="90"/>
+      <c r="D73" s="90"/>
       <c r="E73" s="16"/>
       <c r="F73" s="16"/>
     </row>
@@ -7864,8 +7870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8080,18 +8086,18 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="63" t="s">
         <v>177</v>
       </c>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
       <c r="I5" s="22"/>
-      <c r="J5" s="52" t="s">
+      <c r="J5" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E6" s="21" t="s">
@@ -8108,15 +8114,15 @@
       <c r="L6" s="21"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E7" s="62" t="s">
+      <c r="E7" s="61" t="s">
         <v>168</v>
       </c>
-      <c r="F7" s="53" t="s">
+      <c r="F7" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="55"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="54"/>
       <c r="J7" s="16" t="s">
         <v>179</v>
       </c>
@@ -8128,35 +8134,35 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E8" s="67"/>
-      <c r="F8" s="68" t="s">
+      <c r="E8" s="66"/>
+      <c r="F8" s="67" t="s">
         <v>160</v>
       </c>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="66" t="s">
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="65" t="s">
         <v>180</v>
       </c>
-      <c r="K8" s="66" t="s">
+      <c r="K8" s="65" t="s">
         <v>183</v>
       </c>
-      <c r="L8" s="66" t="s">
+      <c r="L8" s="65" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E9" s="63"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E10" s="62" t="s">
+      <c r="E10" s="61" t="s">
         <v>169</v>
       </c>
       <c r="F10" s="19" t="s">
@@ -8180,7 +8186,7 @@
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E11" s="67"/>
+      <c r="E11" s="66"/>
       <c r="F11" s="18" t="s">
         <v>161</v>
       </c>
@@ -8202,7 +8208,7 @@
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E12" s="63"/>
+      <c r="E12" s="62"/>
       <c r="F12" s="18" t="s">
         <v>165</v>
       </c>
@@ -8224,47 +8230,47 @@
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E13" s="62" t="s">
+      <c r="E13" s="61" t="s">
         <v>170</v>
       </c>
-      <c r="F13" s="74" t="s">
+      <c r="F13" s="73" t="s">
         <v>159</v>
       </c>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="53" t="s">
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="52" t="s">
         <v>188</v>
       </c>
-      <c r="K13" s="54"/>
-      <c r="L13" s="55"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="54"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E14" s="67"/>
-      <c r="F14" s="68" t="s">
+      <c r="E14" s="66"/>
+      <c r="F14" s="67" t="s">
         <v>166</v>
       </c>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="56" t="s">
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="55" t="s">
         <v>189</v>
       </c>
-      <c r="K14" s="57"/>
-      <c r="L14" s="58"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="57"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E15" s="63"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="61"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="60"/>
     </row>
     <row r="16" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="E16" s="62" t="s">
+      <c r="E16" s="61" t="s">
         <v>171</v>
       </c>
       <c r="F16" s="16" t="s">
@@ -8290,7 +8296,7 @@
       </c>
     </row>
     <row r="17" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E17" s="63"/>
+      <c r="E17" s="62"/>
       <c r="F17" s="16" t="s">
         <v>207</v>
       </c>
@@ -8314,7 +8320,7 @@
       </c>
     </row>
     <row r="18" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E18" s="50" t="s">
+      <c r="E18" s="81" t="s">
         <v>173</v>
       </c>
       <c r="F18" s="16" t="s">
@@ -8323,10 +8329,10 @@
       <c r="G18" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="H18" s="45" t="s">
+      <c r="H18" s="76" t="s">
         <v>176</v>
       </c>
-      <c r="I18" s="46"/>
+      <c r="I18" s="77"/>
       <c r="J18" s="16" t="s">
         <v>179</v>
       </c>
@@ -8338,17 +8344,17 @@
       </c>
     </row>
     <row r="19" spans="5:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="E19" s="51"/>
+      <c r="E19" s="82"/>
       <c r="F19" s="16" t="s">
         <v>174</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="H19" s="47" t="s">
+      <c r="H19" s="78" t="s">
         <v>214</v>
       </c>
-      <c r="I19" s="46"/>
+      <c r="I19" s="77"/>
       <c r="J19" s="16" t="s">
         <v>195</v>
       </c>
@@ -8360,7 +8366,7 @@
       </c>
     </row>
     <row r="20" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E20" s="50" t="s">
+      <c r="E20" s="81" t="s">
         <v>199</v>
       </c>
       <c r="F20" s="16" t="s">
@@ -8369,10 +8375,10 @@
       <c r="G20" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="H20" s="45" t="s">
+      <c r="H20" s="76" t="s">
         <v>201</v>
       </c>
-      <c r="I20" s="46"/>
+      <c r="I20" s="77"/>
       <c r="J20" s="16" t="s">
         <v>179</v>
       </c>
@@ -8384,15 +8390,15 @@
       </c>
     </row>
     <row r="21" spans="5:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="51"/>
+      <c r="E21" s="82"/>
       <c r="F21" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="G21" s="47" t="s">
+      <c r="G21" s="78" t="s">
         <v>203</v>
       </c>
-      <c r="H21" s="48"/>
-      <c r="I21" s="49"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="80"/>
       <c r="J21" s="16" t="s">
         <v>204</v>
       </c>
@@ -8401,6 +8407,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="J13:L13"/>
     <mergeCell ref="J14:L15"/>
@@ -8416,12 +8428,6 @@
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="F14:I15"/>
     <mergeCell ref="L8:L9"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E20:E21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8445,7 +8451,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G2" s="77" t="s">
+      <c r="G2" s="83" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="3" t="s">
@@ -8453,37 +8459,37 @@
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G3" s="78"/>
+      <c r="G3" s="84"/>
       <c r="H3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G4" s="78"/>
+      <c r="G4" s="84"/>
       <c r="H4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G5" s="78"/>
+      <c r="G5" s="84"/>
       <c r="H5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G6" s="78"/>
+      <c r="G6" s="84"/>
       <c r="H6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G7" s="78"/>
+      <c r="G7" s="84"/>
       <c r="H7" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G8" s="78"/>
+      <c r="G8" s="84"/>
       <c r="H8" s="3" t="s">
         <v>15</v>
       </c>
@@ -11884,7 +11890,7 @@
       <c r="G17" s="16"/>
     </row>
     <row r="20" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D20" s="79" t="s">
+      <c r="D20" s="85" t="s">
         <v>237</v>
       </c>
       <c r="E20" s="34" t="s">
@@ -11892,13 +11898,13 @@
       </c>
     </row>
     <row r="21" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D21" s="80"/>
+      <c r="D21" s="86"/>
       <c r="E21" s="34" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="22" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D22" s="81"/>
+      <c r="D22" s="87"/>
       <c r="E22" s="16" t="s">
         <v>240</v>
       </c>
@@ -11919,8 +11925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G66"/>
   <sheetViews>
-    <sheetView topLeftCell="B52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11928,7 +11934,7 @@
     <col min="2" max="2" width="20.140625" style="40" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" style="15" customWidth="1"/>
     <col min="4" max="4" width="103" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="110.140625" style="85" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="110.140625" style="45" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="138.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="62.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -11949,7 +11955,7 @@
       <c r="D3" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="E3" s="86" t="s">
+      <c r="E3" s="46" t="s">
         <v>253</v>
       </c>
       <c r="F3" s="33" t="s">
@@ -11963,13 +11969,13 @@
       <c r="B4" s="37">
         <v>1</v>
       </c>
-      <c r="C4" s="82" t="s">
+      <c r="C4" s="88" t="s">
         <v>261</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="E4" s="87" t="s">
+      <c r="E4" s="47" t="s">
         <v>254</v>
       </c>
       <c r="F4" s="16" t="s">
@@ -11981,11 +11987,11 @@
       <c r="B5" s="37">
         <v>2</v>
       </c>
-      <c r="C5" s="84"/>
+      <c r="C5" s="89"/>
       <c r="D5" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="E5" s="87"/>
+      <c r="E5" s="47"/>
       <c r="F5" s="16" t="s">
         <v>258</v>
       </c>
@@ -11995,11 +12001,11 @@
       <c r="B6" s="37">
         <v>3</v>
       </c>
-      <c r="C6" s="84"/>
+      <c r="C6" s="89"/>
       <c r="D6" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="E6" s="87" t="s">
+      <c r="E6" s="47" t="s">
         <v>264</v>
       </c>
       <c r="F6" s="16" t="s">
@@ -12013,11 +12019,11 @@
       <c r="B7" s="37">
         <v>4</v>
       </c>
-      <c r="C7" s="83"/>
+      <c r="C7" s="90"/>
       <c r="D7" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="E7" s="87" t="s">
+      <c r="E7" s="47" t="s">
         <v>264</v>
       </c>
       <c r="F7" s="16" t="s">
@@ -12026,26 +12032,26 @@
       <c r="G7" s="16"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="82">
+      <c r="B8" s="88">
         <v>5</v>
       </c>
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="88" t="s">
         <v>262</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="E8" s="87"/>
+      <c r="E8" s="47"/>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
     </row>
     <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="89"/>
       <c r="D9" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="E9" s="88" t="s">
+      <c r="E9" s="48" t="s">
         <v>270</v>
       </c>
       <c r="F9" s="16" t="s">
@@ -12054,36 +12060,36 @@
       <c r="G9" s="16"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="84"/>
-      <c r="C10" s="84"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="89"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="87"/>
+      <c r="E10" s="47"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
     <row r="11" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="84"/>
-      <c r="C11" s="84"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="89"/>
       <c r="D11" s="16"/>
-      <c r="E11" s="87"/>
+      <c r="E11" s="47"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
     </row>
     <row r="12" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="84"/>
-      <c r="C12" s="84"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="89"/>
       <c r="D12" s="16"/>
-      <c r="E12" s="87"/>
+      <c r="E12" s="47"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
     </row>
     <row r="13" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="83"/>
-      <c r="C13" s="83"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="90"/>
       <c r="D13" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="E13" s="87" t="s">
+      <c r="E13" s="47" t="s">
         <v>291</v>
       </c>
       <c r="F13" s="42" t="s">
@@ -12092,16 +12098,16 @@
       <c r="G13" s="16"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="82">
+      <c r="B14" s="88">
         <v>6</v>
       </c>
-      <c r="C14" s="82" t="s">
+      <c r="C14" s="88" t="s">
         <v>274</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="E14" s="87" t="s">
+      <c r="E14" s="47" t="s">
         <v>293</v>
       </c>
       <c r="F14" s="34" t="s">
@@ -12110,66 +12116,66 @@
       <c r="G14" s="16"/>
     </row>
     <row r="15" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="84"/>
-      <c r="C15" s="84"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="89"/>
       <c r="D15" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="E15" s="87"/>
+      <c r="E15" s="47"/>
       <c r="F15" s="16"/>
       <c r="G15" s="16" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="16" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="84"/>
-      <c r="C16" s="84"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="89"/>
       <c r="D16" s="16"/>
-      <c r="E16" s="87"/>
+      <c r="E16" s="47"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="83"/>
-      <c r="C17" s="83"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="90"/>
       <c r="D17" s="16"/>
-      <c r="E17" s="87"/>
+      <c r="E17" s="47"/>
       <c r="F17" s="34"/>
       <c r="G17" s="16"/>
     </row>
     <row r="18" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="82">
+      <c r="B18" s="88">
         <v>7</v>
       </c>
-      <c r="C18" s="82" t="s">
+      <c r="C18" s="88" t="s">
         <v>276</v>
       </c>
       <c r="D18" s="34"/>
-      <c r="E18" s="87"/>
+      <c r="E18" s="47"/>
       <c r="F18" s="34" t="s">
         <v>275</v>
       </c>
       <c r="G18" s="16"/>
     </row>
     <row r="19" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="83"/>
-      <c r="C19" s="83"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="90"/>
       <c r="D19" s="16"/>
-      <c r="E19" s="87"/>
+      <c r="E19" s="47"/>
       <c r="F19" s="34"/>
       <c r="G19" s="16"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="82">
+      <c r="B20" s="88">
         <v>8</v>
       </c>
-      <c r="C20" s="82" t="s">
+      <c r="C20" s="88" t="s">
         <v>280</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="E20" s="87" t="s">
+      <c r="E20" s="47" t="s">
         <v>282</v>
       </c>
       <c r="F20" s="34" t="s">
@@ -12178,12 +12184,12 @@
       <c r="G20" s="16"/>
     </row>
     <row r="21" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="84"/>
-      <c r="C21" s="84"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="89"/>
       <c r="D21" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="E21" s="89">
+      <c r="E21" s="49">
         <v>209.99</v>
       </c>
       <c r="F21" s="34" t="s">
@@ -12192,12 +12198,12 @@
       <c r="G21" s="16"/>
     </row>
     <row r="22" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="84"/>
-      <c r="C22" s="84"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="89"/>
       <c r="D22" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="E22" s="89" t="s">
+      <c r="E22" s="49" t="s">
         <v>345</v>
       </c>
       <c r="F22" s="34" t="s">
@@ -12206,24 +12212,24 @@
       <c r="G22" s="16"/>
     </row>
     <row r="23" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="83"/>
-      <c r="C23" s="83"/>
+      <c r="B23" s="90"/>
+      <c r="C23" s="90"/>
       <c r="D23" s="16"/>
-      <c r="E23" s="87"/>
+      <c r="E23" s="47"/>
       <c r="F23" s="34"/>
       <c r="G23" s="16"/>
     </row>
     <row r="24" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="82">
+      <c r="B24" s="88">
         <v>9</v>
       </c>
-      <c r="C24" s="82" t="s">
+      <c r="C24" s="88" t="s">
         <v>294</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="E24" s="87" t="s">
+      <c r="E24" s="47" t="s">
         <v>297</v>
       </c>
       <c r="F24" s="34" t="s">
@@ -12232,72 +12238,72 @@
       <c r="G24" s="16"/>
     </row>
     <row r="25" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="83"/>
-      <c r="C25" s="83"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="90"/>
       <c r="D25" s="16"/>
-      <c r="E25" s="87"/>
+      <c r="E25" s="47"/>
       <c r="F25" s="34"/>
       <c r="G25" s="16"/>
     </row>
     <row r="26" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="82">
+      <c r="B26" s="88">
         <v>10</v>
       </c>
-      <c r="C26" s="82" t="s">
+      <c r="C26" s="88" t="s">
         <v>298</v>
       </c>
       <c r="D26" s="34"/>
-      <c r="E26" s="87"/>
+      <c r="E26" s="47"/>
       <c r="F26" s="34"/>
       <c r="G26" s="16"/>
     </row>
     <row r="27" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="84"/>
-      <c r="C27" s="84"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="89"/>
       <c r="D27" s="34"/>
-      <c r="E27" s="87"/>
+      <c r="E27" s="47"/>
       <c r="F27" s="34"/>
       <c r="G27" s="16"/>
     </row>
     <row r="28" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="84"/>
-      <c r="C28" s="84"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="89"/>
       <c r="D28" s="34"/>
-      <c r="E28" s="87"/>
+      <c r="E28" s="47"/>
       <c r="F28" s="34"/>
       <c r="G28" s="16"/>
     </row>
     <row r="29" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="83"/>
-      <c r="C29" s="83"/>
+      <c r="B29" s="90"/>
+      <c r="C29" s="90"/>
       <c r="D29" s="34"/>
-      <c r="E29" s="87"/>
+      <c r="E29" s="47"/>
       <c r="F29" s="34"/>
       <c r="G29" s="16"/>
     </row>
     <row r="30" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="82">
+      <c r="B30" s="88">
         <v>11</v>
       </c>
-      <c r="C30" s="82" t="s">
+      <c r="C30" s="88" t="s">
         <v>301</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="E30" s="87"/>
+      <c r="E30" s="47"/>
       <c r="F30" s="34" t="s">
         <v>303</v>
       </c>
       <c r="G30" s="16"/>
     </row>
     <row r="31" spans="2:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B31" s="84"/>
-      <c r="C31" s="84"/>
+      <c r="B31" s="89"/>
+      <c r="C31" s="89"/>
       <c r="D31" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="E31" s="88" t="s">
+      <c r="E31" s="48" t="s">
         <v>309</v>
       </c>
       <c r="F31" s="34" t="s">
@@ -12306,12 +12312,12 @@
       <c r="G31" s="16"/>
     </row>
     <row r="32" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="84"/>
-      <c r="C32" s="84"/>
+      <c r="B32" s="89"/>
+      <c r="C32" s="89"/>
       <c r="D32" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="E32" s="87" t="s">
+      <c r="E32" s="47" t="s">
         <v>342</v>
       </c>
       <c r="F32" s="34" t="s">
@@ -12320,86 +12326,90 @@
       <c r="G32" s="16"/>
     </row>
     <row r="33" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="84"/>
-      <c r="C33" s="84"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="34"/>
+      <c r="B33" s="89"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="E33" s="47"/>
+      <c r="F33" s="34" t="s">
+        <v>347</v>
+      </c>
       <c r="G33" s="16"/>
     </row>
     <row r="34" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="84"/>
-      <c r="C34" s="84"/>
+      <c r="B34" s="89"/>
+      <c r="C34" s="89"/>
       <c r="D34" s="34"/>
-      <c r="E34" s="87"/>
+      <c r="E34" s="47"/>
       <c r="F34" s="34"/>
       <c r="G34" s="16"/>
     </row>
     <row r="35" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="84"/>
-      <c r="C35" s="84"/>
+      <c r="B35" s="89"/>
+      <c r="C35" s="89"/>
       <c r="D35" s="34"/>
-      <c r="E35" s="87"/>
+      <c r="E35" s="47"/>
       <c r="F35" s="34"/>
       <c r="G35" s="16"/>
     </row>
     <row r="36" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="83"/>
-      <c r="C36" s="83"/>
+      <c r="B36" s="90"/>
+      <c r="C36" s="90"/>
       <c r="D36" s="34"/>
-      <c r="E36" s="87"/>
+      <c r="E36" s="47"/>
       <c r="F36" s="34" t="s">
         <v>304</v>
       </c>
       <c r="G36" s="16"/>
     </row>
     <row r="37" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="82">
+      <c r="B37" s="88">
         <v>12</v>
       </c>
-      <c r="C37" s="82" t="s">
+      <c r="C37" s="88" t="s">
         <v>305</v>
       </c>
       <c r="D37" s="16" t="s">
         <v>306</v>
       </c>
-      <c r="E37" s="87" t="s">
+      <c r="E37" s="47" t="s">
         <v>307</v>
       </c>
       <c r="F37" s="34"/>
       <c r="G37" s="16"/>
     </row>
     <row r="38" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="83"/>
-      <c r="C38" s="83"/>
+      <c r="B38" s="90"/>
+      <c r="C38" s="90"/>
       <c r="D38" s="34"/>
-      <c r="E38" s="87"/>
+      <c r="E38" s="47"/>
       <c r="F38" s="34"/>
       <c r="G38" s="16"/>
     </row>
     <row r="39" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="82">
+      <c r="B39" s="88">
         <v>13</v>
       </c>
-      <c r="C39" s="82" t="s">
+      <c r="C39" s="88" t="s">
         <v>334</v>
       </c>
       <c r="D39" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="E39" s="87"/>
+      <c r="E39" s="47"/>
       <c r="F39" s="34" t="s">
         <v>333</v>
       </c>
       <c r="G39" s="16"/>
     </row>
     <row r="40" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="83"/>
-      <c r="C40" s="83"/>
+      <c r="B40" s="90"/>
+      <c r="C40" s="90"/>
       <c r="D40" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="E40" s="87"/>
+      <c r="E40" s="47"/>
       <c r="F40" s="34" t="s">
         <v>335</v>
       </c>
@@ -12409,7 +12419,7 @@
       <c r="B41" s="41"/>
       <c r="C41" s="41"/>
       <c r="D41" s="34"/>
-      <c r="E41" s="87"/>
+      <c r="E41" s="47"/>
       <c r="F41" s="34"/>
       <c r="G41" s="16"/>
     </row>
@@ -12417,7 +12427,7 @@
       <c r="B42" s="41"/>
       <c r="C42" s="41"/>
       <c r="D42" s="34"/>
-      <c r="E42" s="87"/>
+      <c r="E42" s="47"/>
       <c r="F42" s="34"/>
       <c r="G42" s="16"/>
     </row>
@@ -12425,7 +12435,7 @@
       <c r="B43" s="41"/>
       <c r="C43" s="41"/>
       <c r="D43" s="34"/>
-      <c r="E43" s="87"/>
+      <c r="E43" s="47"/>
       <c r="F43" s="34"/>
       <c r="G43" s="16"/>
     </row>
@@ -12433,7 +12443,7 @@
       <c r="B44" s="41"/>
       <c r="C44" s="41"/>
       <c r="D44" s="34"/>
-      <c r="E44" s="87"/>
+      <c r="E44" s="47"/>
       <c r="F44" s="34"/>
       <c r="G44" s="16"/>
     </row>
@@ -12441,7 +12451,7 @@
       <c r="B45" s="41"/>
       <c r="C45" s="41"/>
       <c r="D45" s="34"/>
-      <c r="E45" s="87"/>
+      <c r="E45" s="47"/>
       <c r="F45" s="34"/>
       <c r="G45" s="16"/>
     </row>
@@ -12449,7 +12459,7 @@
       <c r="B46" s="41"/>
       <c r="C46" s="41"/>
       <c r="D46" s="34"/>
-      <c r="E46" s="87"/>
+      <c r="E46" s="47"/>
       <c r="F46" s="34"/>
       <c r="G46" s="16"/>
     </row>
@@ -12457,7 +12467,7 @@
       <c r="B47" s="41"/>
       <c r="C47" s="41"/>
       <c r="D47" s="34"/>
-      <c r="E47" s="87"/>
+      <c r="E47" s="47"/>
       <c r="F47" s="34"/>
       <c r="G47" s="16"/>
     </row>
@@ -12465,7 +12475,7 @@
       <c r="B48" s="41"/>
       <c r="C48" s="41"/>
       <c r="D48" s="34"/>
-      <c r="E48" s="87"/>
+      <c r="E48" s="47"/>
       <c r="F48" s="34"/>
       <c r="G48" s="16"/>
     </row>
@@ -12473,7 +12483,7 @@
       <c r="B49" s="41"/>
       <c r="C49" s="41"/>
       <c r="D49" s="34"/>
-      <c r="E49" s="87"/>
+      <c r="E49" s="47"/>
       <c r="F49" s="34"/>
       <c r="G49" s="16"/>
     </row>
@@ -12481,7 +12491,7 @@
       <c r="B50" s="41"/>
       <c r="C50" s="41"/>
       <c r="D50" s="34"/>
-      <c r="E50" s="87"/>
+      <c r="E50" s="47"/>
       <c r="F50" s="34"/>
       <c r="G50" s="16"/>
     </row>
@@ -12489,7 +12499,7 @@
       <c r="B51" s="41"/>
       <c r="C51" s="41"/>
       <c r="D51" s="34"/>
-      <c r="E51" s="87"/>
+      <c r="E51" s="47"/>
       <c r="F51" s="34"/>
       <c r="G51" s="16"/>
     </row>
@@ -12497,7 +12507,7 @@
       <c r="B52" s="41"/>
       <c r="C52" s="41"/>
       <c r="D52" s="34"/>
-      <c r="E52" s="87"/>
+      <c r="E52" s="47"/>
       <c r="F52" s="34"/>
       <c r="G52" s="16"/>
     </row>
@@ -12505,7 +12515,7 @@
       <c r="B53" s="37"/>
       <c r="C53" s="37"/>
       <c r="D53" s="16"/>
-      <c r="E53" s="87"/>
+      <c r="E53" s="47"/>
       <c r="F53" s="34"/>
       <c r="G53" s="16"/>
     </row>
@@ -12523,7 +12533,7 @@
       <c r="D56" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="E56" s="86" t="s">
+      <c r="E56" s="46" t="s">
         <v>246</v>
       </c>
       <c r="F56" s="33" t="s">
@@ -12538,7 +12548,7 @@
       <c r="D57" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="E57" s="90" t="s">
+      <c r="E57" s="50" t="s">
         <v>249</v>
       </c>
       <c r="F57" s="16" t="s">
@@ -12553,7 +12563,7 @@
       <c r="D58" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="E58" s="90" t="s">
+      <c r="E58" s="50" t="s">
         <v>245</v>
       </c>
       <c r="F58" s="16"/>
@@ -12566,7 +12576,7 @@
       <c r="D59" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="E59" s="90" t="s">
+      <c r="E59" s="50" t="s">
         <v>255</v>
       </c>
       <c r="F59" s="6"/>
@@ -12579,7 +12589,7 @@
       <c r="D60" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="E60" s="90" t="s">
+      <c r="E60" s="50" t="s">
         <v>277</v>
       </c>
       <c r="F60" s="6"/>
@@ -12592,7 +12602,7 @@
       <c r="D61" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="E61" s="90" t="s">
+      <c r="E61" s="50" t="s">
         <v>284</v>
       </c>
       <c r="F61" s="16"/>
@@ -12605,7 +12615,7 @@
       <c r="D62" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="E62" s="90" t="s">
+      <c r="E62" s="50" t="s">
         <v>286</v>
       </c>
       <c r="F62" s="6"/>
@@ -12618,7 +12628,7 @@
       <c r="D63" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="E63" s="90" t="s">
+      <c r="E63" s="50" t="s">
         <v>288</v>
       </c>
       <c r="F63" s="16"/>
@@ -12629,7 +12639,7 @@
       </c>
       <c r="C64" s="16"/>
       <c r="D64" s="16"/>
-      <c r="E64" s="90"/>
+      <c r="E64" s="50"/>
       <c r="F64" s="16"/>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
@@ -12638,7 +12648,7 @@
       </c>
       <c r="C65" s="16"/>
       <c r="D65" s="16"/>
-      <c r="E65" s="87"/>
+      <c r="E65" s="47"/>
       <c r="F65" s="16"/>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
@@ -12647,16 +12657,11 @@
       </c>
       <c r="C66" s="16"/>
       <c r="D66" s="16"/>
-      <c r="E66" s="87"/>
+      <c r="E66" s="47"/>
       <c r="F66" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
     <mergeCell ref="C39:C40"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="C4:C7"/>
@@ -12671,6 +12676,11 @@
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="B30:B36"/>
     <mergeCell ref="C20:C23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E58" r:id="rId1"/>
@@ -12699,9 +12709,10 @@
     <hyperlink ref="F21" r:id="rId24"/>
     <hyperlink ref="F32" r:id="rId25"/>
     <hyperlink ref="F22" r:id="rId26"/>
+    <hyperlink ref="F33" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId27"/>
-  <drawing r:id="rId28"/>
+  <pageSetup orientation="portrait" r:id="rId28"/>
+  <drawing r:id="rId29"/>
 </worksheet>
 </file>